--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -492,7 +492,7 @@
         <v>160.1393199104967</v>
       </c>
       <c r="D2" t="n">
-        <v>221.2861964294511</v>
+        <v>221.0849778471946</v>
       </c>
       <c r="E2" t="n">
         <v>146</v>
@@ -522,13 +522,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="n">
         <v>140.7101126442642</v>
       </c>
       <c r="D3" t="n">
-        <v>203.9263651953787</v>
+        <v>201.7484654015377</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -558,13 +558,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="n">
         <v>134.305057165544</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9184621413842</v>
+        <v>195.5400274973452</v>
       </c>
       <c r="E4" t="n">
         <v>90</v>
@@ -594,13 +594,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
         <v>137.1143504031909</v>
       </c>
       <c r="D5" t="n">
-        <v>196.0693780496692</v>
+        <v>199.8839534004867</v>
       </c>
       <c r="E5" t="n">
         <v>107</v>
@@ -630,13 +630,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C6" t="n">
         <v>136.0710800611095</v>
       </c>
       <c r="D6" t="n">
-        <v>195.6479329656704</v>
+        <v>201.3808662571929</v>
       </c>
       <c r="E6" t="n">
         <v>87</v>
@@ -666,13 +666,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="n">
         <v>127.2728176039879</v>
       </c>
       <c r="D7" t="n">
-        <v>191.8930890981957</v>
+        <v>185.1395569624067</v>
       </c>
       <c r="E7" t="n">
         <v>81</v>
@@ -708,7 +708,7 @@
         <v>118.8715555085086</v>
       </c>
       <c r="D8" t="n">
-        <v>182.5715966257648</v>
+        <v>181.6949562513354</v>
       </c>
       <c r="E8" t="n">
         <v>82</v>
@@ -744,7 +744,7 @@
         <v>117.09426260854</v>
       </c>
       <c r="D9" t="n">
-        <v>179.7323953914248</v>
+        <v>179.616336125509</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -774,13 +774,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="n">
         <v>116.1682451285496</v>
       </c>
       <c r="D10" t="n">
-        <v>177.783185057803</v>
+        <v>175.7337833657078</v>
       </c>
       <c r="E10" t="n">
         <v>79</v>
@@ -816,7 +816,7 @@
         <v>106.8112368444398</v>
       </c>
       <c r="D11" t="n">
-        <v>168.0504804117747</v>
+        <v>167.4459777250811</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -846,13 +846,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="n">
         <v>92.0746914114978</v>
       </c>
       <c r="D12" t="n">
-        <v>155.5529428207891</v>
+        <v>152.3396702761764</v>
       </c>
       <c r="E12" t="n">
         <v>89</v>
@@ -882,13 +882,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" t="n">
         <v>87.8319741674655</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9217107908434</v>
+        <v>153.6437735335704</v>
       </c>
       <c r="E13" t="n">
         <v>88</v>
@@ -918,13 +918,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" t="n">
         <v>104.0665901788299</v>
       </c>
       <c r="D14" t="n">
-        <v>164.3183949962696</v>
+        <v>165.7719481597741</v>
       </c>
       <c r="E14" t="n">
         <v>83</v>
@@ -954,13 +954,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" t="n">
         <v>129.0963392672726</v>
       </c>
       <c r="D15" t="n">
-        <v>190.2767027514267</v>
+        <v>190.8652103296676</v>
       </c>
       <c r="E15" t="n">
         <v>80</v>
@@ -990,13 +990,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" t="n">
         <v>138.2451720905276</v>
       </c>
       <c r="D16" t="n">
-        <v>202.8766063644528</v>
+        <v>200.4464218693634</v>
       </c>
       <c r="E16" t="n">
         <v>82</v>
@@ -1026,13 +1026,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="n">
         <v>119.9330063967863</v>
       </c>
       <c r="D17" t="n">
-        <v>182.110049628758</v>
+        <v>185.9286942386037</v>
       </c>
       <c r="E17" t="n">
         <v>81</v>
@@ -1068,7 +1068,7 @@
         <v>89.81249305448448</v>
       </c>
       <c r="D18" t="n">
-        <v>153.9503301893685</v>
+        <v>155.2100107058579</v>
       </c>
       <c r="E18" t="n">
         <v>76</v>
@@ -1098,13 +1098,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
         <v>75.53401683205507</v>
       </c>
       <c r="D19" t="n">
-        <v>135.4445690493043</v>
+        <v>133.6299565829612</v>
       </c>
       <c r="E19" t="n">
         <v>73</v>
@@ -1134,13 +1134,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
         <v>88.04697620922246</v>
       </c>
       <c r="D20" t="n">
-        <v>149.4079188499079</v>
+        <v>154.4480246787629</v>
       </c>
       <c r="E20" t="n">
         <v>81</v>
@@ -1176,7 +1176,7 @@
         <v>110.9702056577835</v>
       </c>
       <c r="D21" t="n">
-        <v>177.036367668138</v>
+        <v>176.4309099129671</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -1283,7 +1283,7 @@
         <v>166.4751861498553</v>
       </c>
       <c r="D2" t="n">
-        <v>234.3468343449142</v>
+        <v>234.0890616412142</v>
       </c>
       <c r="E2" t="n">
         <v>174</v>
@@ -1313,13 +1313,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C3" t="n">
         <v>180.8397447646376</v>
       </c>
       <c r="D3" t="n">
-        <v>249.5076491481891</v>
+        <v>255.5624876177054</v>
       </c>
       <c r="E3" t="n">
         <v>105</v>
@@ -1355,7 +1355,7 @@
         <v>154.0090714360897</v>
       </c>
       <c r="D4" t="n">
-        <v>226.6255649450782</v>
+        <v>228.1469955562823</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
@@ -1385,13 +1385,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C5" t="n">
         <v>105.3601955580259</v>
       </c>
       <c r="D5" t="n">
-        <v>180.7028828754909</v>
+        <v>171.0383102333376</v>
       </c>
       <c r="E5" t="n">
         <v>105</v>
@@ -1421,13 +1421,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" t="n">
         <v>64.84919566925181</v>
       </c>
       <c r="D6" t="n">
-        <v>137.2923843478614</v>
+        <v>129.1274725553662</v>
       </c>
       <c r="E6" t="n">
         <v>83</v>
@@ -1457,13 +1457,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="n">
         <v>48.89471581103997</v>
       </c>
       <c r="D7" t="n">
-        <v>118.8660328383326</v>
+        <v>121.9366143077742</v>
       </c>
       <c r="E7" t="n">
         <v>67</v>
@@ -1499,7 +1499,7 @@
         <v>53.08408112802231</v>
       </c>
       <c r="D8" t="n">
-        <v>123.7919232877161</v>
+        <v>122.4787996547277</v>
       </c>
       <c r="E8" t="n">
         <v>71</v>
@@ -1529,13 +1529,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="n">
         <v>63.19006356021882</v>
       </c>
       <c r="D9" t="n">
-        <v>133.2448155376883</v>
+        <v>138.1457550133834</v>
       </c>
       <c r="E9" t="n">
         <v>66</v>
@@ -1565,13 +1565,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="n">
         <v>68.60224395789895</v>
       </c>
       <c r="D10" t="n">
-        <v>141.3399672337405</v>
+        <v>142.975817229278</v>
       </c>
       <c r="E10" t="n">
         <v>65</v>
@@ -1601,13 +1601,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="n">
         <v>65.9676905849193</v>
       </c>
       <c r="D11" t="n">
-        <v>141.5139094011011</v>
+        <v>130.5190494994928</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -1637,13 +1637,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
         <v>55.90581604176235</v>
       </c>
       <c r="D12" t="n">
-        <v>123.1563236719524</v>
+        <v>129.8849263716982</v>
       </c>
       <c r="E12" t="n">
         <v>68</v>
@@ -1673,13 +1673,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
         <v>41.45379216004909</v>
       </c>
       <c r="D13" t="n">
-        <v>111.8809033529902</v>
+        <v>116.591158556338</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -1715,7 +1715,7 @@
         <v>29.02486284422996</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0672500213886</v>
+        <v>100.7306759217145</v>
       </c>
       <c r="E14" t="n">
         <v>66</v>
@@ -1745,13 +1745,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>25.79464953480029</v>
       </c>
       <c r="D15" t="n">
-        <v>93.30304830104535</v>
+        <v>98.98452153795701</v>
       </c>
       <c r="E15" t="n">
         <v>62</v>
@@ -1781,13 +1781,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>32.72261470460429</v>
       </c>
       <c r="D16" t="n">
-        <v>105.0662604173101</v>
+        <v>101.3594400008375</v>
       </c>
       <c r="E16" t="n">
         <v>63</v>
@@ -1823,7 +1823,7 @@
         <v>41.68677369843287</v>
       </c>
       <c r="D17" t="n">
-        <v>109.8690980712604</v>
+        <v>110.3852022442807</v>
       </c>
       <c r="E17" t="n">
         <v>62</v>
@@ -1853,13 +1853,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
         <v>43.1172197491487</v>
       </c>
       <c r="D18" t="n">
-        <v>115.4354479669998</v>
+        <v>114.247613863925</v>
       </c>
       <c r="E18" t="n">
         <v>59</v>
@@ -1889,13 +1889,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>37.28832950554266</v>
       </c>
       <c r="D19" t="n">
-        <v>103.3528651153817</v>
+        <v>107.9919638190198</v>
       </c>
       <c r="E19" t="n">
         <v>56</v>
@@ -1931,7 +1931,7 @@
         <v>35.35349654581896</v>
       </c>
       <c r="D20" t="n">
-        <v>103.9339010223012</v>
+        <v>104.796324783441</v>
       </c>
       <c r="E20" t="n">
         <v>65</v>
@@ -1961,13 +1961,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
         <v>46.74881781857644</v>
       </c>
       <c r="D21" t="n">
-        <v>113.7417464556093</v>
+        <v>119.8240781494048</v>
       </c>
       <c r="E21" t="n">
         <v>57</v>
@@ -2074,7 +2074,7 @@
         <v>-1.514556315933952</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5068253544142</v>
+        <v>17.64042441662114</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -2104,13 +2104,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>-2.617230251045018</v>
       </c>
       <c r="D3" t="n">
-        <v>18.28912198569227</v>
+        <v>16.6201965439883</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -2146,7 +2146,7 @@
         <v>-2.91510982750959</v>
       </c>
       <c r="D4" t="n">
-        <v>15.71118446627673</v>
+        <v>16.6548992654382</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -2182,7 +2182,7 @@
         <v>-2.47419129882358</v>
       </c>
       <c r="D5" t="n">
-        <v>17.34332442219636</v>
+        <v>16.75117441384114</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -2212,13 +2212,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>-2.293697859405471</v>
       </c>
       <c r="D6" t="n">
-        <v>16.32923647152826</v>
+        <v>18.22392699872321</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -2254,7 +2254,7 @@
         <v>-3.409903982860305</v>
       </c>
       <c r="D7" t="n">
-        <v>15.46173247856318</v>
+        <v>15.89800956019089</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -2290,7 +2290,7 @@
         <v>-5.426062413872022</v>
       </c>
       <c r="D8" t="n">
-        <v>13.47369897396437</v>
+        <v>12.93572156289842</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -2326,7 +2326,7 @@
         <v>-6.514999184766452</v>
       </c>
       <c r="D9" t="n">
-        <v>12.44978366091885</v>
+        <v>11.85865455729252</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -2356,13 +2356,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>-5.356960383649724</v>
       </c>
       <c r="D10" t="n">
-        <v>12.61968107785234</v>
+        <v>14.31037386445029</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -2392,13 +2392,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>-2.805807977619671</v>
       </c>
       <c r="D11" t="n">
-        <v>16.4813544672036</v>
+        <v>18.24644518752616</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -2434,7 +2434,7 @@
         <v>-1.084684004065017</v>
       </c>
       <c r="D12" t="n">
-        <v>17.96331634289257</v>
+        <v>18.08077902055489</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -2464,13 +2464,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>-1.392526154904137</v>
       </c>
       <c r="D13" t="n">
-        <v>17.95385736010364</v>
+        <v>18.7823393435219</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -2506,7 +2506,7 @@
         <v>-2.950978700796204</v>
       </c>
       <c r="D14" t="n">
-        <v>18.09728059204943</v>
+        <v>15.78982458671447</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -2542,7 +2542,7 @@
         <v>-4.631948961416269</v>
       </c>
       <c r="D15" t="n">
-        <v>15.09143938835147</v>
+        <v>13.93146918752713</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>-6.742286704585696</v>
       </c>
       <c r="D16" t="n">
-        <v>13.55344231345545</v>
+        <v>11.23525802650791</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -2614,7 +2614,7 @@
         <v>-10.26842404528771</v>
       </c>
       <c r="D17" t="n">
-        <v>10.7013329536713</v>
+        <v>8.771486893698055</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -2650,7 +2650,7 @@
         <v>-14.56307683371668</v>
       </c>
       <c r="D18" t="n">
-        <v>2.510289731372714</v>
+        <v>5.785366465743787</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -2686,7 +2686,7 @@
         <v>-17.06484829811482</v>
       </c>
       <c r="D19" t="n">
-        <v>2.947625900475655</v>
+        <v>3.351765655209337</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -2722,7 +2722,7 @@
         <v>-16.15716449908831</v>
       </c>
       <c r="D20" t="n">
-        <v>3.828621137750378</v>
+        <v>3.492528385869525</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -2758,7 +2758,7 @@
         <v>-13.64580245057114</v>
       </c>
       <c r="D21" t="n">
-        <v>5.662621612379652</v>
+        <v>5.506021936574759</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -2865,7 +2865,7 @@
         <v>152.4554252729202</v>
       </c>
       <c r="D2" t="n">
-        <v>191.4144174618348</v>
+        <v>190.0910339471775</v>
       </c>
       <c r="E2" t="n">
         <v>104</v>
@@ -2895,13 +2895,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C3" t="n">
         <v>195.1748744888661</v>
       </c>
       <c r="D3" t="n">
-        <v>230.638589256635</v>
+        <v>233.3275293256467</v>
       </c>
       <c r="E3" t="n">
         <v>67</v>
@@ -2931,13 +2931,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C4" t="n">
         <v>200.216905685073</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2046755780689</v>
+        <v>240.8982021110415</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
@@ -2967,13 +2967,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
         <v>165.6138375330004</v>
       </c>
       <c r="D5" t="n">
-        <v>206.2250480492322</v>
+        <v>203.2885980182523</v>
       </c>
       <c r="E5" t="n">
         <v>68</v>
@@ -3003,13 +3003,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" t="n">
         <v>125.2903206893107</v>
       </c>
       <c r="D6" t="n">
-        <v>162.4066031865327</v>
+        <v>162.8886632926573</v>
       </c>
       <c r="E6" t="n">
         <v>55</v>
@@ -3045,7 +3045,7 @@
         <v>108.2391577836601</v>
       </c>
       <c r="D7" t="n">
-        <v>145.778868942673</v>
+        <v>146.8522370952435</v>
       </c>
       <c r="E7" t="n">
         <v>53</v>
@@ -3081,7 +3081,7 @@
         <v>108.9587251086184</v>
       </c>
       <c r="D8" t="n">
-        <v>147.4189044716754</v>
+        <v>146.537376583008</v>
       </c>
       <c r="E8" t="n">
         <v>54</v>
@@ -3111,13 +3111,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="n">
         <v>105.9050127804263</v>
       </c>
       <c r="D9" t="n">
-        <v>141.9529185457743</v>
+        <v>141.0210774705989</v>
       </c>
       <c r="E9" t="n">
         <v>52</v>
@@ -3153,7 +3153,7 @@
         <v>98.43921378240555</v>
       </c>
       <c r="D10" t="n">
-        <v>136.2936685104605</v>
+        <v>136.1640153028027</v>
       </c>
       <c r="E10" t="n">
         <v>51</v>
@@ -3183,13 +3183,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="n">
         <v>107.9051862151046</v>
       </c>
       <c r="D11" t="n">
-        <v>148.5052123286437</v>
+        <v>146.252532241961</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
@@ -3225,7 +3225,7 @@
         <v>139.7750056808643</v>
       </c>
       <c r="D12" t="n">
-        <v>178.6808169980723</v>
+        <v>175.5692787002968</v>
       </c>
       <c r="E12" t="n">
         <v>63</v>
@@ -3261,7 +3261,7 @@
         <v>161.925826857676</v>
       </c>
       <c r="D13" t="n">
-        <v>199.525825663797</v>
+        <v>200.029598337419</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -3291,13 +3291,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" t="n">
         <v>137.2814296358182</v>
       </c>
       <c r="D14" t="n">
-        <v>174.1076501092204</v>
+        <v>176.6062986051131</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -3327,13 +3327,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="n">
         <v>74.91938631222418</v>
       </c>
       <c r="D15" t="n">
-        <v>111.1136996715692</v>
+        <v>116.1634683976632</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -3369,7 +3369,7 @@
         <v>30.88385624800652</v>
       </c>
       <c r="D16" t="n">
-        <v>67.09970927942314</v>
+        <v>68.45867424498672</v>
       </c>
       <c r="E16" t="n">
         <v>59</v>
@@ -3405,7 +3405,7 @@
         <v>48.26294095546403</v>
       </c>
       <c r="D17" t="n">
-        <v>83.4090116316423</v>
+        <v>83.86851019117597</v>
       </c>
       <c r="E17" t="n">
         <v>59</v>
@@ -3441,7 +3441,7 @@
         <v>105.5419904717432</v>
       </c>
       <c r="D18" t="n">
-        <v>145.187794561479</v>
+        <v>144.5568439352778</v>
       </c>
       <c r="E18" t="n">
         <v>56</v>
@@ -3477,7 +3477,7 @@
         <v>138.6671491667557</v>
       </c>
       <c r="D19" t="n">
-        <v>176.3171266723292</v>
+        <v>176.2469300397337</v>
       </c>
       <c r="E19" t="n">
         <v>55</v>
@@ -3513,7 +3513,7 @@
         <v>113.8976213917097</v>
       </c>
       <c r="D20" t="n">
-        <v>153.6132183226802</v>
+        <v>152.7115243547536</v>
       </c>
       <c r="E20" t="n">
         <v>61</v>
@@ -3549,7 +3549,7 @@
         <v>64.46966010339058</v>
       </c>
       <c r="D21" t="n">
-        <v>101.9866369065423</v>
+        <v>103.5775184397716</v>
       </c>
       <c r="E21" t="n">
         <v>54</v>
@@ -3656,7 +3656,7 @@
         <v>-22.12577319336522</v>
       </c>
       <c r="D2" t="n">
-        <v>-11.75703877713515</v>
+        <v>-12.0649011511458</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -3692,7 +3692,7 @@
         <v>-70.61697148788227</v>
       </c>
       <c r="D3" t="n">
-        <v>-60.89847029904524</v>
+        <v>-58.60255706277554</v>
       </c>
       <c r="E3" t="n">
         <v>27</v>
@@ -3728,7 +3728,7 @@
         <v>-92.87850469802409</v>
       </c>
       <c r="D4" t="n">
-        <v>-82.5657156685884</v>
+        <v>-82.17838698355609</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
@@ -3764,7 +3764,7 @@
         <v>-41.59667064398767</v>
       </c>
       <c r="D5" t="n">
-        <v>-31.20877989308915</v>
+        <v>-30.02321168508124</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -3800,7 +3800,7 @@
         <v>75.22508882576415</v>
       </c>
       <c r="D6" t="n">
-        <v>85.74472895046475</v>
+        <v>85.62308419655966</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -3836,7 +3836,7 @@
         <v>175.3478135360106</v>
       </c>
       <c r="D7" t="n">
-        <v>186.1953639870356</v>
+        <v>186.0589138553771</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -3872,7 +3872,7 @@
         <v>169.295295131984</v>
       </c>
       <c r="D8" t="n">
-        <v>179.1192745216059</v>
+        <v>179.9279473612815</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -3908,7 +3908,7 @@
         <v>58.78632180888359</v>
       </c>
       <c r="D9" t="n">
-        <v>70.1320687267006</v>
+        <v>69.74082401413624</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -3944,7 +3944,7 @@
         <v>-46.278773008698</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.53221435455279</v>
+        <v>-35.82501465321602</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -3980,7 +3980,7 @@
         <v>-32.35409084554779</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.84880343133083</v>
+        <v>-21.41693286155797</v>
       </c>
       <c r="E11" t="n">
         <v>17</v>
@@ -4010,13 +4010,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
         <v>92.53522946072407</v>
       </c>
       <c r="D12" t="n">
-        <v>102.3673684508703</v>
+        <v>103.1766388522287</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -4052,7 +4052,7 @@
         <v>196.8682518270654</v>
       </c>
       <c r="D13" t="n">
-        <v>207.0726140987557</v>
+        <v>207.2844332072682</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -4088,7 +4088,7 @@
         <v>164.7025628841462</v>
       </c>
       <c r="D14" t="n">
-        <v>175.1525590425176</v>
+        <v>175.877213565638</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -4118,13 +4118,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>28.3267233726577</v>
       </c>
       <c r="D15" t="n">
-        <v>38.4256380656872</v>
+        <v>39.32749247658997</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -4160,7 +4160,7 @@
         <v>-60.04122128416662</v>
       </c>
       <c r="D16" t="n">
-        <v>-49.68505910582507</v>
+        <v>-50.14715971954683</v>
       </c>
       <c r="E16" t="n">
         <v>17</v>
@@ -4190,13 +4190,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>4.261183091194372</v>
       </c>
       <c r="D17" t="n">
-        <v>15.38804637448898</v>
+        <v>14.84852449256483</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -4226,13 +4226,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>157.4304685519537</v>
       </c>
       <c r="D18" t="n">
-        <v>168.1601295481196</v>
+        <v>167.6023283419961</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -4268,7 +4268,7 @@
         <v>233.7692723560557</v>
       </c>
       <c r="D19" t="n">
-        <v>244.3164679000932</v>
+        <v>244.121833014396</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -4304,7 +4304,7 @@
         <v>148.752406610352</v>
       </c>
       <c r="D20" t="n">
-        <v>159.2673809210679</v>
+        <v>160.1105965927824</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
@@ -4340,7 +4340,7 @@
         <v>-7.948342930574016</v>
       </c>
       <c r="D21" t="n">
-        <v>3.046537611419986</v>
+        <v>2.525499866017072</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -4387,17 +4387,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Product Title</t>
+          <t>product title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -486,13 +486,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C2" t="n">
-        <v>160.1393199104967</v>
+        <v>159.0579063769659</v>
       </c>
       <c r="D2" t="n">
-        <v>221.0849778471946</v>
+        <v>219.7251383275931</v>
       </c>
       <c r="E2" t="n">
         <v>146</v>
@@ -522,13 +522,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C3" t="n">
-        <v>140.7101126442642</v>
+        <v>139.6528418789017</v>
       </c>
       <c r="D3" t="n">
-        <v>201.7484654015377</v>
+        <v>201.713711752245</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -558,13 +558,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C4" t="n">
-        <v>134.305057165544</v>
+        <v>131.965918950232</v>
       </c>
       <c r="D4" t="n">
-        <v>195.5400274973452</v>
+        <v>192.3466005740052</v>
       </c>
       <c r="E4" t="n">
         <v>90</v>
@@ -594,13 +594,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>137.1143504031909</v>
+        <v>133.0876979309015</v>
       </c>
       <c r="D5" t="n">
-        <v>199.8839534004867</v>
+        <v>196.2527394837394</v>
       </c>
       <c r="E5" t="n">
         <v>107</v>
@@ -630,13 +630,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C6" t="n">
-        <v>136.0710800611095</v>
+        <v>131.4755148449333</v>
       </c>
       <c r="D6" t="n">
-        <v>201.3808662571929</v>
+        <v>194.1706464143203</v>
       </c>
       <c r="E6" t="n">
         <v>87</v>
@@ -666,13 +666,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
-        <v>127.2728176039879</v>
+        <v>123.7535066356939</v>
       </c>
       <c r="D7" t="n">
-        <v>185.1395569624067</v>
+        <v>190.0772104741484</v>
       </c>
       <c r="E7" t="n">
         <v>81</v>
@@ -702,13 +702,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C8" t="n">
-        <v>118.8715555085086</v>
+        <v>117.0614502306418</v>
       </c>
       <c r="D8" t="n">
-        <v>181.6949562513354</v>
+        <v>179.4613031286135</v>
       </c>
       <c r="E8" t="n">
         <v>82</v>
@@ -738,13 +738,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C9" t="n">
-        <v>117.09426260854</v>
+        <v>116.1879658439726</v>
       </c>
       <c r="D9" t="n">
-        <v>179.616336125509</v>
+        <v>175.852941400767</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -774,13 +774,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C10" t="n">
-        <v>116.1682451285496</v>
+        <v>114.9559418113139</v>
       </c>
       <c r="D10" t="n">
-        <v>175.7337833657078</v>
+        <v>173.6228085021944</v>
       </c>
       <c r="E10" t="n">
         <v>79</v>
@@ -810,13 +810,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C11" t="n">
-        <v>106.8112368444398</v>
+        <v>104.9085532897964</v>
       </c>
       <c r="D11" t="n">
-        <v>167.4459777250811</v>
+        <v>167.9251447882201</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -846,13 +846,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>92.0746914114978</v>
+        <v>90.02457290243973</v>
       </c>
       <c r="D12" t="n">
-        <v>152.3396702761764</v>
+        <v>153.8561052807109</v>
       </c>
       <c r="E12" t="n">
         <v>89</v>
@@ -882,13 +882,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C13" t="n">
-        <v>87.8319741674655</v>
+        <v>86.19031374014077</v>
       </c>
       <c r="D13" t="n">
-        <v>153.6437735335704</v>
+        <v>145.1285654053279</v>
       </c>
       <c r="E13" t="n">
         <v>88</v>
@@ -918,13 +918,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C14" t="n">
-        <v>104.0665901788299</v>
+        <v>102.7188618522469</v>
       </c>
       <c r="D14" t="n">
-        <v>165.7719481597741</v>
+        <v>165.5335401521822</v>
       </c>
       <c r="E14" t="n">
         <v>83</v>
@@ -954,13 +954,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C15" t="n">
-        <v>129.0963392672726</v>
+        <v>127.5895939199529</v>
       </c>
       <c r="D15" t="n">
-        <v>190.8652103296676</v>
+        <v>193.6218809483319</v>
       </c>
       <c r="E15" t="n">
         <v>80</v>
@@ -990,13 +990,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C16" t="n">
-        <v>138.2451720905276</v>
+        <v>136.5687735724096</v>
       </c>
       <c r="D16" t="n">
-        <v>200.4464218693634</v>
+        <v>204.9387132200902</v>
       </c>
       <c r="E16" t="n">
         <v>82</v>
@@ -1026,13 +1026,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>119.9330063967863</v>
+        <v>118.6637825999316</v>
       </c>
       <c r="D17" t="n">
-        <v>185.9286942386037</v>
+        <v>182.7033783510813</v>
       </c>
       <c r="E17" t="n">
         <v>81</v>
@@ -1062,13 +1062,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C18" t="n">
-        <v>89.81249305448448</v>
+        <v>89.4294120177901</v>
       </c>
       <c r="D18" t="n">
-        <v>155.2100107058579</v>
+        <v>156.6148410223776</v>
       </c>
       <c r="E18" t="n">
         <v>76</v>
@@ -1098,13 +1098,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>75.53401683205507</v>
+        <v>75.80333112620949</v>
       </c>
       <c r="D19" t="n">
-        <v>133.6299565829612</v>
+        <v>136.765133360131</v>
       </c>
       <c r="E19" t="n">
         <v>73</v>
@@ -1134,13 +1134,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C20" t="n">
-        <v>88.04697620922246</v>
+        <v>88.29075000254248</v>
       </c>
       <c r="D20" t="n">
-        <v>154.4480246787629</v>
+        <v>148.1024288435489</v>
       </c>
       <c r="E20" t="n">
         <v>81</v>
@@ -1170,13 +1170,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C21" t="n">
-        <v>110.9702056577835</v>
+        <v>110.9104952959933</v>
       </c>
       <c r="D21" t="n">
-        <v>176.4309099129671</v>
+        <v>178.2889784981425</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -1277,13 +1277,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2" t="n">
-        <v>166.4751861498553</v>
+        <v>167.1059298179758</v>
       </c>
       <c r="D2" t="n">
-        <v>234.0890616412142</v>
+        <v>233.4827336497382</v>
       </c>
       <c r="E2" t="n">
         <v>174</v>
@@ -1313,13 +1313,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C3" t="n">
-        <v>180.8397447646376</v>
+        <v>201.6203085618776</v>
       </c>
       <c r="D3" t="n">
-        <v>255.5624876177054</v>
+        <v>267.4409314337424</v>
       </c>
       <c r="E3" t="n">
         <v>105</v>
@@ -1349,13 +1349,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C4" t="n">
-        <v>154.0090714360897</v>
+        <v>200.0406769189438</v>
       </c>
       <c r="D4" t="n">
-        <v>228.1469955562823</v>
+        <v>265.641136710668</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
@@ -1385,13 +1385,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C5" t="n">
-        <v>105.3601955580259</v>
+        <v>164.9148641149663</v>
       </c>
       <c r="D5" t="n">
-        <v>171.0383102333376</v>
+        <v>230.7995255636625</v>
       </c>
       <c r="E5" t="n">
         <v>105</v>
@@ -1421,13 +1421,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
-        <v>64.84919566925181</v>
+        <v>118.2333547034587</v>
       </c>
       <c r="D6" t="n">
-        <v>129.1274725553662</v>
+        <v>180.9120117734545</v>
       </c>
       <c r="E6" t="n">
         <v>83</v>
@@ -1457,13 +1457,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C7" t="n">
-        <v>48.89471581103997</v>
+        <v>84.65157752896747</v>
       </c>
       <c r="D7" t="n">
-        <v>121.9366143077742</v>
+        <v>150.0754225833382</v>
       </c>
       <c r="E7" t="n">
         <v>67</v>
@@ -1493,13 +1493,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>53.08408112802231</v>
+        <v>75.60036606439833</v>
       </c>
       <c r="D8" t="n">
-        <v>122.4787996547277</v>
+        <v>145.1515027657788</v>
       </c>
       <c r="E8" t="n">
         <v>71</v>
@@ -1529,13 +1529,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
-        <v>63.19006356021882</v>
+        <v>85.14664910913621</v>
       </c>
       <c r="D9" t="n">
-        <v>138.1457550133834</v>
+        <v>151.2906278180206</v>
       </c>
       <c r="E9" t="n">
         <v>66</v>
@@ -1565,13 +1565,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C10" t="n">
-        <v>68.60224395789895</v>
+        <v>97.37373920279246</v>
       </c>
       <c r="D10" t="n">
-        <v>142.975817229278</v>
+        <v>166.0282237860615</v>
       </c>
       <c r="E10" t="n">
         <v>65</v>
@@ -1601,13 +1601,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C11" t="n">
-        <v>65.9676905849193</v>
+        <v>97.95642834217539</v>
       </c>
       <c r="D11" t="n">
-        <v>130.5190494994928</v>
+        <v>164.7731288336821</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -1637,13 +1637,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>55.90581604176235</v>
+        <v>82.75064613180304</v>
       </c>
       <c r="D12" t="n">
-        <v>129.8849263716982</v>
+        <v>147.668125533089</v>
       </c>
       <c r="E12" t="n">
         <v>68</v>
@@ -1673,13 +1673,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C13" t="n">
-        <v>41.45379216004909</v>
+        <v>59.44231352600713</v>
       </c>
       <c r="D13" t="n">
-        <v>116.591158556338</v>
+        <v>126.5514097201766</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -1709,13 +1709,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C14" t="n">
-        <v>29.02486284422996</v>
+        <v>41.53080811846134</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7306759217145</v>
+        <v>111.7445645308024</v>
       </c>
       <c r="E14" t="n">
         <v>66</v>
@@ -1745,13 +1745,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C15" t="n">
-        <v>25.79464953480029</v>
+        <v>37.97201290751183</v>
       </c>
       <c r="D15" t="n">
-        <v>98.98452153795701</v>
+        <v>105.5729122968121</v>
       </c>
       <c r="E15" t="n">
         <v>62</v>
@@ -1781,13 +1781,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C16" t="n">
-        <v>32.72261470460429</v>
+        <v>45.99889285654061</v>
       </c>
       <c r="D16" t="n">
-        <v>101.3594400008375</v>
+        <v>114.8890813783523</v>
       </c>
       <c r="E16" t="n">
         <v>63</v>
@@ -1817,13 +1817,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
-        <v>41.68677369843287</v>
+        <v>54.00060368984448</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3852022442807</v>
+        <v>123.8786017882095</v>
       </c>
       <c r="E17" t="n">
         <v>62</v>
@@ -1853,13 +1853,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C18" t="n">
-        <v>43.1172197491487</v>
+        <v>53.07273825075107</v>
       </c>
       <c r="D18" t="n">
-        <v>114.247613863925</v>
+        <v>121.2215513746853</v>
       </c>
       <c r="E18" t="n">
         <v>59</v>
@@ -1889,13 +1889,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
-        <v>37.28832950554266</v>
+        <v>46.41995079706984</v>
       </c>
       <c r="D19" t="n">
-        <v>107.9919638190198</v>
+        <v>115.4586945461918</v>
       </c>
       <c r="E19" t="n">
         <v>56</v>
@@ -1925,13 +1925,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C20" t="n">
-        <v>35.35349654581896</v>
+        <v>46.24715407478611</v>
       </c>
       <c r="D20" t="n">
-        <v>104.796324783441</v>
+        <v>114.2889680644493</v>
       </c>
       <c r="E20" t="n">
         <v>65</v>
@@ -1961,13 +1961,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
-        <v>46.74881781857644</v>
+        <v>60.14162140588037</v>
       </c>
       <c r="D21" t="n">
-        <v>119.8240781494048</v>
+        <v>123.5447517026543</v>
       </c>
       <c r="E21" t="n">
         <v>57</v>
@@ -2068,13 +2068,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.514556315933952</v>
+        <v>0.9340426377707833</v>
       </c>
       <c r="D2" t="n">
-        <v>17.64042441662114</v>
+        <v>17.21192827634623</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -2104,13 +2104,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.617230251045018</v>
+        <v>1.021846109424001</v>
       </c>
       <c r="D3" t="n">
-        <v>16.6201965439883</v>
+        <v>15.46671819748819</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -2140,13 +2140,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.91510982750959</v>
+        <v>0.9855346952909928</v>
       </c>
       <c r="D4" t="n">
-        <v>16.6548992654382</v>
+        <v>15.65855641545533</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -2176,13 +2176,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.47419129882358</v>
+        <v>0.7305932344104817</v>
       </c>
       <c r="D5" t="n">
-        <v>16.75117441384114</v>
+        <v>16.96892041211459</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -2212,13 +2212,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.293697859405471</v>
+        <v>0.4792644613848552</v>
       </c>
       <c r="D6" t="n">
-        <v>18.22392699872321</v>
+        <v>16.87912614674357</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -2248,13 +2248,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.409903982860305</v>
+        <v>0.5922384682829762</v>
       </c>
       <c r="D7" t="n">
-        <v>15.89800956019089</v>
+        <v>16.45157502724582</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -2284,13 +2284,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.426062413872022</v>
+        <v>1.072779085081642</v>
       </c>
       <c r="D8" t="n">
-        <v>12.93572156289842</v>
+        <v>15.23929624456628</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -2320,13 +2320,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.514999184766452</v>
+        <v>1.465144979005641</v>
       </c>
       <c r="D9" t="n">
-        <v>11.85865455729252</v>
+        <v>16.3972514698687</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -2356,13 +2356,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.356960383649724</v>
+        <v>1.436627020659611</v>
       </c>
       <c r="D10" t="n">
-        <v>14.31037386445029</v>
+        <v>16.50519168518329</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -2392,13 +2392,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.805807977619671</v>
+        <v>1.314164372021102</v>
       </c>
       <c r="D11" t="n">
-        <v>18.24644518752616</v>
+        <v>16.89560446731621</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -2428,13 +2428,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.084684004065017</v>
+        <v>1.712250775148487</v>
       </c>
       <c r="D12" t="n">
-        <v>18.08077902055489</v>
+        <v>18.30362663792316</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -2464,13 +2464,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.392526154904137</v>
+        <v>2.588934183724255</v>
       </c>
       <c r="D13" t="n">
-        <v>18.7823393435219</v>
+        <v>17.66261162124021</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -2500,13 +2500,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.950978700796204</v>
+        <v>3.065313430323464</v>
       </c>
       <c r="D14" t="n">
-        <v>15.78982458671447</v>
+        <v>19.33326424829336</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -2536,13 +2536,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.631948961416269</v>
+        <v>2.530922581375622</v>
       </c>
       <c r="D15" t="n">
-        <v>13.93146918752713</v>
+        <v>18.99091439992402</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -2572,13 +2572,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.742286704585696</v>
+        <v>1.709710255354311</v>
       </c>
       <c r="D16" t="n">
-        <v>11.23525802650791</v>
+        <v>17.60581276889283</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -2608,13 +2608,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>-10.26842404528771</v>
+        <v>2.03187188253802</v>
       </c>
       <c r="D17" t="n">
-        <v>8.771486893698055</v>
+        <v>18.87083795922103</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -2644,13 +2644,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.56307683371668</v>
+        <v>3.748432622109414</v>
       </c>
       <c r="D18" t="n">
-        <v>5.785366465743787</v>
+        <v>24.71804220767599</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -2680,13 +2680,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>-17.06484829811482</v>
+        <v>5.246754497494031</v>
       </c>
       <c r="D19" t="n">
-        <v>3.351765655209337</v>
+        <v>27.78039253190337</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -2716,13 +2716,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>-16.15716449908831</v>
+        <v>4.957895582586956</v>
       </c>
       <c r="D20" t="n">
-        <v>3.492528385869525</v>
+        <v>28.5748753831951</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -2752,13 +2752,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.64580245057114</v>
+        <v>3.82627423720204</v>
       </c>
       <c r="D21" t="n">
-        <v>5.506021936574759</v>
+        <v>24.60991023924121</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -2859,13 +2859,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C2" t="n">
         <v>152.4554252729202</v>
       </c>
       <c r="D2" t="n">
-        <v>190.0910339471775</v>
+        <v>190.0105585233003</v>
       </c>
       <c r="E2" t="n">
         <v>104</v>
@@ -2895,13 +2895,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C3" t="n">
         <v>195.1748744888661</v>
       </c>
       <c r="D3" t="n">
-        <v>233.3275293256467</v>
+        <v>230.6125788791499</v>
       </c>
       <c r="E3" t="n">
         <v>67</v>
@@ -2931,13 +2931,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C4" t="n">
         <v>200.216905685073</v>
       </c>
       <c r="D4" t="n">
-        <v>240.8982021110415</v>
+        <v>242.1343721060508</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
@@ -2967,13 +2967,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
         <v>165.6138375330004</v>
       </c>
       <c r="D5" t="n">
-        <v>203.2885980182523</v>
+        <v>203.1419490861759</v>
       </c>
       <c r="E5" t="n">
         <v>68</v>
@@ -3003,13 +3003,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C6" t="n">
         <v>125.2903206893107</v>
       </c>
       <c r="D6" t="n">
-        <v>162.8886632926573</v>
+        <v>161.8527659153472</v>
       </c>
       <c r="E6" t="n">
         <v>55</v>
@@ -3039,13 +3039,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C7" t="n">
         <v>108.2391577836601</v>
       </c>
       <c r="D7" t="n">
-        <v>146.8522370952435</v>
+        <v>146.2394001818248</v>
       </c>
       <c r="E7" t="n">
         <v>53</v>
@@ -3075,13 +3075,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C8" t="n">
         <v>108.9587251086184</v>
       </c>
       <c r="D8" t="n">
-        <v>146.537376583008</v>
+        <v>147.2626534576676</v>
       </c>
       <c r="E8" t="n">
         <v>54</v>
@@ -3111,13 +3111,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
         <v>105.9050127804263</v>
       </c>
       <c r="D9" t="n">
-        <v>141.0210774705989</v>
+        <v>140.6584573621667</v>
       </c>
       <c r="E9" t="n">
         <v>52</v>
@@ -3147,13 +3147,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
         <v>98.43921378240555</v>
       </c>
       <c r="D10" t="n">
-        <v>136.1640153028027</v>
+        <v>138.8661352982439</v>
       </c>
       <c r="E10" t="n">
         <v>51</v>
@@ -3183,13 +3183,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C11" t="n">
         <v>107.9051862151046</v>
       </c>
       <c r="D11" t="n">
-        <v>146.252532241961</v>
+        <v>146.7788073467544</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
@@ -3219,13 +3219,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" t="n">
         <v>139.7750056808643</v>
       </c>
       <c r="D12" t="n">
-        <v>175.5692787002968</v>
+        <v>180.4028426200017</v>
       </c>
       <c r="E12" t="n">
         <v>63</v>
@@ -3255,13 +3255,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C13" t="n">
         <v>161.925826857676</v>
       </c>
       <c r="D13" t="n">
-        <v>200.029598337419</v>
+        <v>199.2766051799995</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -3291,13 +3291,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C14" t="n">
         <v>137.2814296358182</v>
       </c>
       <c r="D14" t="n">
-        <v>176.6062986051131</v>
+        <v>178.6075066048707</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -3327,13 +3327,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C15" t="n">
         <v>74.91938631222418</v>
       </c>
       <c r="D15" t="n">
-        <v>116.1634683976632</v>
+        <v>113.4058311032989</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -3363,13 +3363,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>30.88385624800652</v>
       </c>
       <c r="D16" t="n">
-        <v>68.45867424498672</v>
+        <v>68.60728020586035</v>
       </c>
       <c r="E16" t="n">
         <v>59</v>
@@ -3399,13 +3399,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>48.26294095546403</v>
       </c>
       <c r="D17" t="n">
-        <v>83.86851019117597</v>
+        <v>86.74124238157775</v>
       </c>
       <c r="E17" t="n">
         <v>59</v>
@@ -3435,13 +3435,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C18" t="n">
         <v>105.5419904717432</v>
       </c>
       <c r="D18" t="n">
-        <v>144.5568439352778</v>
+        <v>143.4952525993861</v>
       </c>
       <c r="E18" t="n">
         <v>56</v>
@@ -3471,13 +3471,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n">
         <v>138.6671491667557</v>
       </c>
       <c r="D19" t="n">
-        <v>176.2469300397337</v>
+        <v>175.9412743963317</v>
       </c>
       <c r="E19" t="n">
         <v>55</v>
@@ -3507,13 +3507,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C20" t="n">
         <v>113.8976213917097</v>
       </c>
       <c r="D20" t="n">
-        <v>152.7115243547536</v>
+        <v>151.4000722827356</v>
       </c>
       <c r="E20" t="n">
         <v>61</v>
@@ -3543,13 +3543,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
         <v>64.46966010339058</v>
       </c>
       <c r="D21" t="n">
-        <v>103.5775184397716</v>
+        <v>104.823211328307</v>
       </c>
       <c r="E21" t="n">
         <v>54</v>
@@ -3650,13 +3650,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>-22.12577319336522</v>
+        <v>7.585109291021748</v>
       </c>
       <c r="D2" t="n">
-        <v>-12.0649011511458</v>
+        <v>17.50742248621441</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -3686,13 +3686,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-70.61697148788227</v>
+        <v>4.558364145367286</v>
       </c>
       <c r="D3" t="n">
-        <v>-58.60255706277554</v>
+        <v>15.17365609139898</v>
       </c>
       <c r="E3" t="n">
         <v>27</v>
@@ -3722,13 +3722,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>-92.87850469802409</v>
+        <v>2.350603763387978</v>
       </c>
       <c r="D4" t="n">
-        <v>-82.17838698355609</v>
+        <v>12.06523935021543</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
@@ -3758,13 +3758,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>-41.59667064398767</v>
+        <v>1.306115077927196</v>
       </c>
       <c r="D5" t="n">
-        <v>-30.02321168508124</v>
+        <v>11.53722871391827</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -3794,13 +3794,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>75.22508882576415</v>
+        <v>1.242078225163146</v>
       </c>
       <c r="D6" t="n">
-        <v>85.62308419655966</v>
+        <v>11.08109115251194</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -3830,13 +3830,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>175.3478135360106</v>
+        <v>1.045751831609341</v>
       </c>
       <c r="D7" t="n">
-        <v>186.0589138553771</v>
+        <v>11.00062184637103</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -3866,13 +3866,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>169.295295131984</v>
+        <v>0.03085151149253958</v>
       </c>
       <c r="D8" t="n">
-        <v>179.9279473612815</v>
+        <v>9.939417445314577</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -3902,13 +3902,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>58.78632180888359</v>
+        <v>-1.023155047081561</v>
       </c>
       <c r="D9" t="n">
-        <v>69.74082401413624</v>
+        <v>8.698802590301725</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -3938,13 +3938,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>-46.278773008698</v>
+        <v>-1.209983937056405</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.82501465321602</v>
+        <v>10.1773424159818</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -3974,13 +3974,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>-32.35409084554779</v>
+        <v>-1.352886432160408</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.41693286155797</v>
+        <v>9.466532258552792</v>
       </c>
       <c r="E11" t="n">
         <v>17</v>
@@ -4010,13 +4010,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>92.53522946072407</v>
+        <v>-3.079905809191681</v>
       </c>
       <c r="D12" t="n">
-        <v>103.1766388522287</v>
+        <v>7.332869496658104</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -4046,13 +4046,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>196.8682518270654</v>
+        <v>-5.945668429650334</v>
       </c>
       <c r="D13" t="n">
-        <v>207.2844332072682</v>
+        <v>5.857101319602767</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -4082,13 +4082,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>164.7025628841462</v>
+        <v>-7.167928660751791</v>
       </c>
       <c r="D14" t="n">
-        <v>175.877213565638</v>
+        <v>4.840735195519127</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -4118,13 +4118,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3267233726577</v>
+        <v>-5.395541812838753</v>
       </c>
       <c r="D15" t="n">
-        <v>39.32749247658997</v>
+        <v>5.620352935775172</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -4154,13 +4154,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>-60.04122128416662</v>
+        <v>-3.505820760500153</v>
       </c>
       <c r="D16" t="n">
-        <v>-50.14715971954683</v>
+        <v>7.526739200974731</v>
       </c>
       <c r="E16" t="n">
         <v>17</v>
@@ -4190,13 +4190,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.261183091194372</v>
+        <v>-5.533836781972873</v>
       </c>
       <c r="D17" t="n">
-        <v>14.84852449256483</v>
+        <v>5.531079068140014</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -4226,13 +4226,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>157.4304685519537</v>
+        <v>-10.87302674226815</v>
       </c>
       <c r="D18" t="n">
-        <v>167.6023283419961</v>
+        <v>1.954378214009939</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -4262,13 +4262,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>233.7692723560557</v>
+        <v>-13.97245484330971</v>
       </c>
       <c r="D19" t="n">
-        <v>244.121833014396</v>
+        <v>1.395159293020302</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -4298,13 +4298,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>148.752406610352</v>
+        <v>-11.29861129610206</v>
       </c>
       <c r="D20" t="n">
-        <v>160.1105965927824</v>
+        <v>2.387328860638243</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
@@ -4337,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.948342930574016</v>
+        <v>-6.736052863524811</v>
       </c>
       <c r="D21" t="n">
-        <v>2.525499866017072</v>
+        <v>4.684767251832332</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -7,11 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="B07T6N8N56" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="B07FWY246F" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="B07FW85VFT" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="B0C4CKFV65" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="No ASIN" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="No ASIN" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,3070 +416,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Week 0 (December 01-7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Week 1 (December 08-14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Week 2 (December 15-21)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Week 3 (December 22-28)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Week 4 (December 29-4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Week 5 (January 05-11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Week 6 (January 12-18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Week 7 (January 19-25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Week 8 (January 26-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Week 9 (February 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Week 10 (February 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Week 11 (February 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Week 12 (February 23-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Week 13 (March 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Week 14 (March 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Week 15 (March 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Week 16 (March 23-29)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Week 17 (March 30-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Week 18 (April 06-12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>B07T6N8N56</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B365M DS3H</t>
-        </is>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Week 19 (April 13-19)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Week 0 (December 01-7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Week 1 (December 08-14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Week 2 (December 15-21)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Week 3 (December 22-28)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Week 4 (December 29-4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Week 5 (January 05-11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Week 6 (January 12-18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Week 7 (January 19-25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Week 8 (January 26-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Week 9 (February 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Week 10 (February 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Week 11 (February 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Week 12 (February 23-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Week 13 (March 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Week 14 (March 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Week 15 (March 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Week 16 (March 23-29)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Week 17 (March 30-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Week 18 (April 06-12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>B07FWY246F</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B450 AORUS M</t>
-        </is>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Week 19 (April 13-19)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Week 0 (December 01-7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Week 1 (December 08-14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Week 2 (December 15-21)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Week 3 (December 22-28)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>18</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Week 4 (December 29-4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Week 5 (January 05-11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Week 6 (January 12-18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>21</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Week 7 (January 19-25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Week 8 (January 26-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Week 9 (February 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="n">
-        <v>22</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Week 10 (February 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" t="n">
-        <v>21</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Week 11 (February 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>21</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Week 12 (February 23-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>21</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Week 13 (March 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Week 14 (March 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Week 15 (March 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Week 16 (March 23-29)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>21</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Week 17 (March 30-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" t="n">
-        <v>24</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Week 18 (April 06-12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>B07FW85VFT</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B450 AORUS PRO WIFI</t>
-        </is>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Week 19 (April 13-19)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E2" t="n">
-        <v>27</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Week 0 (December 01-7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Week 1 (December 08-14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>32</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Week 2 (December 15-21)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>36</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19</v>
-      </c>
-      <c r="E5" t="n">
-        <v>29</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Week 3 (December 22-28)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E6" t="n">
-        <v>29</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Week 4 (December 29-4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Week 5 (January 05-11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>18</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Week 6 (January 12-18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>24</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13</v>
-      </c>
-      <c r="D9" t="n">
-        <v>19</v>
-      </c>
-      <c r="E9" t="n">
-        <v>31</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Week 7 (January 19-25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>32</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19</v>
-      </c>
-      <c r="E10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Week 8 (January 26-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>37</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>18</v>
-      </c>
-      <c r="E11" t="n">
-        <v>29</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Week 9 (February 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>40</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>13</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19</v>
-      </c>
-      <c r="E12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Week 10 (February 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>43</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20</v>
-      </c>
-      <c r="E13" t="n">
-        <v>32</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Week 11 (February 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>49</v>
-      </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>18</v>
-      </c>
-      <c r="E14" t="n">
-        <v>29</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Week 12 (February 23-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>55</v>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Week 13 (March 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>60</v>
-      </c>
-      <c r="B16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18</v>
-      </c>
-      <c r="E16" t="n">
-        <v>29</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Week 14 (March 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>61</v>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17</v>
-      </c>
-      <c r="E17" t="n">
-        <v>28</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Week 15 (March 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>57</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" t="n">
-        <v>26</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Week 16 (March 23-29)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>48</v>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16</v>
-      </c>
-      <c r="E19" t="n">
-        <v>26</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Week 17 (March 30-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>36</v>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>16</v>
-      </c>
-      <c r="E20" t="n">
-        <v>27</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Week 18 (April 06-12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>28</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15</v>
-      </c>
-      <c r="E21" t="n">
-        <v>26</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>B0C4CKFV65</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>A620M S2H</t>
-        </is>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Week 19 (April 13-19)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D7" t="n">
         <v>542</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D8" t="n">
         <v>511</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D15" t="n">
         <v>454</v>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D16" t="n">
         <v>450</v>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D17" t="n">
         <v>432</v>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>20</v>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
         <v>80</v>
@@ -5584,7 +5584,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
         <v>55</v>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n">
         <v>56</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
         <v>56</v>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="n">
         <v>57</v>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="n">
         <v>59</v>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
         <v>56</v>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="n">
         <v>54</v>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>51</v>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
         <v>60</v>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
         <v>66</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n">
         <v>68</v>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
         <v>71</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" t="n">
         <v>71</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15" t="n">
         <v>69</v>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" t="n">
         <v>71</v>
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
         <v>46</v>
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
         <v>38</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
         <v>35</v>
@@ -8158,7 +8158,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
         <v>36</v>
@@ -8193,7 +8193,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
         <v>36</v>
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
         <v>36</v>
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>35</v>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>35</v>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
         <v>35</v>
@@ -8403,7 +8403,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>35</v>
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>36</v>
@@ -8473,7 +8473,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
         <v>34</v>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
         <v>33</v>
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
         <v>33</v>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
         <v>32</v>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
@@ -10036,7 +10036,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -10106,7 +10106,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
         <v>9</v>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
@@ -12054,7 +12054,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -13792,7 +13792,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
         <v>36</v>
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
         <v>36</v>
@@ -14107,7 +14107,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -14142,7 +14142,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>35</v>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>48</v>
@@ -17478,7 +17478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
@@ -17618,7 +17618,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
         <v>56</v>
@@ -17653,7 +17653,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
         <v>61</v>
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="n">
         <v>63</v>
@@ -17863,7 +17863,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" t="n">
         <v>67</v>
@@ -17898,7 +17898,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="n">
         <v>64</v>
@@ -18174,7 +18174,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>37</v>
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
         <v>340</v>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" t="n">
         <v>291</v>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D8" t="n">
         <v>286</v>
@@ -19636,7 +19636,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D11" t="n">
         <v>286</v>
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D12" t="n">
         <v>289</v>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D13" t="n">
         <v>287</v>
@@ -19776,7 +19776,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D15" t="n">
         <v>278</v>
@@ -19811,7 +19811,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D16" t="n">
         <v>267</v>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D17" t="n">
         <v>262</v>
@@ -20713,7 +20713,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -20748,7 +20748,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -21199,7 +21199,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -21234,7 +21234,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -21269,7 +21269,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D5" t="n">
         <v>551</v>
@@ -21339,7 +21339,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D6" t="n">
         <v>571</v>
@@ -21374,7 +21374,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -21444,7 +21444,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D9" t="n">
         <v>569</v>
@@ -21479,7 +21479,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -21514,7 +21514,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -21549,7 +21549,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -21584,7 +21584,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -21654,7 +21654,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D15" t="n">
         <v>524</v>
@@ -21689,7 +21689,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D17" t="n">
         <v>512</v>
@@ -28085,7 +28085,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -28120,7 +28120,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -28155,7 +28155,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -28190,7 +28190,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -28225,7 +28225,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -28260,7 +28260,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
@@ -28330,7 +28330,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -28365,7 +28365,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -28400,7 +28400,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
@@ -28435,7 +28435,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -28470,7 +28470,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
@@ -28505,7 +28505,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
@@ -28575,7 +28575,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>7</v>
@@ -28610,7 +28610,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -29617,7 +29617,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-204.5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>201</v>
@@ -29757,7 +29757,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-502.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>209</v>
@@ -29792,7 +29792,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-750.9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>201</v>
@@ -35526,7 +35526,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
         <v>105</v>
@@ -35561,7 +35561,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" t="n">
         <v>112</v>
@@ -35596,7 +35596,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" t="n">
         <v>124</v>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" t="n">
         <v>131</v>
@@ -35701,7 +35701,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n">
         <v>130</v>
@@ -35806,7 +35806,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
         <v>126</v>
@@ -35841,7 +35841,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D11" t="n">
         <v>125</v>
@@ -35876,7 +35876,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D12" t="n">
         <v>123</v>
@@ -35911,7 +35911,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D13" t="n">
         <v>124</v>
@@ -35946,7 +35946,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -35981,7 +35981,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -36016,7 +36016,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -36051,7 +36051,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
         <v>113</v>
@@ -36222,7 +36222,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
         <v>197</v>
@@ -36257,7 +36257,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -36292,7 +36292,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
         <v>207</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
         <v>197</v>
@@ -36362,7 +36362,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
         <v>198</v>
@@ -36432,7 +36432,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D10" t="n">
         <v>190</v>
@@ -36467,7 +36467,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -36502,7 +36502,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" t="n">
         <v>192</v>
@@ -36537,7 +36537,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
@@ -36572,7 +36572,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D14" t="n">
         <v>195</v>
@@ -36607,7 +36607,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D15" t="n">
         <v>190</v>
@@ -36642,7 +36642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16" t="n">
         <v>186</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="D2" t="n">
         <v>70</v>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="D3" t="n">
         <v>68</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="D4" t="n">
         <v>98</v>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D5" t="n">
         <v>98</v>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D6" t="n">
         <v>109</v>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D7" t="n">
         <v>106</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D8" t="n">
         <v>108</v>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="D9" t="n">
         <v>109</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="D10" t="n">
         <v>104</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="D11" t="n">
         <v>107</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D12" t="n">
         <v>110</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D13" t="n">
         <v>113</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="D14" t="n">
         <v>112</v>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D16" t="n">
         <v>111</v>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="D17" t="n">
         <v>105</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>408</v>
+        <v>539</v>
       </c>
       <c r="D2" t="n">
         <v>173</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>428</v>
+        <v>568</v>
       </c>
       <c r="D3" t="n">
         <v>127</v>
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="D4" t="n">
         <v>123</v>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>325</v>
+        <v>419</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="D6" t="n">
         <v>126</v>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="D7" t="n">
         <v>125</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="D8" t="n">
         <v>127</v>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="D9" t="n">
         <v>129</v>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="D10" t="n">
         <v>126</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D12" t="n">
         <v>127</v>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D13" t="n">
         <v>131</v>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="D14" t="n">
         <v>127</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="D15" t="n">
         <v>126</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>621</v>
+        <v>546</v>
       </c>
       <c r="D16" t="n">
         <v>122</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>567</v>
+        <v>484</v>
       </c>
       <c r="D17" t="n">
         <v>122</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D2" t="n">
         <v>189</v>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="D3" t="n">
         <v>185</v>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D4" t="n">
         <v>146</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D5" t="n">
         <v>121</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D6" t="n">
         <v>121</v>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D7" t="n">
         <v>120</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="D8" t="n">
         <v>118</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D10" t="n">
         <v>117</v>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D11" t="n">
         <v>117</v>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D12" t="n">
         <v>118</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D13" t="n">
         <v>120</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D7" t="n">
         <v>542</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D8" t="n">
         <v>511</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D17" t="n">
         <v>432</v>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -5413,7 +5413,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>19</v>
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>18</v>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
         <v>80</v>
@@ -5584,7 +5584,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
         <v>55</v>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
         <v>56</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
         <v>56</v>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
         <v>57</v>
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" t="n">
         <v>58</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D10" t="n">
         <v>55</v>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" t="n">
         <v>55</v>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" t="n">
         <v>57</v>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" t="n">
         <v>59</v>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
         <v>56</v>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
         <v>54</v>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
         <v>53</v>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>51</v>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
         <v>60</v>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
         <v>60</v>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
         <v>66</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" t="n">
         <v>68</v>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
         <v>65</v>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
         <v>71</v>
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
         <v>71</v>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" t="n">
         <v>71</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -6560,7 +6560,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" t="n">
         <v>75</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="n">
         <v>71</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
         <v>69</v>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D16" t="n">
         <v>71</v>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" t="n">
         <v>67</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>552</v>
+        <v>673</v>
       </c>
       <c r="D2" t="n">
         <v>241</v>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>567</v>
+        <v>694</v>
       </c>
       <c r="D3" t="n">
         <v>161</v>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>550</v>
+        <v>674</v>
       </c>
       <c r="D4" t="n">
         <v>121</v>
@@ -6906,7 +6906,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>505</v>
+        <v>615</v>
       </c>
       <c r="D5" t="n">
         <v>127</v>
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>447</v>
+        <v>535</v>
       </c>
       <c r="D6" t="n">
         <v>134</v>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="D7" t="n">
         <v>131</v>
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="D8" t="n">
         <v>130</v>
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="D9" t="n">
         <v>125</v>
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="D10" t="n">
         <v>118</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="D11" t="n">
         <v>117</v>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="D12" t="n">
         <v>110</v>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="D13" t="n">
         <v>115</v>
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="D14" t="n">
         <v>111</v>
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="D15" t="n">
         <v>106</v>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="D16" t="n">
         <v>101</v>
@@ -7326,7 +7326,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="D17" t="n">
         <v>99</v>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="D2" t="n">
         <v>142</v>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D3" t="n">
         <v>126</v>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
         <v>109</v>
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>83</v>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
         <v>85</v>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
         <v>80</v>
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
         <v>81</v>
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
         <v>78</v>
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="D13" t="n">
         <v>74</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="D14" t="n">
         <v>75</v>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="D15" t="n">
         <v>66</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="D16" t="n">
         <v>68</v>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="D17" t="n">
         <v>63</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="D2" t="n">
         <v>46</v>
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="D3" t="n">
         <v>38</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="D4" t="n">
         <v>35</v>
@@ -8158,7 +8158,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>296</v>
       </c>
       <c r="D5" t="n">
         <v>36</v>
@@ -8193,7 +8193,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="D7" t="n">
         <v>36</v>
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="D8" t="n">
         <v>36</v>
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="D9" t="n">
         <v>35</v>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="D10" t="n">
         <v>35</v>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="D11" t="n">
         <v>35</v>
@@ -8403,7 +8403,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="D12" t="n">
         <v>35</v>
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="D13" t="n">
         <v>36</v>
@@ -8473,7 +8473,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="D14" t="n">
         <v>34</v>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="D15" t="n">
         <v>33</v>
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="D16" t="n">
         <v>33</v>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="D17" t="n">
         <v>32</v>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -9305,7 +9305,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
         <v>212</v>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
         <v>189</v>
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>194</v>
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -9445,7 +9445,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
         <v>208</v>
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D7" t="n">
         <v>209</v>
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D8" t="n">
         <v>215</v>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="D9" t="n">
         <v>217</v>
@@ -9585,7 +9585,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="D10" t="n">
         <v>207</v>
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="D11" t="n">
         <v>213</v>
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="D12" t="n">
         <v>216</v>
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>650</v>
+        <v>681</v>
       </c>
       <c r="D13" t="n">
         <v>216</v>
@@ -9725,7 +9725,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="D14" t="n">
         <v>214</v>
@@ -9760,7 +9760,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="D15" t="n">
         <v>210</v>
@@ -9795,7 +9795,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="D16" t="n">
         <v>205</v>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="D17" t="n">
         <v>199</v>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -9931,7 +9931,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>19</v>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
@@ -10036,7 +10036,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
@@ -10106,7 +10106,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
@@ -10141,7 +10141,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
@@ -10176,7 +10176,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>9</v>
@@ -10316,7 +10316,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
@@ -10351,7 +10351,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -10872,7 +10872,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>12</v>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -11253,7 +11253,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>74</v>
@@ -11288,7 +11288,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
         <v>76</v>
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="n">
         <v>81</v>
@@ -11463,7 +11463,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
         <v>79</v>
@@ -11498,7 +11498,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" t="n">
         <v>79</v>
@@ -11568,7 +11568,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" t="n">
         <v>83</v>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" t="n">
         <v>72</v>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -12159,7 +12159,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -12389,7 +12389,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -12435,7 +12435,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
@@ -12470,7 +12470,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>13</v>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
@@ -12540,7 +12540,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
@@ -12575,7 +12575,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>15</v>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>15</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>16</v>
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
         <v>16</v>
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>15</v>
@@ -12750,7 +12750,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
         <v>15</v>
@@ -12820,7 +12820,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
@@ -12855,7 +12855,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
         <v>15</v>
@@ -12890,7 +12890,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -12925,7 +12925,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>14</v>
@@ -12960,7 +12960,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D17" t="n">
         <v>13</v>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
         <v>51</v>
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
         <v>41</v>
@@ -13757,7 +13757,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
         <v>36</v>
@@ -13792,7 +13792,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
         <v>36</v>
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -13862,7 +13862,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
         <v>37</v>
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -13932,7 +13932,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D12" t="n">
         <v>36</v>
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -14107,7 +14107,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -14142,7 +14142,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
         <v>35</v>
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -14313,7 +14313,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -14348,7 +14348,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
@@ -14383,7 +14383,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -14418,7 +14418,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -14453,7 +14453,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -14488,7 +14488,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -14523,7 +14523,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -14558,7 +14558,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -14593,7 +14593,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -14628,7 +14628,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>8</v>
@@ -14663,7 +14663,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
@@ -14803,7 +14803,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -14838,7 +14838,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -15009,7 +15009,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
         <v>66</v>
@@ -15044,7 +15044,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
         <v>65</v>
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>67</v>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" t="n">
         <v>39</v>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
         <v>33</v>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -16817,7 +16817,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" t="n">
         <v>64</v>
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" t="n">
         <v>60</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" t="n">
         <v>61</v>
@@ -16922,7 +16922,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" t="n">
         <v>60</v>
@@ -17097,7 +17097,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" t="n">
         <v>60</v>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
         <v>60</v>
@@ -17342,7 +17342,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" t="n">
         <v>58</v>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>48</v>
@@ -17513,7 +17513,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
         <v>53</v>
@@ -17548,7 +17548,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
         <v>56</v>
@@ -17583,7 +17583,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
         <v>59</v>
@@ -17618,7 +17618,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
         <v>56</v>
@@ -17653,7 +17653,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>61</v>
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" t="n">
         <v>63</v>
@@ -17793,7 +17793,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="n">
         <v>65</v>
@@ -17898,7 +17898,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" t="n">
         <v>64</v>
@@ -17933,7 +17933,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D16" t="n">
         <v>64</v>
@@ -17968,7 +17968,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" t="n">
         <v>62</v>
@@ -18023,7 +18023,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -18104,7 +18104,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>44</v>
@@ -18139,7 +18139,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>38</v>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>37</v>
@@ -18419,7 +18419,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -18489,7 +18489,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>38</v>
@@ -18559,7 +18559,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>37</v>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -19356,7 +19356,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D3" t="n">
         <v>308</v>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D4" t="n">
         <v>291</v>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D5" t="n">
         <v>290</v>
@@ -19461,7 +19461,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" t="n">
         <v>296</v>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D8" t="n">
         <v>286</v>
@@ -19566,7 +19566,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D9" t="n">
         <v>299</v>
@@ -19601,7 +19601,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D10" t="n">
         <v>291</v>
@@ -19636,7 +19636,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D11" t="n">
         <v>286</v>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D13" t="n">
         <v>287</v>
@@ -19776,7 +19776,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D15" t="n">
         <v>278</v>
@@ -19811,7 +19811,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D16" t="n">
         <v>267</v>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D17" t="n">
         <v>262</v>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -19947,7 +19947,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="D2" t="n">
         <v>92</v>
@@ -19982,7 +19982,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -20017,7 +20017,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D4" t="n">
         <v>105</v>
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D5" t="n">
         <v>105</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D6" t="n">
         <v>106</v>
@@ -20122,7 +20122,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
         <v>105</v>
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D8" t="n">
         <v>108</v>
@@ -20192,7 +20192,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" t="n">
         <v>109</v>
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D10" t="n">
         <v>107</v>
@@ -20262,7 +20262,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D11" t="n">
         <v>108</v>
@@ -20297,7 +20297,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D12" t="n">
         <v>110</v>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D13" t="n">
         <v>117</v>
@@ -20367,7 +20367,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D14" t="n">
         <v>115</v>
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -20437,7 +20437,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D16" t="n">
         <v>111</v>
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D17" t="n">
         <v>110</v>
@@ -20527,7 +20527,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -21153,7 +21153,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -21199,7 +21199,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>668</v>
+        <v>765</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -21234,7 +21234,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -21269,7 +21269,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>680</v>
+        <v>736</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>700</v>
+        <v>751</v>
       </c>
       <c r="D5" t="n">
         <v>551</v>
@@ -21339,7 +21339,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="D6" t="n">
         <v>571</v>
@@ -21374,7 +21374,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>613</v>
+        <v>654</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -21444,7 +21444,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D9" t="n">
         <v>569</v>
@@ -21479,7 +21479,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -21514,7 +21514,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -21549,7 +21549,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -21584,7 +21584,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -21654,7 +21654,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="D15" t="n">
         <v>524</v>
@@ -21689,7 +21689,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="D17" t="n">
         <v>512</v>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -21825,7 +21825,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29.2</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
         <v>34</v>
@@ -21860,7 +21860,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27.1</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
         <v>26</v>
@@ -21895,7 +21895,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28.7</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>25</v>
@@ -21930,7 +21930,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30.2</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>25</v>
@@ -21965,7 +21965,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31.4</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>25</v>
@@ -22000,7 +22000,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33.90000000000001</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>25</v>
@@ -22035,7 +22035,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.8</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>26</v>
@@ -22070,7 +22070,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.59999999999999</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>26</v>
@@ -22105,7 +22105,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.5</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
         <v>25</v>
@@ -22140,7 +22140,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35.9</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
         <v>26</v>
@@ -22175,7 +22175,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
@@ -22210,7 +22210,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36.9</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>28</v>
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37.7</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
         <v>26</v>
@@ -22280,7 +22280,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38.5</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>27</v>
@@ -22315,7 +22315,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37.8</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
         <v>26</v>
@@ -22350,7 +22350,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
         <v>26</v>
@@ -22405,7 +22405,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -22451,7 +22451,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>827</v>
+        <v>745</v>
       </c>
       <c r="D2" t="n">
         <v>727</v>
@@ -22486,7 +22486,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>802.5</v>
+        <v>724</v>
       </c>
       <c r="D3" t="n">
         <v>674</v>
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>731.7</v>
+        <v>709</v>
       </c>
       <c r="D4" t="n">
         <v>559</v>
@@ -22556,7 +22556,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>834</v>
+        <v>948</v>
       </c>
       <c r="D5" t="n">
         <v>472</v>
@@ -22591,7 +22591,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>736.4</v>
+        <v>802</v>
       </c>
       <c r="D6" t="n">
         <v>456</v>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>653.6</v>
+        <v>670</v>
       </c>
       <c r="D7" t="n">
         <v>453</v>
@@ -22661,7 +22661,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>670.2</v>
+        <v>710</v>
       </c>
       <c r="D8" t="n">
         <v>433</v>
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>723.1999999999999</v>
+        <v>808</v>
       </c>
       <c r="D9" t="n">
         <v>426</v>
@@ -22731,7 +22731,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>799.8</v>
+        <v>937</v>
       </c>
       <c r="D10" t="n">
         <v>427</v>
@@ -22766,7 +22766,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1014</v>
+        <v>1308</v>
       </c>
       <c r="D11" t="n">
         <v>406</v>
@@ -22801,7 +22801,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>774.3</v>
+        <v>907</v>
       </c>
       <c r="D12" t="n">
         <v>399</v>
@@ -22836,7 +22836,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>825.5</v>
+        <v>991</v>
       </c>
       <c r="D13" t="n">
         <v>401</v>
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>795.2</v>
+        <v>939</v>
       </c>
       <c r="D14" t="n">
         <v>406</v>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>790</v>
+        <v>949</v>
       </c>
       <c r="D15" t="n">
         <v>382</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>732.2</v>
+        <v>860</v>
       </c>
       <c r="D16" t="n">
         <v>370</v>
@@ -22976,7 +22976,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>669.3</v>
+        <v>762</v>
       </c>
       <c r="D17" t="n">
         <v>364</v>
@@ -23031,7 +23031,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25.3</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28.3</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
@@ -23182,7 +23182,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31.1</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>23</v>
@@ -23217,7 +23217,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35.7</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>23</v>
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>23</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31.7</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>24</v>
@@ -23322,7 +23322,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37.7</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
         <v>25</v>
@@ -23357,7 +23357,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
         <v>23</v>
@@ -23392,7 +23392,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>24</v>
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
@@ -23462,7 +23462,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>41.40000000000001</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
         <v>27</v>
@@ -23497,7 +23497,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43.2</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
         <v>25</v>
@@ -23532,7 +23532,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>44.5</v>
+        <v>48</v>
       </c>
       <c r="D15" t="n">
         <v>24</v>
@@ -23567,7 +23567,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45.3</v>
+        <v>49</v>
       </c>
       <c r="D16" t="n">
         <v>25</v>
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>46.2</v>
+        <v>52</v>
       </c>
       <c r="D17" t="n">
         <v>23</v>
@@ -23657,7 +23657,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -23703,7 +23703,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
@@ -23738,7 +23738,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -23773,7 +23773,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>7</v>
@@ -23843,7 +23843,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
@@ -23913,7 +23913,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -23983,7 +23983,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
@@ -24018,7 +24018,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
@@ -24053,7 +24053,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
@@ -24088,7 +24088,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -24123,7 +24123,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -24158,7 +24158,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
@@ -24193,7 +24193,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>7</v>
@@ -24228,7 +24228,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -24283,7 +24283,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -24329,7 +24329,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43.8</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
         <v>31</v>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
         <v>31</v>
@@ -24399,7 +24399,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42.4</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
         <v>31</v>
@@ -24434,7 +24434,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
         <v>33</v>
@@ -24469,7 +24469,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43.40000000000001</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
         <v>34</v>
@@ -24504,7 +24504,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42.5</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>34</v>
@@ -24539,7 +24539,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44.6</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
         <v>35</v>
@@ -24574,7 +24574,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
         <v>36</v>
@@ -24609,7 +24609,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43.5</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
         <v>35</v>
@@ -24644,7 +24644,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44.5</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45.3</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -24714,7 +24714,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
         <v>39</v>
@@ -24749,7 +24749,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>45.7</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n">
         <v>37</v>
@@ -24784,7 +24784,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
         <v>36</v>
@@ -24819,7 +24819,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45.3</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
         <v>36</v>
@@ -24854,7 +24854,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44.8</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
         <v>35</v>
@@ -24909,7 +24909,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -24955,7 +24955,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.2</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>35</v>
@@ -24990,7 +24990,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.5</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>35</v>
@@ -25025,7 +25025,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30.1</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
         <v>28</v>
@@ -25060,7 +25060,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>25</v>
@@ -25095,7 +25095,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27.8</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
         <v>24</v>
@@ -25130,7 +25130,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25.7</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>24</v>
@@ -25165,7 +25165,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27.4</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>25</v>
@@ -25200,7 +25200,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29.3</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
         <v>25</v>
@@ -25235,7 +25235,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27.8</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
         <v>25</v>
@@ -25270,7 +25270,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28.7</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
         <v>25</v>
@@ -25305,7 +25305,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28.8</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>27</v>
@@ -25340,7 +25340,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31.8</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
         <v>29</v>
@@ -25375,7 +25375,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28.7</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
         <v>28</v>
@@ -25410,7 +25410,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27.9</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>28</v>
@@ -25445,7 +25445,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26.9</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>29</v>
@@ -25480,7 +25480,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25.2</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
         <v>27</v>
@@ -25535,7 +25535,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -25581,7 +25581,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>112.1</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
         <v>126</v>
@@ -25616,7 +25616,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92.7</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
         <v>108</v>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
         <v>108</v>
@@ -25686,7 +25686,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>93.09999999999999</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
         <v>106</v>
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
         <v>104</v>
@@ -25756,7 +25756,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>92.5</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
         <v>105</v>
@@ -25791,7 +25791,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
         <v>105</v>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84.2</v>
+        <v>42</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -25861,7 +25861,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>85.60000000000001</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
         <v>101</v>
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>108.3</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
         <v>102</v>
@@ -25931,7 +25931,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>111.1</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
         <v>105</v>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>112.7</v>
+        <v>82</v>
       </c>
       <c r="D13" t="n">
         <v>108</v>
@@ -26001,7 +26001,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>105.2</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
         <v>103</v>
@@ -26036,7 +26036,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>100.7</v>
+        <v>65</v>
       </c>
       <c r="D15" t="n">
         <v>104</v>
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>97.7</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
         <v>101</v>
@@ -26106,7 +26106,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>98.30000000000001</v>
+        <v>65</v>
       </c>
       <c r="D17" t="n">
         <v>100</v>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -26207,7 +26207,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>113.7</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
         <v>121</v>
@@ -26242,7 +26242,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>124.2</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
         <v>115</v>
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>125.6</v>
+        <v>110</v>
       </c>
       <c r="D4" t="n">
         <v>103</v>
@@ -26312,7 +26312,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>118.8</v>
+        <v>116</v>
       </c>
       <c r="D5" t="n">
         <v>85</v>
@@ -26347,7 +26347,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120.1</v>
+        <v>119</v>
       </c>
       <c r="D6" t="n">
         <v>84</v>
@@ -26382,7 +26382,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>118.4</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
         <v>80</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
         <v>82</v>
@@ -26452,7 +26452,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>117.5</v>
+        <v>117</v>
       </c>
       <c r="D9" t="n">
         <v>79</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>115.7</v>
+        <v>116</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -26522,7 +26522,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>116.8</v>
+        <v>116</v>
       </c>
       <c r="D11" t="n">
         <v>78</v>
@@ -26557,7 +26557,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>116.6</v>
+        <v>116</v>
       </c>
       <c r="D12" t="n">
         <v>77</v>
@@ -26592,7 +26592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>119.3</v>
+        <v>116</v>
       </c>
       <c r="D13" t="n">
         <v>82</v>
@@ -26627,7 +26627,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>117.4</v>
+        <v>116</v>
       </c>
       <c r="D14" t="n">
         <v>79</v>
@@ -26662,7 +26662,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>113.4</v>
+        <v>116</v>
       </c>
       <c r="D15" t="n">
         <v>71</v>
@@ -26697,7 +26697,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>113.4</v>
+        <v>116</v>
       </c>
       <c r="D16" t="n">
         <v>71</v>
@@ -26732,7 +26732,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>112.2</v>
+        <v>116</v>
       </c>
       <c r="D17" t="n">
         <v>69</v>
@@ -26787,7 +26787,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -26833,7 +26833,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57.2</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
         <v>40</v>
@@ -26868,7 +26868,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.59999999999999</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
         <v>35</v>
@@ -26903,7 +26903,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53.8</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
         <v>36</v>
@@ -26938,7 +26938,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53.8</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
         <v>38</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
         <v>39</v>
@@ -27008,7 +27008,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52.3</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
         <v>40</v>
@@ -27043,7 +27043,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53.09999999999999</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
         <v>40</v>
@@ -27078,7 +27078,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.3</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
         <v>41</v>
@@ -27113,7 +27113,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55.8</v>
+        <v>57</v>
       </c>
       <c r="D10" t="n">
         <v>40</v>
@@ -27148,7 +27148,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>50.2</v>
+        <v>47</v>
       </c>
       <c r="D11" t="n">
         <v>41</v>
@@ -27183,7 +27183,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>51.9</v>
+        <v>49</v>
       </c>
       <c r="D12" t="n">
         <v>42</v>
@@ -27218,7 +27218,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53.2</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>43</v>
@@ -27253,7 +27253,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>51.1</v>
+        <v>47</v>
       </c>
       <c r="D14" t="n">
         <v>42</v>
@@ -27288,7 +27288,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53.2</v>
+        <v>49</v>
       </c>
       <c r="D15" t="n">
         <v>43</v>
@@ -27323,7 +27323,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.3</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
         <v>42</v>
@@ -27358,7 +27358,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>52.59999999999999</v>
+        <v>48</v>
       </c>
       <c r="D17" t="n">
         <v>43</v>
@@ -27413,7 +27413,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -27459,7 +27459,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -27494,7 +27494,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.3</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
@@ -27529,7 +27529,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.2</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
@@ -27564,7 +27564,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>21</v>
@@ -27599,7 +27599,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.8</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>22</v>
@@ -27634,7 +27634,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.8</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>23</v>
@@ -27669,7 +27669,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.3</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>24</v>
@@ -27704,7 +27704,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24.4</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
         <v>24</v>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>22</v>
@@ -27774,7 +27774,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.2</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
         <v>22</v>
@@ -27809,7 +27809,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.4</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
         <v>21</v>
@@ -27844,7 +27844,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.2</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
         <v>24</v>
@@ -27879,7 +27879,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.9</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>24</v>
@@ -27914,7 +27914,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.8</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
         <v>22</v>
@@ -27949,7 +27949,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.3</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
         <v>23</v>
@@ -27984,7 +27984,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.8</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>22</v>
@@ -28039,7 +28039,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -28085,7 +28085,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -28225,7 +28225,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -28365,7 +28365,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -28400,7 +28400,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
@@ -28470,7 +28470,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
@@ -28505,7 +28505,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
@@ -28665,7 +28665,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -28711,7 +28711,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>237.9</v>
+        <v>254</v>
       </c>
       <c r="D2" t="n">
         <v>175</v>
@@ -28746,7 +28746,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>273.5</v>
+        <v>317</v>
       </c>
       <c r="D3" t="n">
         <v>162</v>
@@ -28781,7 +28781,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>325.4</v>
+        <v>410</v>
       </c>
       <c r="D4" t="n">
         <v>153</v>
@@ -28816,7 +28816,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>399.5</v>
+        <v>531</v>
       </c>
       <c r="D5" t="n">
         <v>154</v>
@@ -28851,7 +28851,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>499.1</v>
+        <v>687</v>
       </c>
       <c r="D6" t="n">
         <v>163</v>
@@ -28886,7 +28886,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>622.8</v>
+        <v>889</v>
       </c>
       <c r="D7" t="n">
         <v>167</v>
@@ -28921,7 +28921,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>787.3000000000001</v>
+        <v>1151</v>
       </c>
       <c r="D8" t="n">
         <v>177</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>987.6</v>
+        <v>1489</v>
       </c>
       <c r="D9" t="n">
         <v>171</v>
@@ -28991,7 +28991,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1244.5</v>
+        <v>1927</v>
       </c>
       <c r="D10" t="n">
         <v>164</v>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1591.8</v>
+        <v>2493</v>
       </c>
       <c r="D11" t="n">
         <v>174</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2028.5</v>
+        <v>3226</v>
       </c>
       <c r="D12" t="n">
         <v>168</v>
@@ -29096,7 +29096,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2607.2</v>
+        <v>4175</v>
       </c>
       <c r="D13" t="n">
         <v>180</v>
@@ -29131,7 +29131,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3342</v>
+        <v>5402</v>
       </c>
       <c r="D14" t="n">
         <v>178</v>
@@ -29166,7 +29166,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4295</v>
+        <v>6990</v>
       </c>
       <c r="D15" t="n">
         <v>175</v>
@@ -29201,7 +29201,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5528.3</v>
+        <v>9045</v>
       </c>
       <c r="D16" t="n">
         <v>173</v>
@@ -29236,7 +29236,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7120</v>
+        <v>11704</v>
       </c>
       <c r="D17" t="n">
         <v>171</v>
@@ -29291,7 +29291,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -29337,7 +29337,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>205.5</v>
+        <v>149</v>
       </c>
       <c r="D2" t="n">
         <v>231</v>
@@ -29372,7 +29372,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243.6</v>
+        <v>229</v>
       </c>
       <c r="D3" t="n">
         <v>203</v>
@@ -29407,7 +29407,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
         <v>190</v>
@@ -29442,7 +29442,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>191</v>
@@ -29477,7 +29477,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>200</v>
@@ -29512,7 +29512,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="D7" t="n">
         <v>206</v>
@@ -29547,7 +29547,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>372.9</v>
+        <v>416</v>
       </c>
       <c r="D8" t="n">
         <v>214</v>
@@ -29582,7 +29582,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44.10000000000001</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>204</v>
@@ -29652,7 +29652,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>162.5</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
         <v>204</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>743.2</v>
+        <v>1045</v>
       </c>
       <c r="D12" t="n">
         <v>201</v>
@@ -29722,7 +29722,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>526.1</v>
+        <v>673</v>
       </c>
       <c r="D13" t="n">
         <v>208</v>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>700.8</v>
+        <v>968</v>
       </c>
       <c r="D16" t="n">
         <v>202</v>
@@ -29862,7 +29862,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1915.2</v>
+        <v>2991</v>
       </c>
       <c r="D17" t="n">
         <v>205</v>
@@ -29917,7 +29917,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -29963,7 +29963,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42.7</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>103</v>
@@ -29998,7 +29998,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50.40000000000001</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>91</v>
@@ -30033,7 +30033,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66.40000000000001</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>86</v>
@@ -30068,7 +30068,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>89</v>
@@ -30103,7 +30103,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>96</v>
@@ -30138,7 +30138,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66.40000000000001</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
@@ -30173,7 +30173,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>81.3</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>112</v>
@@ -30208,7 +30208,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>108</v>
@@ -30243,7 +30243,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>95</v>
@@ -30278,7 +30278,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>74.90000000000001</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>103</v>
@@ -30313,7 +30313,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>72.90000000000001</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>108</v>
@@ -30348,7 +30348,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57.4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>116</v>
@@ -30383,7 +30383,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>67.10000000000001</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>114</v>
@@ -30418,7 +30418,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -30453,7 +30453,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>73.5</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>118</v>
@@ -30488,7 +30488,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -30543,7 +30543,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -30589,7 +30589,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37.6</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>43</v>
@@ -30624,7 +30624,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41.1</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>45</v>
@@ -30659,7 +30659,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39.2</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>40</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44.2</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>49</v>
@@ -30729,7 +30729,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46.40000000000001</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>51</v>
@@ -30764,7 +30764,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47.90000000000001</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>53</v>
@@ -30799,7 +30799,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50.4</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>56</v>
@@ -30834,7 +30834,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.4</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>54</v>
@@ -30869,7 +30869,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47.8</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>52</v>
@@ -30904,7 +30904,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>48.2</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>52</v>
@@ -30939,7 +30939,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>48.1</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>52</v>
@@ -30974,7 +30974,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50.9</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>55</v>
@@ -31009,7 +31009,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>51.4</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>56</v>
@@ -31044,7 +31044,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>48.6</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>51</v>
@@ -31079,7 +31079,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50.8</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>54</v>
@@ -31114,7 +31114,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50.5</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>54</v>
@@ -31169,7 +31169,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -31215,7 +31215,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41.3</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>42</v>
@@ -31250,7 +31250,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40.5</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>40</v>
@@ -31285,7 +31285,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32.7</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>29</v>
@@ -31320,7 +31320,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31.8</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>27</v>
@@ -31355,7 +31355,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31.7</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>26</v>
@@ -31390,7 +31390,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32.8</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>27</v>
@@ -31425,7 +31425,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>28</v>
@@ -31460,7 +31460,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.59999999999999</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>28</v>
@@ -31495,7 +31495,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.3</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>26</v>
@@ -31530,7 +31530,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35.1</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>28</v>
@@ -31565,7 +31565,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35.59999999999999</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>28</v>
@@ -31600,7 +31600,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36.9</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>30</v>
@@ -31635,7 +31635,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36.8</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>29</v>
@@ -31670,7 +31670,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36.8</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>27</v>
@@ -31705,7 +31705,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37.2</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>28</v>
@@ -31740,7 +31740,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36.8</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>26</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -31841,7 +31841,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53.90000000000001</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
         <v>55</v>
@@ -31876,7 +31876,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.8</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -31911,7 +31911,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54.5</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
         <v>51</v>
@@ -31946,7 +31946,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.7</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
         <v>47</v>
@@ -31981,7 +31981,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
         <v>48</v>
@@ -32016,7 +32016,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52.4</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
         <v>47</v>
@@ -32051,7 +32051,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53.9</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
         <v>49</v>
@@ -32086,7 +32086,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>53.8</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
         <v>48</v>
@@ -32121,7 +32121,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
         <v>48</v>
@@ -32156,7 +32156,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54.4</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
         <v>49</v>
@@ -32191,7 +32191,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>55.59999999999999</v>
+        <v>41</v>
       </c>
       <c r="D12" t="n">
         <v>51</v>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>56.8</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
         <v>53</v>
@@ -32261,7 +32261,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55.59999999999999</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
         <v>51</v>
@@ -32296,7 +32296,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55.59999999999999</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
         <v>50</v>
@@ -32331,7 +32331,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55.5</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
         <v>51</v>
@@ -32366,7 +32366,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54.9</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
         <v>49</v>
@@ -32421,7 +32421,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -32467,7 +32467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>97.59999999999999</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
         <v>107</v>
@@ -32502,7 +32502,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>99.09999999999999</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>106</v>
@@ -32537,7 +32537,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
         <v>85</v>
@@ -32572,7 +32572,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90.59999999999999</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
         <v>72</v>
@@ -32607,7 +32607,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
         <v>72</v>
@@ -32642,7 +32642,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
         <v>73</v>
@@ -32677,7 +32677,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>88.2</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
         <v>76</v>
@@ -32712,7 +32712,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>87.2</v>
+        <v>71</v>
       </c>
       <c r="D9" t="n">
         <v>73</v>
@@ -32747,7 +32747,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81.59999999999999</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
         <v>73</v>
@@ -32782,7 +32782,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11" t="n">
         <v>74</v>
@@ -32817,7 +32817,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" t="n">
         <v>74</v>
@@ -32852,7 +32852,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>110.5</v>
+        <v>104</v>
       </c>
       <c r="D13" t="n">
         <v>78</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>102.1</v>
+        <v>92</v>
       </c>
       <c r="D14" t="n">
         <v>76</v>
@@ -32922,7 +32922,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>98.7</v>
+        <v>90</v>
       </c>
       <c r="D15" t="n">
         <v>71</v>
@@ -32957,7 +32957,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>99.30000000000001</v>
+        <v>94</v>
       </c>
       <c r="D16" t="n">
         <v>69</v>
@@ -32992,7 +32992,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>104.5</v>
+        <v>103</v>
       </c>
       <c r="D17" t="n">
         <v>68</v>
@@ -33047,7 +33047,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66.90000000000001</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>96</v>
@@ -33128,7 +33128,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70.10000000000001</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
         <v>85</v>
@@ -33163,7 +33163,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54.90000000000001</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
         <v>77</v>
@@ -33198,7 +33198,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47.8</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>62</v>
@@ -33233,7 +33233,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
         <v>60</v>
@@ -33268,7 +33268,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51.2</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>60</v>
@@ -33303,7 +33303,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.2</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>63</v>
@@ -33338,7 +33338,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.5</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
         <v>64</v>
@@ -33373,7 +33373,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.2</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>61</v>
@@ -33408,7 +33408,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>73.3</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
         <v>63</v>
@@ -33443,7 +33443,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>73.5</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
         <v>64</v>
@@ -33478,7 +33478,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
         <v>67</v>
@@ -33513,7 +33513,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52.40000000000001</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>64</v>
@@ -33548,7 +33548,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>56.8</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>59</v>
@@ -33583,7 +33583,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>47.3</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
         <v>59</v>
@@ -33618,7 +33618,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47.9</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>57</v>
@@ -33673,7 +33673,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -33719,7 +33719,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51.9</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
         <v>42</v>
@@ -33754,7 +33754,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.90000000000001</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>34</v>
@@ -33789,7 +33789,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42.3</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
         <v>33</v>
@@ -33824,7 +33824,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53.4</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
         <v>35</v>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54.3</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
         <v>35</v>
@@ -33894,7 +33894,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56.8</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
         <v>35</v>
@@ -33929,7 +33929,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.4</v>
+        <v>62</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.59999999999999</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -33999,7 +33999,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45.8</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -34034,7 +34034,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.2</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -34069,7 +34069,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>53.09999999999999</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
         <v>38</v>
@@ -34104,7 +34104,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.2</v>
+        <v>49</v>
       </c>
       <c r="D13" t="n">
         <v>40</v>
@@ -34139,7 +34139,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43.09999999999999</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
         <v>38</v>
@@ -34174,7 +34174,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38.2</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>38</v>
@@ -34209,7 +34209,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35.9</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
         <v>37</v>
@@ -34244,7 +34244,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54.5</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>36</v>
@@ -34854,7 +34854,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -34900,7 +34900,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D2" t="n">
         <v>145</v>
@@ -35040,7 +35040,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
         <v>107</v>
@@ -35145,7 +35145,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D9" t="n">
         <v>107</v>
@@ -35285,7 +35285,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D13" t="n">
         <v>105</v>
@@ -35355,7 +35355,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D15" t="n">
         <v>96</v>
@@ -35425,7 +35425,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" t="n">
         <v>93</v>
@@ -35480,7 +35480,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -35526,7 +35526,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>445</v>
       </c>
       <c r="D2" t="n">
         <v>105</v>
@@ -35561,7 +35561,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="D3" t="n">
         <v>112</v>
@@ -35596,7 +35596,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="D4" t="n">
         <v>124</v>
@@ -35631,7 +35631,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="D5" t="n">
         <v>126</v>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D6" t="n">
         <v>131</v>
@@ -35701,7 +35701,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="D7" t="n">
         <v>130</v>
@@ -35736,7 +35736,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="D8" t="n">
         <v>129</v>
@@ -35771,7 +35771,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="D9" t="n">
         <v>130</v>
@@ -35806,7 +35806,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="D10" t="n">
         <v>126</v>
@@ -35841,7 +35841,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="D11" t="n">
         <v>125</v>
@@ -35876,7 +35876,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="D12" t="n">
         <v>123</v>
@@ -35911,7 +35911,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>216</v>
+        <v>493</v>
       </c>
       <c r="D13" t="n">
         <v>124</v>
@@ -35946,7 +35946,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>208</v>
+        <v>460</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -35981,7 +35981,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -36016,7 +36016,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -36051,7 +36051,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="D17" t="n">
         <v>113</v>
@@ -36106,7 +36106,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -36152,7 +36152,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="D2" t="n">
         <v>234</v>
@@ -36187,7 +36187,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D3" t="n">
         <v>198</v>
@@ -36222,7 +36222,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
         <v>197</v>
@@ -36257,7 +36257,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -36292,7 +36292,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
         <v>207</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
         <v>197</v>
@@ -36362,7 +36362,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
         <v>198</v>
@@ -36397,7 +36397,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D9" t="n">
         <v>198</v>
@@ -36432,7 +36432,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D10" t="n">
         <v>190</v>
@@ -36467,7 +36467,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -36502,7 +36502,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
         <v>192</v>
@@ -36537,7 +36537,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
@@ -36572,7 +36572,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
         <v>195</v>
@@ -36607,7 +36607,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
         <v>190</v>
@@ -36642,7 +36642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
         <v>186</v>
@@ -36677,7 +36677,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>185</v>
@@ -36732,7 +36732,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -36778,7 +36778,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2" t="n">
         <v>40</v>
@@ -36848,7 +36848,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
         <v>40</v>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -37163,7 +37163,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>42</v>
@@ -37233,7 +37233,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
         <v>38</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D2" t="n">
         <v>189</v>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D3" t="n">
         <v>185</v>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D4" t="n">
         <v>146</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D5" t="n">
         <v>121</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" t="n">
         <v>121</v>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D7" t="n">
         <v>120</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D8" t="n">
         <v>118</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
         <v>117</v>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D11" t="n">
         <v>117</v>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" t="n">
         <v>118</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D13" t="n">
         <v>120</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D7" t="n">
         <v>542</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D8" t="n">
         <v>511</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D15" t="n">
         <v>454</v>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D16" t="n">
         <v>450</v>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D17" t="n">
         <v>432</v>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>19</v>
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>18</v>
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
         <v>55</v>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
         <v>56</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
         <v>56</v>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
         <v>57</v>
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
         <v>58</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" t="n">
         <v>55</v>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
         <v>57</v>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
         <v>59</v>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
         <v>56</v>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" t="n">
         <v>54</v>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
         <v>51</v>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
         <v>60</v>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
         <v>60</v>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
         <v>66</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" t="n">
         <v>68</v>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
         <v>65</v>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
         <v>71</v>
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" t="n">
         <v>71</v>
@@ -6455,7 +6455,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="n">
         <v>71</v>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" t="n">
         <v>71</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -6560,7 +6560,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" t="n">
         <v>75</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D15" t="n">
         <v>69</v>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" t="n">
         <v>71</v>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D17" t="n">
         <v>67</v>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D2" t="n">
         <v>142</v>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
         <v>126</v>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
         <v>109</v>
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>83</v>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
         <v>85</v>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
         <v>80</v>
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
         <v>81</v>
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
         <v>78</v>
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D13" t="n">
         <v>74</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D14" t="n">
         <v>75</v>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D15" t="n">
         <v>66</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D16" t="n">
         <v>68</v>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D17" t="n">
         <v>63</v>
@@ -11914,7 +11914,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -12159,7 +12159,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -12264,7 +12264,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>48</v>
@@ -17653,7 +17653,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
         <v>61</v>
@@ -17688,7 +17688,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" t="n">
         <v>65</v>
@@ -17828,7 +17828,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" t="n">
         <v>69</v>
@@ -17898,7 +17898,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" t="n">
         <v>64</v>
@@ -17933,7 +17933,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" t="n">
         <v>64</v>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>37</v>
@@ -18559,7 +18559,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>37</v>
@@ -19356,7 +19356,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D3" t="n">
         <v>308</v>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D4" t="n">
         <v>291</v>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" t="n">
         <v>286</v>
@@ -19566,7 +19566,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D9" t="n">
         <v>299</v>
@@ -19636,7 +19636,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D11" t="n">
         <v>286</v>
@@ -19741,7 +19741,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D14" t="n">
         <v>291</v>
@@ -19776,7 +19776,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D15" t="n">
         <v>278</v>
@@ -19811,7 +19811,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D16" t="n">
         <v>267</v>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -21199,7 +21199,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -21234,7 +21234,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -21269,7 +21269,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D5" t="n">
         <v>551</v>
@@ -21339,7 +21339,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D6" t="n">
         <v>571</v>
@@ -21374,7 +21374,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -21444,7 +21444,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D9" t="n">
         <v>569</v>
@@ -21479,7 +21479,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -21514,7 +21514,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -21549,7 +21549,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -21584,7 +21584,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -21654,7 +21654,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D15" t="n">
         <v>524</v>
@@ -21689,7 +21689,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D17" t="n">
         <v>512</v>
@@ -36152,7 +36152,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="n">
         <v>234</v>
@@ -36187,7 +36187,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
         <v>198</v>
@@ -36222,7 +36222,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
         <v>197</v>
@@ -36257,7 +36257,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -36292,7 +36292,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
         <v>207</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" t="n">
         <v>197</v>
@@ -36362,7 +36362,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
         <v>198</v>
@@ -36397,7 +36397,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" t="n">
         <v>198</v>
@@ -36432,7 +36432,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="n">
         <v>190</v>
@@ -36467,7 +36467,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -36502,7 +36502,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D12" t="n">
         <v>192</v>
@@ -36537,7 +36537,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
@@ -36572,7 +36572,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D14" t="n">
         <v>195</v>
@@ -36607,7 +36607,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
         <v>190</v>
@@ -36642,7 +36642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="n">
         <v>186</v>
@@ -36677,7 +36677,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" t="n">
         <v>185</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="D2" t="n">
         <v>70</v>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="D3" t="n">
         <v>68</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="D4" t="n">
         <v>98</v>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="D9" t="n">
         <v>109</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="D10" t="n">
         <v>104</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D11" t="n">
         <v>107</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="D14" t="n">
         <v>112</v>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
         <v>18</v>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
         <v>19</v>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
         <v>25</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n">
         <v>27</v>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
         <v>29</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
         <v>28</v>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n">
         <v>29</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D9" t="n">
         <v>29</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D10" t="n">
         <v>29</v>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D11" t="n">
         <v>28</v>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
         <v>28</v>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D13" t="n">
         <v>30</v>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
         <v>29</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>29</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
         <v>29</v>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>28</v>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>539</v>
+        <v>355</v>
       </c>
       <c r="D2" t="n">
         <v>173</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>568</v>
+        <v>272</v>
       </c>
       <c r="D3" t="n">
         <v>127</v>
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>531</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
         <v>123</v>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>419</v>
+        <v>261</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D6" t="n">
         <v>126</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="D8" t="n">
         <v>127</v>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="D9" t="n">
         <v>129</v>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>506</v>
+        <v>280</v>
       </c>
       <c r="D10" t="n">
         <v>126</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>491</v>
+        <v>282</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>434</v>
+        <v>287</v>
       </c>
       <c r="D12" t="n">
         <v>127</v>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>416</v>
+        <v>304</v>
       </c>
       <c r="D13" t="n">
         <v>131</v>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>468</v>
+        <v>289</v>
       </c>
       <c r="D14" t="n">
         <v>127</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>535</v>
+        <v>299</v>
       </c>
       <c r="D15" t="n">
         <v>126</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>546</v>
+        <v>287</v>
       </c>
       <c r="D16" t="n">
         <v>122</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>484</v>
+        <v>283</v>
       </c>
       <c r="D17" t="n">
         <v>122</v>
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D2" t="n">
         <v>189</v>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D3" t="n">
         <v>185</v>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D4" t="n">
         <v>146</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D5" t="n">
         <v>121</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D6" t="n">
         <v>121</v>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D7" t="n">
         <v>120</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D8" t="n">
         <v>118</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D10" t="n">
         <v>117</v>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" t="n">
         <v>117</v>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
         <v>118</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D13" t="n">
         <v>120</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D7" t="n">
         <v>542</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="D15" t="n">
         <v>454</v>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>282</v>
+        <v>385</v>
       </c>
       <c r="D16" t="n">
         <v>450</v>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>273</v>
+        <v>369</v>
       </c>
       <c r="D17" t="n">
         <v>432</v>
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -5308,7 +5308,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
         <v>22</v>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>20</v>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -5413,7 +5413,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>19</v>
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>18</v>
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
         <v>80</v>
@@ -5584,7 +5584,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
         <v>55</v>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
         <v>56</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
         <v>56</v>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n">
         <v>57</v>
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D9" t="n">
         <v>58</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D10" t="n">
         <v>55</v>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
         <v>55</v>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D12" t="n">
         <v>57</v>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D13" t="n">
         <v>59</v>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
         <v>56</v>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
         <v>54</v>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
         <v>53</v>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D17" t="n">
         <v>51</v>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
         <v>60</v>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
         <v>60</v>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
         <v>66</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n">
         <v>68</v>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
         <v>65</v>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="n">
         <v>71</v>
@@ -6455,7 +6455,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" t="n">
         <v>71</v>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D11" t="n">
         <v>71</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -6560,7 +6560,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" t="n">
         <v>75</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D14" t="n">
         <v>71</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="n">
         <v>69</v>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D16" t="n">
         <v>71</v>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" t="n">
         <v>67</v>
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>673</v>
+        <v>525</v>
       </c>
       <c r="D2" t="n">
         <v>241</v>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>694</v>
+        <v>378</v>
       </c>
       <c r="D3" t="n">
         <v>161</v>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>674</v>
+        <v>286</v>
       </c>
       <c r="D4" t="n">
         <v>121</v>
@@ -6906,7 +6906,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>615</v>
+        <v>303</v>
       </c>
       <c r="D5" t="n">
         <v>127</v>
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>535</v>
+        <v>328</v>
       </c>
       <c r="D6" t="n">
         <v>134</v>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>468</v>
+        <v>325</v>
       </c>
       <c r="D7" t="n">
         <v>131</v>
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="D8" t="n">
         <v>130</v>
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>468</v>
+        <v>316</v>
       </c>
       <c r="D9" t="n">
         <v>125</v>
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>524</v>
+        <v>290</v>
       </c>
       <c r="D10" t="n">
         <v>118</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>569</v>
+        <v>289</v>
       </c>
       <c r="D11" t="n">
         <v>117</v>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>576</v>
+        <v>278</v>
       </c>
       <c r="D12" t="n">
         <v>110</v>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>546</v>
+        <v>300</v>
       </c>
       <c r="D13" t="n">
         <v>115</v>
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>508</v>
+        <v>280</v>
       </c>
       <c r="D14" t="n">
         <v>111</v>
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>481</v>
+        <v>277</v>
       </c>
       <c r="D15" t="n">
         <v>106</v>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>453</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>101</v>
@@ -7326,7 +7326,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>398</v>
+        <v>255</v>
       </c>
       <c r="D17" t="n">
         <v>99</v>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D2" t="n">
         <v>142</v>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D3" t="n">
         <v>126</v>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
         <v>109</v>
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
         <v>83</v>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
         <v>85</v>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
         <v>80</v>
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
         <v>81</v>
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
         <v>78</v>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D13" t="n">
         <v>74</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D14" t="n">
         <v>75</v>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D15" t="n">
         <v>66</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D16" t="n">
         <v>68</v>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D17" t="n">
         <v>63</v>
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>303</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
         <v>46</v>
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
         <v>38</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
         <v>35</v>
@@ -8158,7 +8158,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
         <v>36</v>
@@ -8193,7 +8193,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>311</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
         <v>36</v>
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="D8" t="n">
         <v>36</v>
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D9" t="n">
         <v>35</v>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="D10" t="n">
         <v>35</v>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="D11" t="n">
         <v>35</v>
@@ -8403,7 +8403,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="D12" t="n">
         <v>35</v>
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="D13" t="n">
         <v>36</v>
@@ -8473,7 +8473,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="D14" t="n">
         <v>34</v>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="D15" t="n">
         <v>33</v>
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="D16" t="n">
         <v>33</v>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="D17" t="n">
         <v>32</v>
@@ -9305,7 +9305,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D2" t="n">
         <v>212</v>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="D3" t="n">
         <v>189</v>
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="D4" t="n">
         <v>194</v>
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -9445,7 +9445,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
         <v>208</v>
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>585</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
         <v>216</v>
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>681</v>
+        <v>515</v>
       </c>
       <c r="D13" t="n">
         <v>216</v>
@@ -9725,7 +9725,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>675</v>
+        <v>507</v>
       </c>
       <c r="D14" t="n">
         <v>214</v>
@@ -9760,7 +9760,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>572</v>
+        <v>504</v>
       </c>
       <c r="D15" t="n">
         <v>210</v>
@@ -9931,7 +9931,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>19</v>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
@@ -10036,7 +10036,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
@@ -10106,7 +10106,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
@@ -10141,7 +10141,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
@@ -10176,7 +10176,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>9</v>
@@ -10316,7 +10316,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
@@ -10351,7 +10351,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
         <v>11</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
         <v>11</v>
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
         <v>11</v>
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>68</v>
@@ -11253,7 +11253,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
         <v>74</v>
@@ -11809,7 +11809,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -11914,7 +11914,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -12159,7 +12159,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -12229,7 +12229,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -12540,7 +12540,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
@@ -12575,7 +12575,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
         <v>15</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>16</v>
@@ -12855,7 +12855,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
         <v>15</v>
@@ -12890,7 +12890,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -12925,7 +12925,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
         <v>14</v>
@@ -12960,7 +12960,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
         <v>13</v>
@@ -13061,7 +13061,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
         <v>16</v>
@@ -13131,7 +13131,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
@@ -13166,7 +13166,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
         <v>41</v>
@@ -13757,7 +13757,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
         <v>36</v>
@@ -13792,7 +13792,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
         <v>36</v>
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -14558,7 +14558,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -14593,7 +14593,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -14628,7 +14628,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>8</v>
@@ -15044,7 +15044,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
         <v>65</v>
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
         <v>67</v>
@@ -15184,7 +15184,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" t="n">
         <v>71</v>
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
         <v>39</v>
@@ -15600,7 +15600,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
         <v>36</v>
@@ -15635,7 +15635,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
         <v>28</v>
@@ -15670,7 +15670,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
         <v>28</v>
@@ -15705,7 +15705,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
         <v>27</v>
@@ -15740,7 +15740,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
         <v>27</v>
@@ -15775,7 +15775,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n">
         <v>27</v>
@@ -15810,7 +15810,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D9" t="n">
         <v>28</v>
@@ -15845,7 +15845,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D10" t="n">
         <v>27</v>
@@ -15880,7 +15880,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
         <v>27</v>
@@ -15915,7 +15915,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D12" t="n">
         <v>27</v>
@@ -15950,7 +15950,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D13" t="n">
         <v>29</v>
@@ -15985,7 +15985,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
         <v>27</v>
@@ -16020,7 +16020,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D15" t="n">
         <v>27</v>
@@ -16055,7 +16055,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D16" t="n">
         <v>27</v>
@@ -16090,7 +16090,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D17" t="n">
         <v>26</v>
@@ -16191,7 +16191,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
         <v>35</v>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
         <v>33</v>
@@ -16261,7 +16261,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
         <v>26</v>
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
         <v>24</v>
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
         <v>22</v>
@@ -16401,7 +16401,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
         <v>24</v>
@@ -16436,7 +16436,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D9" t="n">
         <v>24</v>
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
         <v>23</v>
@@ -16506,7 +16506,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
         <v>23</v>
@@ -16541,7 +16541,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
         <v>24</v>
@@ -16576,7 +16576,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D13" t="n">
         <v>27</v>
@@ -16611,7 +16611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
         <v>26</v>
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D15" t="n">
         <v>23</v>
@@ -16681,7 +16681,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
         <v>25</v>
@@ -16716,7 +16716,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D17" t="n">
         <v>23</v>
@@ -16817,7 +16817,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D2" t="n">
         <v>64</v>
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="D3" t="n">
         <v>60</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
         <v>61</v>
@@ -16922,7 +16922,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D5" t="n">
         <v>60</v>
@@ -17132,7 +17132,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D11" t="n">
         <v>61</v>
@@ -17167,7 +17167,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D12" t="n">
         <v>63</v>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D15" t="n">
         <v>60</v>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
         <v>48</v>
@@ -17478,7 +17478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
@@ -17513,7 +17513,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
         <v>53</v>
@@ -17548,7 +17548,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
         <v>56</v>
@@ -17583,7 +17583,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>59</v>
@@ -17618,7 +17618,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
         <v>56</v>
@@ -17653,7 +17653,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
         <v>61</v>
@@ -17688,7 +17688,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
         <v>65</v>
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
         <v>62</v>
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D11" t="n">
         <v>63</v>
@@ -17793,7 +17793,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D12" t="n">
         <v>65</v>
@@ -17828,7 +17828,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D13" t="n">
         <v>69</v>
@@ -17863,7 +17863,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D14" t="n">
         <v>67</v>
@@ -17898,7 +17898,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D15" t="n">
         <v>64</v>
@@ -17933,7 +17933,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D16" t="n">
         <v>64</v>
@@ -17968,7 +17968,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D17" t="n">
         <v>62</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
         <v>50</v>
@@ -18104,7 +18104,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
         <v>44</v>
@@ -18139,7 +18139,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>38</v>
@@ -18174,7 +18174,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>37</v>
@@ -18209,7 +18209,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>37</v>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>37</v>
@@ -18279,7 +18279,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -18314,7 +18314,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -18349,7 +18349,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -18384,7 +18384,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
         <v>37</v>
@@ -18419,7 +18419,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -18454,7 +18454,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>40</v>
@@ -18489,7 +18489,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>38</v>
@@ -18524,7 +18524,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>37</v>
@@ -18559,7 +18559,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>37</v>
@@ -19045,7 +19045,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="D2" t="n">
         <v>340</v>
@@ -19356,7 +19356,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="D3" t="n">
         <v>308</v>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D4" t="n">
         <v>291</v>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="D5" t="n">
         <v>290</v>
@@ -19461,7 +19461,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="D6" t="n">
         <v>296</v>
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="D7" t="n">
         <v>293</v>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D8" t="n">
         <v>286</v>
@@ -19566,7 +19566,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D9" t="n">
         <v>299</v>
@@ -19601,7 +19601,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D10" t="n">
         <v>291</v>
@@ -19636,7 +19636,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D11" t="n">
         <v>286</v>
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D12" t="n">
         <v>289</v>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D13" t="n">
         <v>287</v>
@@ -19741,7 +19741,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D14" t="n">
         <v>291</v>
@@ -19776,7 +19776,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D15" t="n">
         <v>278</v>
@@ -19811,7 +19811,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D16" t="n">
         <v>267</v>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D17" t="n">
         <v>262</v>
@@ -19947,7 +19947,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>549</v>
+        <v>203</v>
       </c>
       <c r="D2" t="n">
         <v>92</v>
@@ -19982,7 +19982,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>492</v>
+        <v>235</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -20017,7 +20017,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>477</v>
+        <v>244</v>
       </c>
       <c r="D4" t="n">
         <v>105</v>
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>364</v>
+        <v>244</v>
       </c>
       <c r="D5" t="n">
         <v>105</v>
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D10" t="n">
         <v>107</v>
@@ -20367,7 +20367,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D14" t="n">
         <v>115</v>
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -20573,7 +20573,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>18</v>
@@ -20608,7 +20608,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
@@ -20643,7 +20643,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -20678,7 +20678,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
@@ -20713,7 +20713,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -20783,7 +20783,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>19</v>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -21199,7 +21199,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -21234,7 +21234,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -21269,7 +21269,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D5" t="n">
         <v>551</v>
@@ -21339,7 +21339,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D6" t="n">
         <v>571</v>
@@ -21374,7 +21374,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -21444,7 +21444,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D9" t="n">
         <v>569</v>
@@ -21479,7 +21479,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -21514,7 +21514,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -21549,7 +21549,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -21584,7 +21584,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -21654,7 +21654,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D15" t="n">
         <v>524</v>
@@ -21689,7 +21689,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D17" t="n">
         <v>512</v>
@@ -21825,7 +21825,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>34</v>
@@ -22766,7 +22766,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1308</v>
+        <v>1020</v>
       </c>
       <c r="D11" t="n">
         <v>406</v>
@@ -23703,7 +23703,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
@@ -23738,7 +23738,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -23773,7 +23773,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>7</v>
@@ -23843,7 +23843,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
@@ -23913,7 +23913,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -23983,7 +23983,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
@@ -24018,7 +24018,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
@@ -24053,7 +24053,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
@@ -24088,7 +24088,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -24123,7 +24123,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -24158,7 +24158,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
@@ -24193,7 +24193,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>7</v>
@@ -24228,7 +24228,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -24955,7 +24955,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>35</v>
@@ -24990,7 +24990,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>35</v>
@@ -25025,7 +25025,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
         <v>28</v>
@@ -25060,7 +25060,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
         <v>25</v>
@@ -25130,7 +25130,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>24</v>
@@ -25165,7 +25165,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
         <v>25</v>
@@ -25305,7 +25305,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
         <v>27</v>
@@ -25340,7 +25340,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
         <v>29</v>
@@ -25375,7 +25375,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
         <v>28</v>
@@ -25410,7 +25410,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
         <v>28</v>
@@ -25445,7 +25445,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>29</v>
@@ -25480,7 +25480,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>27</v>
@@ -25581,7 +25581,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
         <v>126</v>
@@ -25616,7 +25616,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
         <v>108</v>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
         <v>108</v>
@@ -25686,7 +25686,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
         <v>106</v>
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
         <v>104</v>
@@ -25756,7 +25756,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n">
         <v>105</v>
@@ -25791,7 +25791,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
         <v>105</v>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -25861,7 +25861,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
         <v>101</v>
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D11" t="n">
         <v>102</v>
@@ -25931,7 +25931,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D12" t="n">
         <v>105</v>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D13" t="n">
         <v>108</v>
@@ -26001,7 +26001,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
         <v>103</v>
@@ -26036,7 +26036,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
         <v>104</v>
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D16" t="n">
         <v>101</v>
@@ -26106,7 +26106,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D17" t="n">
         <v>100</v>
@@ -26207,7 +26207,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
         <v>121</v>
@@ -26242,7 +26242,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
         <v>115</v>
@@ -27564,7 +27564,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
         <v>21</v>
@@ -27599,7 +27599,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
         <v>22</v>
@@ -27634,7 +27634,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>23</v>
@@ -27669,7 +27669,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
         <v>24</v>
@@ -27704,7 +27704,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>24</v>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
         <v>22</v>
@@ -27774,7 +27774,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>22</v>
@@ -27809,7 +27809,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>21</v>
@@ -27844,7 +27844,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>24</v>
@@ -27879,7 +27879,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>24</v>
@@ -27914,7 +27914,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
         <v>22</v>
@@ -27949,7 +27949,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
         <v>23</v>
@@ -27984,7 +27984,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
         <v>22</v>
@@ -28085,7 +28085,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -28225,7 +28225,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -28295,7 +28295,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -28365,7 +28365,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -28400,7 +28400,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
@@ -28435,7 +28435,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -28470,7 +28470,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
@@ -28505,7 +28505,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
@@ -28540,7 +28540,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -28781,7 +28781,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>410</v>
+        <v>326</v>
       </c>
       <c r="D4" t="n">
         <v>153</v>
@@ -28816,7 +28816,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>531</v>
+        <v>337</v>
       </c>
       <c r="D5" t="n">
         <v>154</v>
@@ -28851,7 +28851,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>687</v>
+        <v>367</v>
       </c>
       <c r="D6" t="n">
         <v>163</v>
@@ -28886,7 +28886,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>889</v>
+        <v>378</v>
       </c>
       <c r="D7" t="n">
         <v>167</v>
@@ -28921,7 +28921,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1151</v>
+        <v>417</v>
       </c>
       <c r="D8" t="n">
         <v>177</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1489</v>
+        <v>410</v>
       </c>
       <c r="D9" t="n">
         <v>171</v>
@@ -28991,7 +28991,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1927</v>
+        <v>374</v>
       </c>
       <c r="D10" t="n">
         <v>164</v>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2493</v>
+        <v>417</v>
       </c>
       <c r="D11" t="n">
         <v>174</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3226</v>
+        <v>406</v>
       </c>
       <c r="D12" t="n">
         <v>168</v>
@@ -29096,7 +29096,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4175</v>
+        <v>458</v>
       </c>
       <c r="D13" t="n">
         <v>180</v>
@@ -29131,7 +29131,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5402</v>
+        <v>448</v>
       </c>
       <c r="D14" t="n">
         <v>178</v>
@@ -29166,7 +29166,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6990</v>
+        <v>460</v>
       </c>
       <c r="D15" t="n">
         <v>175</v>
@@ -29201,7 +29201,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9045</v>
+        <v>468</v>
       </c>
       <c r="D16" t="n">
         <v>173</v>
@@ -29236,7 +29236,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11704</v>
+        <v>439</v>
       </c>
       <c r="D17" t="n">
         <v>171</v>
@@ -29337,7 +29337,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="D2" t="n">
         <v>231</v>
@@ -29407,7 +29407,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D4" t="n">
         <v>190</v>
@@ -29442,7 +29442,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D5" t="n">
         <v>191</v>
@@ -29477,7 +29477,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D6" t="n">
         <v>200</v>
@@ -29582,7 +29582,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D9" t="n">
         <v>204</v>
@@ -29617,7 +29617,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
         <v>201</v>
@@ -29652,7 +29652,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="D11" t="n">
         <v>204</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1045</v>
+        <v>530</v>
       </c>
       <c r="D12" t="n">
         <v>201</v>
@@ -29722,7 +29722,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>673</v>
+        <v>568</v>
       </c>
       <c r="D13" t="n">
         <v>208</v>
@@ -29757,7 +29757,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D14" t="n">
         <v>209</v>
@@ -29792,7 +29792,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D15" t="n">
         <v>201</v>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>968</v>
+        <v>566</v>
       </c>
       <c r="D16" t="n">
         <v>202</v>
@@ -29862,7 +29862,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2991</v>
+        <v>562</v>
       </c>
       <c r="D17" t="n">
         <v>205</v>
@@ -29963,7 +29963,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
         <v>103</v>
@@ -29998,7 +29998,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
         <v>91</v>
@@ -30033,7 +30033,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
         <v>86</v>
@@ -30068,7 +30068,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
         <v>89</v>
@@ -30103,7 +30103,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
         <v>96</v>
@@ -30138,7 +30138,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
@@ -30173,7 +30173,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D8" t="n">
         <v>112</v>
@@ -30208,7 +30208,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
         <v>108</v>
@@ -30243,7 +30243,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D10" t="n">
         <v>95</v>
@@ -30278,7 +30278,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
         <v>103</v>
@@ -30313,7 +30313,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
         <v>108</v>
@@ -30348,7 +30348,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D13" t="n">
         <v>116</v>
@@ -30383,7 +30383,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D14" t="n">
         <v>114</v>
@@ -30418,7 +30418,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -30453,7 +30453,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="D16" t="n">
         <v>118</v>
@@ -30488,7 +30488,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -30589,7 +30589,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
         <v>43</v>
@@ -30624,7 +30624,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
         <v>45</v>
@@ -30659,7 +30659,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>40</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
         <v>49</v>
@@ -30729,7 +30729,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
         <v>51</v>
@@ -30764,7 +30764,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
         <v>53</v>
@@ -30799,7 +30799,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
         <v>56</v>
@@ -30834,7 +30834,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
         <v>54</v>
@@ -30869,7 +30869,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
         <v>52</v>
@@ -30904,7 +30904,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
         <v>52</v>
@@ -30939,7 +30939,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
         <v>52</v>
@@ -30974,7 +30974,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
         <v>55</v>
@@ -31009,7 +31009,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
         <v>56</v>
@@ -31044,7 +31044,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
         <v>51</v>
@@ -31079,7 +31079,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
         <v>54</v>
@@ -31114,7 +31114,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D17" t="n">
         <v>54</v>
@@ -31215,7 +31215,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
         <v>42</v>
@@ -31250,7 +31250,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>40</v>
@@ -31841,7 +31841,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
         <v>55</v>
@@ -31876,7 +31876,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -31911,7 +31911,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
         <v>51</v>
@@ -32051,7 +32051,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
         <v>49</v>
@@ -32156,7 +32156,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
         <v>49</v>
@@ -32191,7 +32191,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
         <v>51</v>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" t="n">
         <v>53</v>
@@ -32261,7 +32261,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
         <v>51</v>
@@ -32296,7 +32296,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
         <v>50</v>
@@ -32331,7 +32331,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="n">
         <v>51</v>
@@ -32366,7 +32366,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
         <v>49</v>
@@ -32467,7 +32467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
         <v>107</v>
@@ -32502,7 +32502,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
         <v>106</v>
@@ -32537,7 +32537,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
         <v>85</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
         <v>96</v>
@@ -33128,7 +33128,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
         <v>85</v>
@@ -33163,7 +33163,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
         <v>77</v>
@@ -33198,7 +33198,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
         <v>62</v>
@@ -33233,7 +33233,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
         <v>60</v>
@@ -33268,7 +33268,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
         <v>60</v>
@@ -33303,7 +33303,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
         <v>63</v>
@@ -33338,7 +33338,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
         <v>64</v>
@@ -33373,7 +33373,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D10" t="n">
         <v>61</v>
@@ -33478,7 +33478,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
         <v>67</v>
@@ -33513,7 +33513,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
         <v>64</v>
@@ -33548,7 +33548,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>59</v>
@@ -33583,7 +33583,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>59</v>
@@ -33618,7 +33618,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D17" t="n">
         <v>57</v>
@@ -34174,7 +34174,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>38</v>
@@ -34209,7 +34209,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>37</v>
@@ -34970,7 +34970,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
         <v>108</v>
@@ -35005,7 +35005,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
         <v>107</v>
@@ -35526,7 +35526,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>445</v>
+        <v>256</v>
       </c>
       <c r="D2" t="n">
         <v>105</v>
@@ -35561,7 +35561,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="D3" t="n">
         <v>112</v>
@@ -35841,7 +35841,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D11" t="n">
         <v>125</v>
@@ -35876,7 +35876,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>437</v>
+        <v>318</v>
       </c>
       <c r="D12" t="n">
         <v>123</v>
@@ -35911,7 +35911,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>493</v>
+        <v>325</v>
       </c>
       <c r="D13" t="n">
         <v>124</v>
@@ -35946,7 +35946,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>460</v>
+        <v>316</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -35981,7 +35981,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -36152,7 +36152,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="D2" t="n">
         <v>234</v>
@@ -36187,7 +36187,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="D3" t="n">
         <v>198</v>
@@ -36222,7 +36222,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="D4" t="n">
         <v>197</v>
@@ -36257,7 +36257,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -36292,7 +36292,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
         <v>207</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="D7" t="n">
         <v>197</v>
@@ -36362,7 +36362,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="D8" t="n">
         <v>198</v>
@@ -36397,7 +36397,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D9" t="n">
         <v>198</v>
@@ -36432,7 +36432,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="D10" t="n">
         <v>190</v>
@@ -36467,7 +36467,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -36502,7 +36502,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="D12" t="n">
         <v>192</v>
@@ -36537,7 +36537,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
@@ -36572,7 +36572,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="D14" t="n">
         <v>195</v>
@@ -36607,7 +36607,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D15" t="n">
         <v>190</v>
@@ -36642,7 +36642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="D16" t="n">
         <v>186</v>
@@ -36677,7 +36677,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="D17" t="n">
         <v>185</v>
@@ -36778,7 +36778,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
         <v>40</v>
@@ -36813,7 +36813,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
         <v>36</v>
@@ -37163,7 +37163,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13" t="n">
         <v>42</v>
@@ -37198,7 +37198,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>39</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
         <v>29</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
         <v>29</v>
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" t="n">
         <v>189</v>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D4" t="n">
         <v>146</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" t="n">
         <v>121</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
         <v>80</v>
@@ -5584,7 +5584,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
         <v>55</v>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
         <v>56</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D7" t="n">
         <v>56</v>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
         <v>57</v>
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" t="n">
         <v>58</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" t="n">
         <v>55</v>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
         <v>55</v>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" t="n">
         <v>57</v>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
         <v>59</v>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" t="n">
         <v>56</v>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
         <v>58</v>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
         <v>60</v>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
         <v>66</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n">
         <v>68</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15" t="n">
         <v>69</v>
@@ -11914,7 +11914,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -21199,7 +21199,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D2" t="n">
         <v>602</v>
@@ -21234,7 +21234,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D3" t="n">
         <v>514</v>
@@ -21374,7 +21374,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D7" t="n">
         <v>566</v>
@@ -21409,7 +21409,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D8" t="n">
         <v>541</v>
@@ -21479,7 +21479,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D10" t="n">
         <v>542</v>
@@ -21514,7 +21514,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D11" t="n">
         <v>543</v>
@@ -21549,7 +21549,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D12" t="n">
         <v>543</v>
@@ -21584,7 +21584,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D13" t="n">
         <v>547</v>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D14" t="n">
         <v>539</v>
@@ -21689,7 +21689,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D16" t="n">
         <v>514</v>
@@ -28295,7 +28295,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -28330,7 +28330,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -7,10 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B091HTG6DQ" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BH9BBLHB" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BTQ3SVFR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B08KGVH7YC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-8-16 Weeks Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,27 +481,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>943.5</v>
+        <v>211.7</v>
       </c>
       <c r="D2" t="n">
-        <v>1082</v>
+        <v>227</v>
       </c>
       <c r="E2" t="n">
-        <v>1221</v>
+        <v>275</v>
       </c>
       <c r="F2" t="n">
-        <v>1331</v>
+        <v>327</v>
       </c>
       <c r="G2" t="n">
-        <v>1494</v>
+        <v>410</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -517,27 +516,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>911</v>
+        <v>227.5</v>
       </c>
       <c r="D3" t="n">
-        <v>887</v>
+        <v>133</v>
       </c>
       <c r="E3" t="n">
-        <v>991</v>
+        <v>161</v>
       </c>
       <c r="F3" t="n">
-        <v>1071</v>
+        <v>191</v>
       </c>
       <c r="G3" t="n">
-        <v>1189</v>
+        <v>239</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -552,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>857.5</v>
+        <v>236.8</v>
       </c>
       <c r="D4" t="n">
-        <v>894</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>1030</v>
+        <v>198</v>
       </c>
       <c r="F4" t="n">
-        <v>1145</v>
+        <v>236</v>
       </c>
       <c r="G4" t="n">
-        <v>1317</v>
+        <v>297</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -587,27 +586,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>843</v>
+        <v>201.3</v>
       </c>
       <c r="D5" t="n">
-        <v>648</v>
+        <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>738</v>
+        <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>812</v>
+        <v>164</v>
       </c>
       <c r="G5" t="n">
-        <v>923</v>
+        <v>204</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -622,27 +621,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>837</v>
+        <v>147.6</v>
       </c>
       <c r="D6" t="n">
-        <v>629</v>
+        <v>115</v>
       </c>
       <c r="E6" t="n">
-        <v>714</v>
+        <v>140</v>
       </c>
       <c r="F6" t="n">
-        <v>783</v>
+        <v>168</v>
       </c>
       <c r="G6" t="n">
-        <v>886</v>
+        <v>213</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -657,27 +656,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>829.5</v>
+        <v>116.1</v>
       </c>
       <c r="D7" t="n">
-        <v>643</v>
+        <v>119</v>
       </c>
       <c r="E7" t="n">
-        <v>735</v>
+        <v>145</v>
       </c>
       <c r="F7" t="n">
-        <v>811</v>
+        <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>924</v>
+        <v>220</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -692,27 +691,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>778.5</v>
+        <v>135.1</v>
       </c>
       <c r="D8" t="n">
-        <v>603</v>
+        <v>119</v>
       </c>
       <c r="E8" t="n">
-        <v>686</v>
+        <v>144</v>
       </c>
       <c r="F8" t="n">
-        <v>755</v>
+        <v>171</v>
       </c>
       <c r="G8" t="n">
-        <v>856</v>
+        <v>215</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -727,27 +726,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>728</v>
+        <v>183.6</v>
       </c>
       <c r="D9" t="n">
-        <v>625</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
-        <v>712</v>
+        <v>142</v>
       </c>
       <c r="F9" t="n">
-        <v>782</v>
+        <v>169</v>
       </c>
       <c r="G9" t="n">
-        <v>887</v>
+        <v>213</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -762,27 +761,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>689</v>
+        <v>216.6</v>
       </c>
       <c r="D10" t="n">
-        <v>588</v>
+        <v>121</v>
       </c>
       <c r="E10" t="n">
-        <v>674</v>
+        <v>147</v>
       </c>
       <c r="F10" t="n">
-        <v>745</v>
+        <v>177</v>
       </c>
       <c r="G10" t="n">
-        <v>852</v>
+        <v>224</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -797,27 +796,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>703</v>
+        <v>214.6</v>
       </c>
       <c r="D11" t="n">
-        <v>591</v>
+        <v>146</v>
       </c>
       <c r="E11" t="n">
-        <v>670</v>
+        <v>178</v>
       </c>
       <c r="F11" t="n">
-        <v>734</v>
+        <v>214</v>
       </c>
       <c r="G11" t="n">
-        <v>830</v>
+        <v>272</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -832,27 +831,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>732.5</v>
+        <v>195.6</v>
       </c>
       <c r="D12" t="n">
-        <v>591</v>
+        <v>151</v>
       </c>
       <c r="E12" t="n">
-        <v>672</v>
+        <v>184</v>
       </c>
       <c r="F12" t="n">
-        <v>738</v>
+        <v>220</v>
       </c>
       <c r="G12" t="n">
-        <v>836</v>
+        <v>277</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -867,27 +866,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>773</v>
+        <v>190.1</v>
       </c>
       <c r="D13" t="n">
-        <v>583</v>
+        <v>149</v>
       </c>
       <c r="E13" t="n">
-        <v>670</v>
+        <v>180</v>
       </c>
       <c r="F13" t="n">
-        <v>742</v>
+        <v>217</v>
       </c>
       <c r="G13" t="n">
-        <v>851</v>
+        <v>275</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -902,27 +901,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>780.5</v>
+        <v>203.1</v>
       </c>
       <c r="D14" t="n">
-        <v>577</v>
+        <v>150</v>
       </c>
       <c r="E14" t="n">
-        <v>661</v>
+        <v>181</v>
       </c>
       <c r="F14" t="n">
-        <v>732</v>
+        <v>217</v>
       </c>
       <c r="G14" t="n">
-        <v>837</v>
+        <v>273</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -937,27 +936,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>779.5</v>
+        <v>215.6</v>
       </c>
       <c r="D15" t="n">
-        <v>566</v>
+        <v>148</v>
       </c>
       <c r="E15" t="n">
-        <v>651</v>
+        <v>180</v>
       </c>
       <c r="F15" t="n">
-        <v>722</v>
+        <v>216</v>
       </c>
       <c r="G15" t="n">
-        <v>828</v>
+        <v>274</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -972,27 +971,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>758</v>
+        <v>210.6</v>
       </c>
       <c r="D16" t="n">
-        <v>564</v>
+        <v>149</v>
       </c>
       <c r="E16" t="n">
-        <v>653</v>
+        <v>181</v>
       </c>
       <c r="F16" t="n">
-        <v>729</v>
+        <v>219</v>
       </c>
       <c r="G16" t="n">
-        <v>844</v>
+        <v>279</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1007,27 +1006,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>754.5</v>
+        <v>193.6</v>
       </c>
       <c r="D17" t="n">
-        <v>565</v>
+        <v>152</v>
       </c>
       <c r="E17" t="n">
-        <v>651</v>
+        <v>185</v>
       </c>
       <c r="F17" t="n">
-        <v>725</v>
+        <v>224</v>
       </c>
       <c r="G17" t="n">
-        <v>835</v>
+        <v>285</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -1040,1258 +1039,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>15</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>18</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>17</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" t="n">
-        <v>17</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" t="n">
-        <v>18</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" t="n">
-        <v>18</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G14" t="n">
-        <v>18</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>12</v>
-      </c>
-      <c r="G15" t="n">
-        <v>18</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12</v>
-      </c>
-      <c r="G16" t="n">
-        <v>19</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BH9BBLHB</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G17" t="n">
-        <v>18</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z790 AERO G</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>151</v>
-      </c>
-      <c r="D2" t="n">
-        <v>119</v>
-      </c>
-      <c r="E2" t="n">
-        <v>139</v>
-      </c>
-      <c r="F2" t="n">
-        <v>158</v>
-      </c>
-      <c r="G2" t="n">
-        <v>186</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>118</v>
-      </c>
-      <c r="E3" t="n">
-        <v>141</v>
-      </c>
-      <c r="F3" t="n">
-        <v>166</v>
-      </c>
-      <c r="G3" t="n">
-        <v>204</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>115</v>
-      </c>
-      <c r="E4" t="n">
-        <v>138</v>
-      </c>
-      <c r="F4" t="n">
-        <v>162</v>
-      </c>
-      <c r="G4" t="n">
-        <v>199</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95</v>
-      </c>
-      <c r="E5" t="n">
-        <v>113</v>
-      </c>
-      <c r="F5" t="n">
-        <v>131</v>
-      </c>
-      <c r="G5" t="n">
-        <v>159</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>119</v>
-      </c>
-      <c r="D6" t="n">
-        <v>94</v>
-      </c>
-      <c r="E6" t="n">
-        <v>112</v>
-      </c>
-      <c r="F6" t="n">
-        <v>131</v>
-      </c>
-      <c r="G6" t="n">
-        <v>161</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>96</v>
-      </c>
-      <c r="E7" t="n">
-        <v>114</v>
-      </c>
-      <c r="F7" t="n">
-        <v>133</v>
-      </c>
-      <c r="G7" t="n">
-        <v>162</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>111</v>
-      </c>
-      <c r="D8" t="n">
-        <v>98</v>
-      </c>
-      <c r="E8" t="n">
-        <v>117</v>
-      </c>
-      <c r="F8" t="n">
-        <v>137</v>
-      </c>
-      <c r="G8" t="n">
-        <v>169</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>92</v>
-      </c>
-      <c r="D9" t="n">
-        <v>97</v>
-      </c>
-      <c r="E9" t="n">
-        <v>117</v>
-      </c>
-      <c r="F9" t="n">
-        <v>137</v>
-      </c>
-      <c r="G9" t="n">
-        <v>169</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>104</v>
-      </c>
-      <c r="D10" t="n">
-        <v>96</v>
-      </c>
-      <c r="E10" t="n">
-        <v>116</v>
-      </c>
-      <c r="F10" t="n">
-        <v>136</v>
-      </c>
-      <c r="G10" t="n">
-        <v>167</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>95</v>
-      </c>
-      <c r="E11" t="n">
-        <v>114</v>
-      </c>
-      <c r="F11" t="n">
-        <v>134</v>
-      </c>
-      <c r="G11" t="n">
-        <v>165</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>99</v>
-      </c>
-      <c r="E12" t="n">
-        <v>119</v>
-      </c>
-      <c r="F12" t="n">
-        <v>140</v>
-      </c>
-      <c r="G12" t="n">
-        <v>173</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>98</v>
-      </c>
-      <c r="E13" t="n">
-        <v>119</v>
-      </c>
-      <c r="F13" t="n">
-        <v>140</v>
-      </c>
-      <c r="G13" t="n">
-        <v>175</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>132</v>
-      </c>
-      <c r="D14" t="n">
-        <v>98</v>
-      </c>
-      <c r="E14" t="n">
-        <v>118</v>
-      </c>
-      <c r="F14" t="n">
-        <v>139</v>
-      </c>
-      <c r="G14" t="n">
-        <v>172</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>99</v>
-      </c>
-      <c r="E15" t="n">
-        <v>120</v>
-      </c>
-      <c r="F15" t="n">
-        <v>142</v>
-      </c>
-      <c r="G15" t="n">
-        <v>178</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>138</v>
-      </c>
-      <c r="D16" t="n">
-        <v>97</v>
-      </c>
-      <c r="E16" t="n">
-        <v>117</v>
-      </c>
-      <c r="F16" t="n">
-        <v>140</v>
-      </c>
-      <c r="G16" t="n">
-        <v>176</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BTQ3SVFR</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>99</v>
-      </c>
-      <c r="E17" t="n">
-        <v>120</v>
-      </c>
-      <c r="F17" t="n">
-        <v>143</v>
-      </c>
-      <c r="G17" t="n">
-        <v>180</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B550 UD AC</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2844,4 +1591,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>4th Week Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>8th Week Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>16th Week Forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>201.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>193.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B08KGVH7YC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BH9DXY38" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-8-16 Weeks Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-16 Weeks Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,33 +479,29 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B2" t="n">
+        <v/>
       </c>
       <c r="C2" t="n">
-        <v>211.7</v>
+        <v>45.2</v>
       </c>
       <c r="D2" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v/>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -514,33 +510,29 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B3" t="n">
+        <v/>
       </c>
       <c r="C3" t="n">
-        <v>227.5</v>
+        <v>45.2</v>
       </c>
       <c r="D3" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>239</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -549,33 +541,29 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B4" t="n">
+        <v/>
       </c>
       <c r="C4" t="n">
-        <v>236.8</v>
+        <v>45.2</v>
       </c>
       <c r="D4" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>297</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -584,33 +572,29 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B5" t="n">
+        <v/>
       </c>
       <c r="C5" t="n">
-        <v>201.3</v>
+        <v>45.2</v>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>204</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -619,33 +603,29 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B6" t="n">
+        <v/>
       </c>
       <c r="C6" t="n">
-        <v>147.6</v>
+        <v>45.2</v>
       </c>
       <c r="D6" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>213</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -654,33 +634,29 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B7" t="n">
+        <v/>
       </c>
       <c r="C7" t="n">
-        <v>116.1</v>
+        <v>45.2</v>
       </c>
       <c r="D7" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>220</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -689,33 +665,29 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B8" t="n">
+        <v/>
       </c>
       <c r="C8" t="n">
-        <v>135.1</v>
+        <v>45.2</v>
       </c>
       <c r="D8" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>215</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -724,33 +696,29 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B9" t="n">
+        <v/>
       </c>
       <c r="C9" t="n">
-        <v>183.6</v>
+        <v>45.2</v>
       </c>
       <c r="D9" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>213</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -759,33 +727,29 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B10" t="n">
+        <v/>
       </c>
       <c r="C10" t="n">
-        <v>216.6</v>
+        <v>45.2</v>
       </c>
       <c r="D10" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>224</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -794,33 +758,29 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B11" t="n">
+        <v/>
       </c>
       <c r="C11" t="n">
-        <v>214.6</v>
+        <v>45.2</v>
       </c>
       <c r="D11" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>272</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -829,33 +789,29 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B12" t="n">
+        <v/>
       </c>
       <c r="C12" t="n">
-        <v>195.6</v>
+        <v>45.2</v>
       </c>
       <c r="D12" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>277</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -864,33 +820,29 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B13" t="n">
+        <v/>
       </c>
       <c r="C13" t="n">
-        <v>190.1</v>
+        <v>45.2</v>
       </c>
       <c r="D13" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>275</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -899,33 +851,29 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B14" t="n">
+        <v/>
       </c>
       <c r="C14" t="n">
-        <v>203.1</v>
+        <v>45.2</v>
       </c>
       <c r="D14" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>273</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -934,33 +882,29 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B15" t="n">
+        <v/>
       </c>
       <c r="C15" t="n">
-        <v>215.6</v>
+        <v>45.2</v>
       </c>
       <c r="D15" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>274</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -969,33 +913,29 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B16" t="n">
+        <v/>
       </c>
       <c r="C16" t="n">
-        <v>210.6</v>
+        <v>45.2</v>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>279</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1004,33 +944,29 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B08KGVH7YC</t>
-        </is>
+      <c r="B17" t="n">
+        <v/>
       </c>
       <c r="C17" t="n">
-        <v>193.6</v>
+        <v>45.2</v>
       </c>
       <c r="D17" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>285</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1620,39 +1556,35 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>4th Week Forecast</t>
+          <t>4 Week Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>8th Week Forecast</t>
+          <t>8 Week Forecast</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>16th Week Forecast</t>
+          <t>16 Week Forecast</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08KGVH7YC</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B550 AORUS ELITE AX V2</t>
-        </is>
-      </c>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>201.3</v>
+        <v>45.2</v>
       </c>
       <c r="D2" t="n">
-        <v>183.6</v>
+        <v>45.2</v>
       </c>
       <c r="E2" t="n">
-        <v>193.6</v>
+        <v>45.2</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -479,26 +479,30 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>45.2</v>
+        <v>245.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v/>
+        <v>659</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -510,26 +514,30 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>45.2</v>
+        <v>184.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v/>
+        <v>392</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -541,26 +549,30 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>45.2</v>
+        <v>185.1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v/>
+        <v>492</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -572,26 +584,30 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>45.2</v>
+        <v>153.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v/>
+        <v>359</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -603,26 +619,30 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>45.2</v>
+        <v>141.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v/>
+        <v>327</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -634,26 +654,30 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>45.2</v>
+        <v>137.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+        <v>344</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -665,26 +689,30 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>45.2</v>
+        <v>133.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v/>
+        <v>304</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I8" t="n">
         <v/>
@@ -696,26 +724,30 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>45.2</v>
+        <v>134.9</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v/>
+        <v>302</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v/>
@@ -727,26 +759,30 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>45.2</v>
+        <v>134.7</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+        <v>319</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -758,26 +794,30 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>45.2</v>
+        <v>149.2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+        <v>406</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v/>
@@ -789,26 +829,30 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>45.2</v>
+        <v>154.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+        <v>409</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v/>
@@ -820,26 +864,30 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>45.2</v>
+        <v>148.9</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+        <v>413</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -851,26 +899,30 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>45.2</v>
+        <v>150</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v/>
+        <v>412</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I14" t="n">
         <v/>
@@ -882,26 +934,30 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>45.2</v>
+        <v>147.8</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v/>
+        <v>403</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -913,26 +969,30 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>45.2</v>
+        <v>141.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v/>
+        <v>421</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -944,26 +1004,30 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>45.2</v>
+        <v>145.2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v/>
+        <v>437</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1576,15 +1640,19 @@
           <t>B0BH9DXY38</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>45.2</v>
+        <v>153.4</v>
       </c>
       <c r="D2" t="n">
-        <v>45.2</v>
+        <v>134.9</v>
       </c>
       <c r="E2" t="n">
-        <v>45.2</v>
+        <v>145.2</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BH9DXY38" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-16 Weeks Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BF7FT26Z" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BH7GTY9C" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-16 Weeks Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,7 +487,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>245.3</v>
+        <v>244.3</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -520,7 +522,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>184.4</v>
+        <v>187.9</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -555,7 +557,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>185.1</v>
+        <v>186.6</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -590,7 +592,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153.4</v>
+        <v>154.4</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -625,7 +627,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>141.4</v>
+        <v>140.4</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -660,7 +662,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>137.4</v>
+        <v>134.4</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -695,7 +697,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>133.5</v>
+        <v>133</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -730,7 +732,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>134.9</v>
+        <v>133.9</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -800,7 +802,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>149.2</v>
+        <v>147.2</v>
       </c>
       <c r="D11" t="n">
         <v>215</v>
@@ -835,7 +837,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>154.5</v>
+        <v>154</v>
       </c>
       <c r="D12" t="n">
         <v>231</v>
@@ -870,7 +872,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>148.9</v>
+        <v>151.9</v>
       </c>
       <c r="D13" t="n">
         <v>219</v>
@@ -905,7 +907,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>150</v>
+        <v>151.5</v>
       </c>
       <c r="D14" t="n">
         <v>221</v>
@@ -940,7 +942,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>147.8</v>
+        <v>145.8</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
@@ -975,7 +977,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>141.2</v>
+        <v>144.2</v>
       </c>
       <c r="D16" t="n">
         <v>215</v>
@@ -1010,7 +1012,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>145.2</v>
+        <v>146.7</v>
       </c>
       <c r="D17" t="n">
         <v>225</v>
@@ -1039,6 +1041,1258 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Prophet Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>231.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>187</v>
+      </c>
+      <c r="E2" t="n">
+        <v>226</v>
+      </c>
+      <c r="F2" t="n">
+        <v>270</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>110</v>
+      </c>
+      <c r="E3" t="n">
+        <v>134</v>
+      </c>
+      <c r="F3" t="n">
+        <v>160</v>
+      </c>
+      <c r="G3" t="n">
+        <v>202</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>142</v>
+      </c>
+      <c r="E4" t="n">
+        <v>172</v>
+      </c>
+      <c r="F4" t="n">
+        <v>209</v>
+      </c>
+      <c r="G4" t="n">
+        <v>267</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>101</v>
+      </c>
+      <c r="E5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F5" t="n">
+        <v>147</v>
+      </c>
+      <c r="G5" t="n">
+        <v>187</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>114</v>
+      </c>
+      <c r="F6" t="n">
+        <v>139</v>
+      </c>
+      <c r="G6" t="n">
+        <v>178</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>98</v>
+      </c>
+      <c r="E7" t="n">
+        <v>120</v>
+      </c>
+      <c r="F7" t="n">
+        <v>147</v>
+      </c>
+      <c r="G7" t="n">
+        <v>190</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95</v>
+      </c>
+      <c r="E8" t="n">
+        <v>115</v>
+      </c>
+      <c r="F8" t="n">
+        <v>138</v>
+      </c>
+      <c r="G8" t="n">
+        <v>174</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>94</v>
+      </c>
+      <c r="E9" t="n">
+        <v>114</v>
+      </c>
+      <c r="F9" t="n">
+        <v>139</v>
+      </c>
+      <c r="G9" t="n">
+        <v>177</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>98</v>
+      </c>
+      <c r="E10" t="n">
+        <v>119</v>
+      </c>
+      <c r="F10" t="n">
+        <v>145</v>
+      </c>
+      <c r="G10" t="n">
+        <v>187</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>127</v>
+      </c>
+      <c r="E11" t="n">
+        <v>155</v>
+      </c>
+      <c r="F11" t="n">
+        <v>188</v>
+      </c>
+      <c r="G11" t="n">
+        <v>241</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>130</v>
+      </c>
+      <c r="E12" t="n">
+        <v>158</v>
+      </c>
+      <c r="F12" t="n">
+        <v>191</v>
+      </c>
+      <c r="G12" t="n">
+        <v>244</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>130</v>
+      </c>
+      <c r="E13" t="n">
+        <v>159</v>
+      </c>
+      <c r="F13" t="n">
+        <v>194</v>
+      </c>
+      <c r="G13" t="n">
+        <v>250</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>156</v>
+      </c>
+      <c r="F14" t="n">
+        <v>188</v>
+      </c>
+      <c r="G14" t="n">
+        <v>240</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>134</v>
+      </c>
+      <c r="D15" t="n">
+        <v>123</v>
+      </c>
+      <c r="E15" t="n">
+        <v>149</v>
+      </c>
+      <c r="F15" t="n">
+        <v>181</v>
+      </c>
+      <c r="G15" t="n">
+        <v>233</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>156</v>
+      </c>
+      <c r="F16" t="n">
+        <v>190</v>
+      </c>
+      <c r="G16" t="n">
+        <v>245</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>149</v>
+      </c>
+      <c r="D17" t="n">
+        <v>127</v>
+      </c>
+      <c r="E17" t="n">
+        <v>155</v>
+      </c>
+      <c r="F17" t="n">
+        <v>188</v>
+      </c>
+      <c r="G17" t="n">
+        <v>242</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Prophet Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1055.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>741</v>
+      </c>
+      <c r="E2" t="n">
+        <v>901</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1091</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1394</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>506</v>
+      </c>
+      <c r="E3" t="n">
+        <v>609</v>
+      </c>
+      <c r="F3" t="n">
+        <v>720</v>
+      </c>
+      <c r="G3" t="n">
+        <v>894</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D4" t="n">
+        <v>601</v>
+      </c>
+      <c r="E4" t="n">
+        <v>727</v>
+      </c>
+      <c r="F4" t="n">
+        <v>868</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>942.9000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>444</v>
+      </c>
+      <c r="E5" t="n">
+        <v>536</v>
+      </c>
+      <c r="F5" t="n">
+        <v>635</v>
+      </c>
+      <c r="G5" t="n">
+        <v>792</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>824.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>423</v>
+      </c>
+      <c r="E6" t="n">
+        <v>514</v>
+      </c>
+      <c r="F6" t="n">
+        <v>621</v>
+      </c>
+      <c r="G6" t="n">
+        <v>791</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>744.8000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>427</v>
+      </c>
+      <c r="E7" t="n">
+        <v>519</v>
+      </c>
+      <c r="F7" t="n">
+        <v>626</v>
+      </c>
+      <c r="G7" t="n">
+        <v>795</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>706.8000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>402</v>
+      </c>
+      <c r="E8" t="n">
+        <v>486</v>
+      </c>
+      <c r="F8" t="n">
+        <v>579</v>
+      </c>
+      <c r="G8" t="n">
+        <v>726</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>707.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>406</v>
+      </c>
+      <c r="E9" t="n">
+        <v>492</v>
+      </c>
+      <c r="F9" t="n">
+        <v>590</v>
+      </c>
+      <c r="G9" t="n">
+        <v>744</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>720.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>403</v>
+      </c>
+      <c r="E10" t="n">
+        <v>490</v>
+      </c>
+      <c r="F10" t="n">
+        <v>590</v>
+      </c>
+      <c r="G10" t="n">
+        <v>751</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>783.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>510</v>
+      </c>
+      <c r="E11" t="n">
+        <v>615</v>
+      </c>
+      <c r="F11" t="n">
+        <v>730</v>
+      </c>
+      <c r="G11" t="n">
+        <v>911</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>809.4000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>469</v>
+      </c>
+      <c r="E12" t="n">
+        <v>566</v>
+      </c>
+      <c r="F12" t="n">
+        <v>669</v>
+      </c>
+      <c r="G12" t="n">
+        <v>832</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>430</v>
+      </c>
+      <c r="E13" t="n">
+        <v>521</v>
+      </c>
+      <c r="F13" t="n">
+        <v>625</v>
+      </c>
+      <c r="G13" t="n">
+        <v>790</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>754.8000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>442</v>
+      </c>
+      <c r="E14" t="n">
+        <v>533</v>
+      </c>
+      <c r="F14" t="n">
+        <v>634</v>
+      </c>
+      <c r="G14" t="n">
+        <v>793</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>431</v>
+      </c>
+      <c r="E15" t="n">
+        <v>520</v>
+      </c>
+      <c r="F15" t="n">
+        <v>619</v>
+      </c>
+      <c r="G15" t="n">
+        <v>775</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>527.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>431</v>
+      </c>
+      <c r="E16" t="n">
+        <v>524</v>
+      </c>
+      <c r="F16" t="n">
+        <v>631</v>
+      </c>
+      <c r="G16" t="n">
+        <v>802</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>470.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>430</v>
+      </c>
+      <c r="E17" t="n">
+        <v>522</v>
+      </c>
+      <c r="F17" t="n">
+        <v>632</v>
+      </c>
+      <c r="G17" t="n">
+        <v>808</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1593,13 +2847,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1646,13 +2900,55 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>153.4</v>
+        <v>154.4</v>
       </c>
       <c r="D2" t="n">
-        <v>134.9</v>
+        <v>133.9</v>
       </c>
       <c r="E2" t="n">
-        <v>145.2</v>
+        <v>146.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>942.9000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>707.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>470.7</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -7,11 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BH9DXY38" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BF7FT26Z" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BH7GTY9C" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-16 Weeks Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B091HTG6DQ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-16 Weeks Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,27 +481,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>244.3</v>
+        <v>1054.9</v>
       </c>
       <c r="D2" t="n">
-        <v>347</v>
+        <v>1082</v>
       </c>
       <c r="E2" t="n">
-        <v>423</v>
+        <v>1221</v>
       </c>
       <c r="F2" t="n">
-        <v>514</v>
+        <v>1331</v>
       </c>
       <c r="G2" t="n">
-        <v>659</v>
+        <v>1494</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -518,27 +516,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187.9</v>
+        <v>926.5</v>
       </c>
       <c r="D3" t="n">
-        <v>219</v>
+        <v>887</v>
       </c>
       <c r="E3" t="n">
-        <v>264</v>
+        <v>991</v>
       </c>
       <c r="F3" t="n">
-        <v>314</v>
+        <v>1071</v>
       </c>
       <c r="G3" t="n">
-        <v>392</v>
+        <v>1189</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -553,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>186.6</v>
+        <v>870.9000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>273</v>
+        <v>894</v>
       </c>
       <c r="E4" t="n">
-        <v>330</v>
+        <v>1030</v>
       </c>
       <c r="F4" t="n">
-        <v>393</v>
+        <v>1145</v>
       </c>
       <c r="G4" t="n">
-        <v>492</v>
+        <v>1317</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -588,27 +586,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154.4</v>
+        <v>790.8</v>
       </c>
       <c r="D5" t="n">
-        <v>199</v>
+        <v>648</v>
       </c>
       <c r="E5" t="n">
-        <v>240</v>
+        <v>738</v>
       </c>
       <c r="F5" t="n">
-        <v>286</v>
+        <v>812</v>
       </c>
       <c r="G5" t="n">
-        <v>359</v>
+        <v>923</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -623,27 +621,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>140.4</v>
+        <v>772.5</v>
       </c>
       <c r="D6" t="n">
-        <v>174</v>
+        <v>629</v>
       </c>
       <c r="E6" t="n">
-        <v>211</v>
+        <v>714</v>
       </c>
       <c r="F6" t="n">
-        <v>256</v>
+        <v>783</v>
       </c>
       <c r="G6" t="n">
-        <v>327</v>
+        <v>886</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -658,27 +656,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>134.4</v>
+        <v>775.8</v>
       </c>
       <c r="D7" t="n">
-        <v>179</v>
+        <v>643</v>
       </c>
       <c r="E7" t="n">
-        <v>219</v>
+        <v>735</v>
       </c>
       <c r="F7" t="n">
-        <v>267</v>
+        <v>811</v>
       </c>
       <c r="G7" t="n">
-        <v>344</v>
+        <v>924</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -693,27 +691,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>133</v>
+        <v>706.1999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>166</v>
+        <v>603</v>
       </c>
       <c r="E8" t="n">
-        <v>201</v>
+        <v>686</v>
       </c>
       <c r="F8" t="n">
-        <v>241</v>
+        <v>755</v>
       </c>
       <c r="G8" t="n">
-        <v>304</v>
+        <v>856</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -728,27 +726,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>133.9</v>
+        <v>668.9</v>
       </c>
       <c r="D9" t="n">
-        <v>164</v>
+        <v>625</v>
       </c>
       <c r="E9" t="n">
-        <v>199</v>
+        <v>712</v>
       </c>
       <c r="F9" t="n">
-        <v>239</v>
+        <v>782</v>
       </c>
       <c r="G9" t="n">
-        <v>302</v>
+        <v>887</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -763,27 +761,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>134.7</v>
+        <v>612.2</v>
       </c>
       <c r="D10" t="n">
-        <v>170</v>
+        <v>588</v>
       </c>
       <c r="E10" t="n">
-        <v>206</v>
+        <v>674</v>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>745</v>
       </c>
       <c r="G10" t="n">
-        <v>319</v>
+        <v>852</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -798,27 +796,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>147.2</v>
+        <v>633.6999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>215</v>
+        <v>591</v>
       </c>
       <c r="E11" t="n">
-        <v>262</v>
+        <v>670</v>
       </c>
       <c r="F11" t="n">
-        <v>318</v>
+        <v>734</v>
       </c>
       <c r="G11" t="n">
-        <v>406</v>
+        <v>830</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -833,27 +831,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>154</v>
+        <v>656.6</v>
       </c>
       <c r="D12" t="n">
-        <v>231</v>
+        <v>591</v>
       </c>
       <c r="E12" t="n">
-        <v>278</v>
+        <v>672</v>
       </c>
       <c r="F12" t="n">
-        <v>329</v>
+        <v>738</v>
       </c>
       <c r="G12" t="n">
-        <v>409</v>
+        <v>836</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -868,27 +866,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>151.9</v>
+        <v>701.3</v>
       </c>
       <c r="D13" t="n">
-        <v>219</v>
+        <v>583</v>
       </c>
       <c r="E13" t="n">
-        <v>267</v>
+        <v>670</v>
       </c>
       <c r="F13" t="n">
-        <v>323</v>
+        <v>742</v>
       </c>
       <c r="G13" t="n">
-        <v>413</v>
+        <v>851</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -903,27 +901,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>151.5</v>
+        <v>700.4</v>
       </c>
       <c r="D14" t="n">
-        <v>221</v>
+        <v>577</v>
       </c>
       <c r="E14" t="n">
-        <v>269</v>
+        <v>661</v>
       </c>
       <c r="F14" t="n">
-        <v>324</v>
+        <v>732</v>
       </c>
       <c r="G14" t="n">
-        <v>412</v>
+        <v>837</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -938,27 +936,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>145.8</v>
+        <v>702.6999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>217</v>
+        <v>566</v>
       </c>
       <c r="E15" t="n">
-        <v>263</v>
+        <v>651</v>
       </c>
       <c r="F15" t="n">
-        <v>317</v>
+        <v>722</v>
       </c>
       <c r="G15" t="n">
-        <v>403</v>
+        <v>828</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -973,27 +971,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>144.2</v>
+        <v>674</v>
       </c>
       <c r="D16" t="n">
-        <v>215</v>
+        <v>564</v>
       </c>
       <c r="E16" t="n">
-        <v>263</v>
+        <v>653</v>
       </c>
       <c r="F16" t="n">
-        <v>323</v>
+        <v>729</v>
       </c>
       <c r="G16" t="n">
-        <v>421</v>
+        <v>844</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1008,27 +1006,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>146.7</v>
+        <v>677.4</v>
       </c>
       <c r="D17" t="n">
-        <v>225</v>
+        <v>565</v>
       </c>
       <c r="E17" t="n">
-        <v>274</v>
+        <v>651</v>
       </c>
       <c r="F17" t="n">
-        <v>337</v>
+        <v>725</v>
       </c>
       <c r="G17" t="n">
-        <v>437</v>
+        <v>835</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1041,1258 +1039,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>187</v>
-      </c>
-      <c r="E2" t="n">
-        <v>226</v>
-      </c>
-      <c r="F2" t="n">
-        <v>270</v>
-      </c>
-      <c r="G2" t="n">
-        <v>340</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>110</v>
-      </c>
-      <c r="E3" t="n">
-        <v>134</v>
-      </c>
-      <c r="F3" t="n">
-        <v>160</v>
-      </c>
-      <c r="G3" t="n">
-        <v>202</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>142</v>
-      </c>
-      <c r="E4" t="n">
-        <v>172</v>
-      </c>
-      <c r="F4" t="n">
-        <v>209</v>
-      </c>
-      <c r="G4" t="n">
-        <v>267</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>165.1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>101</v>
-      </c>
-      <c r="E5" t="n">
-        <v>122</v>
-      </c>
-      <c r="F5" t="n">
-        <v>147</v>
-      </c>
-      <c r="G5" t="n">
-        <v>187</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>94</v>
-      </c>
-      <c r="E6" t="n">
-        <v>114</v>
-      </c>
-      <c r="F6" t="n">
-        <v>139</v>
-      </c>
-      <c r="G6" t="n">
-        <v>178</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>98</v>
-      </c>
-      <c r="E7" t="n">
-        <v>120</v>
-      </c>
-      <c r="F7" t="n">
-        <v>147</v>
-      </c>
-      <c r="G7" t="n">
-        <v>190</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>95</v>
-      </c>
-      <c r="E8" t="n">
-        <v>115</v>
-      </c>
-      <c r="F8" t="n">
-        <v>138</v>
-      </c>
-      <c r="G8" t="n">
-        <v>174</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>94</v>
-      </c>
-      <c r="E9" t="n">
-        <v>114</v>
-      </c>
-      <c r="F9" t="n">
-        <v>139</v>
-      </c>
-      <c r="G9" t="n">
-        <v>177</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>136.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>98</v>
-      </c>
-      <c r="E10" t="n">
-        <v>119</v>
-      </c>
-      <c r="F10" t="n">
-        <v>145</v>
-      </c>
-      <c r="G10" t="n">
-        <v>187</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>127</v>
-      </c>
-      <c r="E11" t="n">
-        <v>155</v>
-      </c>
-      <c r="F11" t="n">
-        <v>188</v>
-      </c>
-      <c r="G11" t="n">
-        <v>241</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>130</v>
-      </c>
-      <c r="E12" t="n">
-        <v>158</v>
-      </c>
-      <c r="F12" t="n">
-        <v>191</v>
-      </c>
-      <c r="G12" t="n">
-        <v>244</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>130</v>
-      </c>
-      <c r="E13" t="n">
-        <v>159</v>
-      </c>
-      <c r="F13" t="n">
-        <v>194</v>
-      </c>
-      <c r="G13" t="n">
-        <v>250</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>128</v>
-      </c>
-      <c r="E14" t="n">
-        <v>156</v>
-      </c>
-      <c r="F14" t="n">
-        <v>188</v>
-      </c>
-      <c r="G14" t="n">
-        <v>240</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>134</v>
-      </c>
-      <c r="D15" t="n">
-        <v>123</v>
-      </c>
-      <c r="E15" t="n">
-        <v>149</v>
-      </c>
-      <c r="F15" t="n">
-        <v>181</v>
-      </c>
-      <c r="G15" t="n">
-        <v>233</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>128</v>
-      </c>
-      <c r="E16" t="n">
-        <v>156</v>
-      </c>
-      <c r="F16" t="n">
-        <v>190</v>
-      </c>
-      <c r="G16" t="n">
-        <v>245</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>149</v>
-      </c>
-      <c r="D17" t="n">
-        <v>127</v>
-      </c>
-      <c r="E17" t="n">
-        <v>155</v>
-      </c>
-      <c r="F17" t="n">
-        <v>188</v>
-      </c>
-      <c r="G17" t="n">
-        <v>242</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1055.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>741</v>
-      </c>
-      <c r="E2" t="n">
-        <v>901</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1091</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1394</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1050.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>506</v>
-      </c>
-      <c r="E3" t="n">
-        <v>609</v>
-      </c>
-      <c r="F3" t="n">
-        <v>720</v>
-      </c>
-      <c r="G3" t="n">
-        <v>894</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1075</v>
-      </c>
-      <c r="D4" t="n">
-        <v>601</v>
-      </c>
-      <c r="E4" t="n">
-        <v>727</v>
-      </c>
-      <c r="F4" t="n">
-        <v>868</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1090</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>942.9000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>444</v>
-      </c>
-      <c r="E5" t="n">
-        <v>536</v>
-      </c>
-      <c r="F5" t="n">
-        <v>635</v>
-      </c>
-      <c r="G5" t="n">
-        <v>792</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>824.1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>423</v>
-      </c>
-      <c r="E6" t="n">
-        <v>514</v>
-      </c>
-      <c r="F6" t="n">
-        <v>621</v>
-      </c>
-      <c r="G6" t="n">
-        <v>791</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>744.8000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>427</v>
-      </c>
-      <c r="E7" t="n">
-        <v>519</v>
-      </c>
-      <c r="F7" t="n">
-        <v>626</v>
-      </c>
-      <c r="G7" t="n">
-        <v>795</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>706.8000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>402</v>
-      </c>
-      <c r="E8" t="n">
-        <v>486</v>
-      </c>
-      <c r="F8" t="n">
-        <v>579</v>
-      </c>
-      <c r="G8" t="n">
-        <v>726</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>707.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>406</v>
-      </c>
-      <c r="E9" t="n">
-        <v>492</v>
-      </c>
-      <c r="F9" t="n">
-        <v>590</v>
-      </c>
-      <c r="G9" t="n">
-        <v>744</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>720.6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>403</v>
-      </c>
-      <c r="E10" t="n">
-        <v>490</v>
-      </c>
-      <c r="F10" t="n">
-        <v>590</v>
-      </c>
-      <c r="G10" t="n">
-        <v>751</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>783.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>510</v>
-      </c>
-      <c r="E11" t="n">
-        <v>615</v>
-      </c>
-      <c r="F11" t="n">
-        <v>730</v>
-      </c>
-      <c r="G11" t="n">
-        <v>911</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>809.4000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>469</v>
-      </c>
-      <c r="E12" t="n">
-        <v>566</v>
-      </c>
-      <c r="F12" t="n">
-        <v>669</v>
-      </c>
-      <c r="G12" t="n">
-        <v>832</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>430</v>
-      </c>
-      <c r="E13" t="n">
-        <v>521</v>
-      </c>
-      <c r="F13" t="n">
-        <v>625</v>
-      </c>
-      <c r="G13" t="n">
-        <v>790</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>754.8000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>442</v>
-      </c>
-      <c r="E14" t="n">
-        <v>533</v>
-      </c>
-      <c r="F14" t="n">
-        <v>634</v>
-      </c>
-      <c r="G14" t="n">
-        <v>793</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>638.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>431</v>
-      </c>
-      <c r="E15" t="n">
-        <v>520</v>
-      </c>
-      <c r="F15" t="n">
-        <v>619</v>
-      </c>
-      <c r="G15" t="n">
-        <v>775</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>527.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>431</v>
-      </c>
-      <c r="E16" t="n">
-        <v>524</v>
-      </c>
-      <c r="F16" t="n">
-        <v>631</v>
-      </c>
-      <c r="G16" t="n">
-        <v>802</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>470.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>430</v>
-      </c>
-      <c r="E17" t="n">
-        <v>522</v>
-      </c>
-      <c r="F17" t="n">
-        <v>632</v>
-      </c>
-      <c r="G17" t="n">
-        <v>808</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2847,13 +1593,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2891,64 +1637,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>154.4</v>
+        <v>790.8</v>
       </c>
       <c r="D2" t="n">
-        <v>133.9</v>
+        <v>668.9</v>
       </c>
       <c r="E2" t="n">
-        <v>146.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>B0BF7FT26Z</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X670 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>165.1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>942.9000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>707.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>470.7</v>
+        <v>677.4</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -7,9 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B091HTG6DQ" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-16 Weeks Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B08KGVH7YC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B08B7ZX8Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BSB6MB15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4-16 Weeks Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,30 +481,26 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B2" t="n">
+        <v/>
       </c>
       <c r="C2" t="n">
-        <v>1054.9</v>
+        <v>226.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1082</v>
+        <v>227</v>
       </c>
       <c r="E2" t="n">
-        <v>1221</v>
+        <v>275</v>
       </c>
       <c r="F2" t="n">
-        <v>1331</v>
+        <v>327</v>
       </c>
       <c r="G2" t="n">
-        <v>1494</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>410</v>
+      </c>
+      <c r="H2" t="n">
+        <v/>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -514,30 +512,26 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B3" t="n">
+        <v/>
       </c>
       <c r="C3" t="n">
-        <v>926.5</v>
+        <v>143.1</v>
       </c>
       <c r="D3" t="n">
-        <v>887</v>
+        <v>133</v>
       </c>
       <c r="E3" t="n">
-        <v>991</v>
+        <v>161</v>
       </c>
       <c r="F3" t="n">
-        <v>1071</v>
+        <v>191</v>
       </c>
       <c r="G3" t="n">
-        <v>1189</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>239</v>
+      </c>
+      <c r="H3" t="n">
+        <v/>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -549,30 +543,26 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B4" t="n">
+        <v/>
       </c>
       <c r="C4" t="n">
-        <v>870.9000000000001</v>
+        <v>166.35</v>
       </c>
       <c r="D4" t="n">
-        <v>894</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>1030</v>
+        <v>198</v>
       </c>
       <c r="F4" t="n">
-        <v>1145</v>
+        <v>236</v>
       </c>
       <c r="G4" t="n">
-        <v>1317</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>297</v>
+      </c>
+      <c r="H4" t="n">
+        <v/>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -584,30 +574,26 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B5" t="n">
+        <v/>
       </c>
       <c r="C5" t="n">
-        <v>790.8</v>
+        <v>118.65</v>
       </c>
       <c r="D5" t="n">
-        <v>648</v>
+        <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>738</v>
+        <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>812</v>
+        <v>164</v>
       </c>
       <c r="G5" t="n">
-        <v>923</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>204</v>
+      </c>
+      <c r="H5" t="n">
+        <v/>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -619,30 +605,26 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B6" t="n">
+        <v/>
       </c>
       <c r="C6" t="n">
-        <v>772.5</v>
+        <v>118.75</v>
       </c>
       <c r="D6" t="n">
-        <v>629</v>
+        <v>115</v>
       </c>
       <c r="E6" t="n">
-        <v>714</v>
+        <v>140</v>
       </c>
       <c r="F6" t="n">
-        <v>783</v>
+        <v>168</v>
       </c>
       <c r="G6" t="n">
-        <v>886</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>213</v>
+      </c>
+      <c r="H6" t="n">
+        <v/>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -654,30 +636,26 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B7" t="n">
+        <v/>
       </c>
       <c r="C7" t="n">
-        <v>775.8</v>
+        <v>122.15</v>
       </c>
       <c r="D7" t="n">
-        <v>643</v>
+        <v>119</v>
       </c>
       <c r="E7" t="n">
-        <v>735</v>
+        <v>145</v>
       </c>
       <c r="F7" t="n">
-        <v>811</v>
+        <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>924</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>220</v>
+      </c>
+      <c r="H7" t="n">
+        <v/>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -689,30 +667,26 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B8" t="n">
+        <v/>
       </c>
       <c r="C8" t="n">
-        <v>706.1999999999999</v>
+        <v>121.9</v>
       </c>
       <c r="D8" t="n">
-        <v>603</v>
+        <v>119</v>
       </c>
       <c r="E8" t="n">
-        <v>686</v>
+        <v>144</v>
       </c>
       <c r="F8" t="n">
-        <v>755</v>
+        <v>171</v>
       </c>
       <c r="G8" t="n">
-        <v>856</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>215</v>
+      </c>
+      <c r="H8" t="n">
+        <v/>
       </c>
       <c r="I8" t="n">
         <v/>
@@ -724,30 +698,26 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B9" t="n">
+        <v/>
       </c>
       <c r="C9" t="n">
-        <v>668.9</v>
+        <v>120.3</v>
       </c>
       <c r="D9" t="n">
-        <v>625</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
-        <v>712</v>
+        <v>142</v>
       </c>
       <c r="F9" t="n">
-        <v>782</v>
+        <v>169</v>
       </c>
       <c r="G9" t="n">
-        <v>887</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>213</v>
+      </c>
+      <c r="H9" t="n">
+        <v/>
       </c>
       <c r="I9" t="n">
         <v/>
@@ -759,30 +729,26 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B10" t="n">
+        <v/>
       </c>
       <c r="C10" t="n">
-        <v>612.2</v>
+        <v>123.8</v>
       </c>
       <c r="D10" t="n">
-        <v>588</v>
+        <v>121</v>
       </c>
       <c r="E10" t="n">
-        <v>674</v>
+        <v>147</v>
       </c>
       <c r="F10" t="n">
-        <v>745</v>
+        <v>177</v>
       </c>
       <c r="G10" t="n">
-        <v>852</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>224</v>
+      </c>
+      <c r="H10" t="n">
+        <v/>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -794,30 +760,26 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B11" t="n">
+        <v/>
       </c>
       <c r="C11" t="n">
-        <v>633.6999999999999</v>
+        <v>145</v>
       </c>
       <c r="D11" t="n">
-        <v>591</v>
+        <v>146</v>
       </c>
       <c r="E11" t="n">
-        <v>670</v>
+        <v>178</v>
       </c>
       <c r="F11" t="n">
-        <v>734</v>
+        <v>214</v>
       </c>
       <c r="G11" t="n">
-        <v>830</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>272</v>
+      </c>
+      <c r="H11" t="n">
+        <v/>
       </c>
       <c r="I11" t="n">
         <v/>
@@ -829,30 +791,26 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B12" t="n">
+        <v/>
       </c>
       <c r="C12" t="n">
-        <v>656.6</v>
+        <v>149.15</v>
       </c>
       <c r="D12" t="n">
-        <v>591</v>
+        <v>151</v>
       </c>
       <c r="E12" t="n">
-        <v>672</v>
+        <v>184</v>
       </c>
       <c r="F12" t="n">
-        <v>738</v>
+        <v>220</v>
       </c>
       <c r="G12" t="n">
-        <v>836</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>277</v>
+      </c>
+      <c r="H12" t="n">
+        <v/>
       </c>
       <c r="I12" t="n">
         <v/>
@@ -864,30 +822,26 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B13" t="n">
+        <v/>
       </c>
       <c r="C13" t="n">
-        <v>701.3</v>
+        <v>147.3</v>
       </c>
       <c r="D13" t="n">
-        <v>583</v>
+        <v>149</v>
       </c>
       <c r="E13" t="n">
-        <v>670</v>
+        <v>180</v>
       </c>
       <c r="F13" t="n">
-        <v>742</v>
+        <v>217</v>
       </c>
       <c r="G13" t="n">
-        <v>851</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>275</v>
+      </c>
+      <c r="H13" t="n">
+        <v/>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -899,30 +853,26 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B14" t="n">
+        <v/>
       </c>
       <c r="C14" t="n">
-        <v>700.4</v>
+        <v>148.05</v>
       </c>
       <c r="D14" t="n">
-        <v>577</v>
+        <v>150</v>
       </c>
       <c r="E14" t="n">
-        <v>661</v>
+        <v>181</v>
       </c>
       <c r="F14" t="n">
-        <v>732</v>
+        <v>217</v>
       </c>
       <c r="G14" t="n">
-        <v>837</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>273</v>
+      </c>
+      <c r="H14" t="n">
+        <v/>
       </c>
       <c r="I14" t="n">
         <v/>
@@ -934,30 +884,26 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B15" t="n">
+        <v/>
       </c>
       <c r="C15" t="n">
-        <v>702.6999999999999</v>
+        <v>146.6</v>
       </c>
       <c r="D15" t="n">
-        <v>566</v>
+        <v>148</v>
       </c>
       <c r="E15" t="n">
-        <v>651</v>
+        <v>180</v>
       </c>
       <c r="F15" t="n">
-        <v>722</v>
+        <v>216</v>
       </c>
       <c r="G15" t="n">
-        <v>828</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>274</v>
+      </c>
+      <c r="H15" t="n">
+        <v/>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -969,30 +915,26 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B16" t="n">
+        <v/>
       </c>
       <c r="C16" t="n">
-        <v>674</v>
+        <v>147.5</v>
       </c>
       <c r="D16" t="n">
-        <v>564</v>
+        <v>149</v>
       </c>
       <c r="E16" t="n">
-        <v>653</v>
+        <v>181</v>
       </c>
       <c r="F16" t="n">
-        <v>729</v>
+        <v>219</v>
       </c>
       <c r="G16" t="n">
-        <v>844</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>279</v>
+      </c>
+      <c r="H16" t="n">
+        <v/>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -1004,30 +946,26 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B091HTG6DQ</t>
-        </is>
+      <c r="B17" t="n">
+        <v/>
       </c>
       <c r="C17" t="n">
-        <v>677.4</v>
+        <v>150.1</v>
       </c>
       <c r="D17" t="n">
-        <v>565</v>
+        <v>152</v>
       </c>
       <c r="E17" t="n">
-        <v>651</v>
+        <v>185</v>
       </c>
       <c r="F17" t="n">
-        <v>725</v>
+        <v>224</v>
       </c>
       <c r="G17" t="n">
-        <v>835</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
+        <v>285</v>
+      </c>
+      <c r="H17" t="n">
+        <v/>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1039,6 +977,1130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Prophet Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>235</v>
+      </c>
+      <c r="E2" t="n">
+        <v>281</v>
+      </c>
+      <c r="F2" t="n">
+        <v>329</v>
+      </c>
+      <c r="G2" t="n">
+        <v>404</v>
+      </c>
+      <c r="H2" t="n">
+        <v/>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v/>
+      </c>
+      <c r="C3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165</v>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="n">
+        <v>238</v>
+      </c>
+      <c r="G3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+      <c r="C4" t="n">
+        <v>181.25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>243</v>
+      </c>
+      <c r="F4" t="n">
+        <v>291</v>
+      </c>
+      <c r="G4" t="n">
+        <v>368</v>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v/>
+      </c>
+      <c r="C5" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>149</v>
+      </c>
+      <c r="E5" t="n">
+        <v>181</v>
+      </c>
+      <c r="F5" t="n">
+        <v>216</v>
+      </c>
+      <c r="G5" t="n">
+        <v>273</v>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>190</v>
+      </c>
+      <c r="F6" t="n">
+        <v>229</v>
+      </c>
+      <c r="G6" t="n">
+        <v>292</v>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>160</v>
+      </c>
+      <c r="E7" t="n">
+        <v>194</v>
+      </c>
+      <c r="F7" t="n">
+        <v>235</v>
+      </c>
+      <c r="G7" t="n">
+        <v>299</v>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>162</v>
+      </c>
+      <c r="E8" t="n">
+        <v>198</v>
+      </c>
+      <c r="F8" t="n">
+        <v>246</v>
+      </c>
+      <c r="G8" t="n">
+        <v>324</v>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>158</v>
+      </c>
+      <c r="E9" t="n">
+        <v>192</v>
+      </c>
+      <c r="F9" t="n">
+        <v>232</v>
+      </c>
+      <c r="G9" t="n">
+        <v>296</v>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>151</v>
+      </c>
+      <c r="E10" t="n">
+        <v>184</v>
+      </c>
+      <c r="F10" t="n">
+        <v>222</v>
+      </c>
+      <c r="G10" t="n">
+        <v>284</v>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>149</v>
+      </c>
+      <c r="E11" t="n">
+        <v>182</v>
+      </c>
+      <c r="F11" t="n">
+        <v>219</v>
+      </c>
+      <c r="G11" t="n">
+        <v>279</v>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>155</v>
+      </c>
+      <c r="E12" t="n">
+        <v>188</v>
+      </c>
+      <c r="F12" t="n">
+        <v>229</v>
+      </c>
+      <c r="G12" t="n">
+        <v>294</v>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>149</v>
+      </c>
+      <c r="E13" t="n">
+        <v>182</v>
+      </c>
+      <c r="F13" t="n">
+        <v>225</v>
+      </c>
+      <c r="G13" t="n">
+        <v>294</v>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>143</v>
+      </c>
+      <c r="E14" t="n">
+        <v>174</v>
+      </c>
+      <c r="F14" t="n">
+        <v>213</v>
+      </c>
+      <c r="G14" t="n">
+        <v>276</v>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v>126.65</v>
+      </c>
+      <c r="D15" t="n">
+        <v>139</v>
+      </c>
+      <c r="E15" t="n">
+        <v>169</v>
+      </c>
+      <c r="F15" t="n">
+        <v>208</v>
+      </c>
+      <c r="G15" t="n">
+        <v>271</v>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>136</v>
+      </c>
+      <c r="E16" t="n">
+        <v>166</v>
+      </c>
+      <c r="F16" t="n">
+        <v>205</v>
+      </c>
+      <c r="G16" t="n">
+        <v>268</v>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v/>
+      </c>
+      <c r="C17" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>135</v>
+      </c>
+      <c r="E17" t="n">
+        <v>165</v>
+      </c>
+      <c r="F17" t="n">
+        <v>205</v>
+      </c>
+      <c r="G17" t="n">
+        <v>268</v>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Prophet Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="n">
+        <v>153.35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>168</v>
+      </c>
+      <c r="E2" t="n">
+        <v>201</v>
+      </c>
+      <c r="F2" t="n">
+        <v>233</v>
+      </c>
+      <c r="G2" t="n">
+        <v>284</v>
+      </c>
+      <c r="H2" t="n">
+        <v/>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v/>
+      </c>
+      <c r="C3" t="n">
+        <v>126.95</v>
+      </c>
+      <c r="D3" t="n">
+        <v>137</v>
+      </c>
+      <c r="E3" t="n">
+        <v>165</v>
+      </c>
+      <c r="F3" t="n">
+        <v>196</v>
+      </c>
+      <c r="G3" t="n">
+        <v>244</v>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+      <c r="C4" t="n">
+        <v>150.35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>161</v>
+      </c>
+      <c r="E4" t="n">
+        <v>194</v>
+      </c>
+      <c r="F4" t="n">
+        <v>230</v>
+      </c>
+      <c r="G4" t="n">
+        <v>287</v>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v/>
+      </c>
+      <c r="C5" t="n">
+        <v>111.45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117</v>
+      </c>
+      <c r="E5" t="n">
+        <v>142</v>
+      </c>
+      <c r="F5" t="n">
+        <v>168</v>
+      </c>
+      <c r="G5" t="n">
+        <v>210</v>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v>104.65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>132</v>
+      </c>
+      <c r="F6" t="n">
+        <v>156</v>
+      </c>
+      <c r="G6" t="n">
+        <v>195</v>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v>107.95</v>
+      </c>
+      <c r="D7" t="n">
+        <v>113</v>
+      </c>
+      <c r="E7" t="n">
+        <v>136</v>
+      </c>
+      <c r="F7" t="n">
+        <v>162</v>
+      </c>
+      <c r="G7" t="n">
+        <v>202</v>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v>110.75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>141</v>
+      </c>
+      <c r="F8" t="n">
+        <v>169</v>
+      </c>
+      <c r="G8" t="n">
+        <v>213</v>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>116</v>
+      </c>
+      <c r="E9" t="n">
+        <v>141</v>
+      </c>
+      <c r="F9" t="n">
+        <v>170</v>
+      </c>
+      <c r="G9" t="n">
+        <v>215</v>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>113</v>
+      </c>
+      <c r="E10" t="n">
+        <v>138</v>
+      </c>
+      <c r="F10" t="n">
+        <v>165</v>
+      </c>
+      <c r="G10" t="n">
+        <v>208</v>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v>108.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>113</v>
+      </c>
+      <c r="E11" t="n">
+        <v>137</v>
+      </c>
+      <c r="F11" t="n">
+        <v>164</v>
+      </c>
+      <c r="G11" t="n">
+        <v>206</v>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>118</v>
+      </c>
+      <c r="E12" t="n">
+        <v>143</v>
+      </c>
+      <c r="F12" t="n">
+        <v>172</v>
+      </c>
+      <c r="G12" t="n">
+        <v>219</v>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>117</v>
+      </c>
+      <c r="E13" t="n">
+        <v>142</v>
+      </c>
+      <c r="F13" t="n">
+        <v>172</v>
+      </c>
+      <c r="G13" t="n">
+        <v>218</v>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v>109.95</v>
+      </c>
+      <c r="D14" t="n">
+        <v>115</v>
+      </c>
+      <c r="E14" t="n">
+        <v>140</v>
+      </c>
+      <c r="F14" t="n">
+        <v>168</v>
+      </c>
+      <c r="G14" t="n">
+        <v>213</v>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v>110.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>115</v>
+      </c>
+      <c r="E15" t="n">
+        <v>140</v>
+      </c>
+      <c r="F15" t="n">
+        <v>170</v>
+      </c>
+      <c r="G15" t="n">
+        <v>218</v>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>115</v>
+      </c>
+      <c r="E16" t="n">
+        <v>140</v>
+      </c>
+      <c r="F16" t="n">
+        <v>171</v>
+      </c>
+      <c r="G16" t="n">
+        <v>219</v>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v/>
+      </c>
+      <c r="C17" t="n">
+        <v>110.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>115</v>
+      </c>
+      <c r="E17" t="n">
+        <v>140</v>
+      </c>
+      <c r="F17" t="n">
+        <v>170</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1080,7 +2142,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>ds</t>
         </is>
       </c>
     </row>
@@ -1593,13 +2655,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,22 +2699,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GC-WBAX210</t>
-        </is>
-      </c>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>790.8</v>
+        <v>118.65</v>
       </c>
       <c r="D2" t="n">
-        <v>668.9</v>
+        <v>120.3</v>
       </c>
       <c r="E2" t="n">
-        <v>677.4</v>
+        <v>150.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>111.45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>110.05</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -549,8 +549,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -584,8 +584,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -619,8 +619,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -654,8 +654,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -689,8 +689,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -724,8 +724,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -759,8 +759,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -794,8 +794,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -829,8 +829,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -864,8 +864,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -899,8 +899,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -934,8 +934,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -969,8 +969,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1004,8 +1004,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1039,8 +1039,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1074,8 +1074,8 @@
           <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1175,8 +1175,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1210,8 +1210,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1245,8 +1245,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1280,8 +1280,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1315,8 +1315,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1350,8 +1350,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1385,8 +1385,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1420,8 +1420,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1455,8 +1455,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1490,8 +1490,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,8 +1525,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1560,8 +1560,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1595,8 +1595,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1630,8 +1630,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1665,8 +1665,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1700,8 +1700,8 @@
           <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1801,8 +1801,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1836,8 +1836,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1871,8 +1871,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1906,8 +1906,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1941,8 +1941,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1976,8 +1976,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2011,8 +2011,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2046,8 +2046,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2081,8 +2081,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2116,8 +2116,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2151,8 +2151,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2186,8 +2186,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2221,8 +2221,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2256,8 +2256,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2291,8 +2291,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2326,8 +2326,8 @@
           <t>B650 AERO G</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>747.5</v>
+        <v>746</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -2427,8 +2427,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2462,8 +2462,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2497,8 +2497,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2532,8 +2532,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2567,8 +2567,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>559.8000000000001</v>
+        <v>556.3000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -2602,8 +2602,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>536.3000000000001</v>
+        <v>535.3000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -2637,8 +2637,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>544.5</v>
+        <v>546</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -2672,8 +2672,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2707,8 +2707,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>615.7</v>
+        <v>613.7</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -2742,8 +2742,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>556.0999999999999</v>
+        <v>605.9000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -2777,8 +2777,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2812,8 +2812,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>550.3000000000001</v>
+        <v>551.3000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -2847,8 +2847,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>491.5</v>
+        <v>491</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -2882,8 +2882,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>525.3</v>
+        <v>442</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -2917,8 +2917,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2952,8 +2952,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3053,8 +3053,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3088,8 +3088,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3123,8 +3123,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3158,8 +3158,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3193,8 +3193,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3228,8 +3228,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3263,8 +3263,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3298,8 +3298,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3333,8 +3333,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3368,8 +3368,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3403,8 +3403,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3438,8 +3438,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3473,8 +3473,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3508,8 +3508,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3543,8 +3543,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3578,8 +3578,8 @@
           <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3679,8 +3679,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3714,8 +3714,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.8</v>
+        <v>79.3</v>
       </c>
       <c r="D4" t="n">
         <v>64</v>
@@ -3749,8 +3749,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3784,8 +3784,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3819,8 +3819,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3854,8 +3854,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3889,8 +3889,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3924,8 +3924,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3959,8 +3959,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62.59999999999999</v>
+        <v>62.09999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>46</v>
@@ -3994,8 +3994,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58.5</v>
+        <v>59.5</v>
       </c>
       <c r="D12" t="n">
         <v>48</v>
@@ -4029,8 +4029,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>55.2</v>
+        <v>54.2</v>
       </c>
       <c r="D13" t="n">
         <v>47</v>
@@ -4064,8 +4064,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4099,8 +4099,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>54.8</v>
+        <v>53.8</v>
       </c>
       <c r="D15" t="n">
         <v>45</v>
@@ -4134,8 +4134,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4169,8 +4169,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4204,8 +4204,8 @@
           <t>B760M DS3H AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4305,8 +4305,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>115.7</v>
+        <v>115.2</v>
       </c>
       <c r="D3" t="n">
         <v>118</v>
@@ -4340,8 +4340,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4375,8 +4375,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4410,8 +4410,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4445,8 +4445,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4480,8 +4480,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4515,8 +4515,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4550,8 +4550,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D10" t="n">
         <v>96</v>
@@ -4585,8 +4585,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4620,8 +4620,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4655,8 +4655,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4690,8 +4690,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4725,8 +4725,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4760,8 +4760,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4795,8 +4795,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4830,8 +4830,8 @@
           <t>B550 UD AC</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4931,8 +4931,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4966,8 +4966,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5001,8 +5001,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5036,8 +5036,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5071,8 +5071,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5106,8 +5106,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5141,8 +5141,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5176,8 +5176,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5211,8 +5211,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5246,8 +5246,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5281,8 +5281,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5316,8 +5316,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5351,8 +5351,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5386,8 +5386,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5421,8 +5421,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5456,8 +5456,8 @@
           <t>B550M K</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5557,8 +5557,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5592,8 +5592,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5627,8 +5627,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5662,8 +5662,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5697,8 +5697,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5732,8 +5732,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5767,8 +5767,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.9</v>
+        <v>33.9</v>
       </c>
       <c r="D9" t="n">
         <v>34</v>
@@ -5802,8 +5802,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5837,8 +5837,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5872,8 +5872,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5907,8 +5907,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5942,8 +5942,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5958,7 +5958,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="D14" t="n">
         <v>32</v>
@@ -5977,8 +5977,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="D15" t="n">
         <v>32</v>
@@ -6012,8 +6012,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32.3</v>
+        <v>33.3</v>
       </c>
       <c r="D16" t="n">
         <v>32</v>
@@ -6047,8 +6047,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -6082,8 +6082,8 @@
           <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>86.5</v>
       </c>
       <c r="D2" t="n">
         <v>91</v>
@@ -6183,8 +6183,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73.3</v>
+        <v>75.3</v>
       </c>
       <c r="D3" t="n">
         <v>81</v>
@@ -6218,8 +6218,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71.7</v>
+        <v>73.7</v>
       </c>
       <c r="D4" t="n">
         <v>84</v>
@@ -6253,8 +6253,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76.5</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
         <v>74</v>
@@ -6288,8 +6288,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70.69999999999999</v>
+        <v>72.19999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>63</v>
@@ -6323,8 +6323,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6358,8 +6358,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6393,8 +6393,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6428,8 +6428,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6463,8 +6463,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6498,8 +6498,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6533,8 +6533,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6568,8 +6568,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6603,8 +6603,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6638,8 +6638,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6673,8 +6673,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -6708,8 +6708,8 @@
           <t>B650I AORUS ULTRA</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6809,8 +6809,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6844,8 +6844,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6879,8 +6879,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6914,8 +6914,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6949,8 +6949,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6984,8 +6984,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7019,8 +7019,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7054,8 +7054,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7089,8 +7089,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7124,8 +7124,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7159,8 +7159,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7194,8 +7194,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7229,8 +7229,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7264,8 +7264,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7299,8 +7299,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7334,8 +7334,8 @@
           <t>B650 GAMING X AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>306.1</v>
+        <v>306.6</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -7435,8 +7435,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>262.5</v>
+        <v>261</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -7470,8 +7470,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7505,8 +7505,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7540,8 +7540,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7575,8 +7575,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100.3</v>
+        <v>101.3</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -7610,8 +7610,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7626,7 +7626,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115.6</v>
+        <v>116.1</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -7645,8 +7645,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113.4</v>
+        <v>112.9</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -7680,8 +7680,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -7715,8 +7715,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>123.3</v>
+        <v>122.8</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -7750,8 +7750,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7785,8 +7785,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7820,8 +7820,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7855,8 +7855,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7890,8 +7890,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7925,8 +7925,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7960,8 +7960,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8061,8 +8061,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8077,7 +8077,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
@@ -8096,8 +8096,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -8131,8 +8131,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8166,8 +8166,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8201,8 +8201,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8236,8 +8236,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8271,8 +8271,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8306,8 +8306,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -8341,8 +8341,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -8376,8 +8376,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8411,8 +8411,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8446,8 +8446,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8481,8 +8481,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8516,8 +8516,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8551,8 +8551,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
@@ -8586,8 +8586,8 @@
           <t>B760 GAMING X AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8687,8 +8687,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8722,8 +8722,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8757,8 +8757,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8792,8 +8792,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8827,8 +8827,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8862,8 +8862,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8897,8 +8897,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8932,8 +8932,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -8967,8 +8967,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -9002,8 +9002,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -9037,8 +9037,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -9072,8 +9072,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -9107,8 +9107,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -9142,8 +9142,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -9177,8 +9177,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9212,8 +9212,8 @@
           <t>B760I AORUS PRO</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9294,7 +9294,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="D2" t="n">
         <v>160</v>
@@ -9313,8 +9313,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -9329,7 +9329,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100.3</v>
+        <v>101.3</v>
       </c>
       <c r="D3" t="n">
         <v>97</v>
@@ -9348,8 +9348,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -9364,7 +9364,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
         <v>105</v>
@@ -9383,8 +9383,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>84.3</v>
+        <v>85.3</v>
       </c>
       <c r="D5" t="n">
         <v>86</v>
@@ -9418,8 +9418,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -9453,8 +9453,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -9488,8 +9488,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -9523,8 +9523,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -9558,8 +9558,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -9593,8 +9593,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>130.1</v>
+        <v>131.1</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -9628,8 +9628,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152.1</v>
+        <v>152.6</v>
       </c>
       <c r="D12" t="n">
         <v>147</v>
@@ -9663,8 +9663,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -9698,8 +9698,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -9733,8 +9733,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -9768,8 +9768,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -9803,8 +9803,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9819,7 +9819,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>135</v>
+        <v>135.5</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -9838,8 +9838,8 @@
           <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9939,8 +9939,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -9974,8 +9974,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -10009,8 +10009,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10025,7 +10025,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -10044,8 +10044,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10079,8 +10079,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -10114,8 +10114,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -10149,8 +10149,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -10184,8 +10184,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -10219,8 +10219,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -10254,8 +10254,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -10289,8 +10289,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -10324,8 +10324,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -10359,8 +10359,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -10394,8 +10394,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -10429,8 +10429,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -10464,8 +10464,8 @@
           <t>Q670M D3H</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10565,8 +10565,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -10600,8 +10600,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -10635,8 +10635,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10670,8 +10670,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10705,8 +10705,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -10740,8 +10740,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -10775,8 +10775,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -10810,8 +10810,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -10845,8 +10845,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -10880,8 +10880,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -10915,8 +10915,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -10950,8 +10950,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -10985,8 +10985,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -11020,8 +11020,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -11055,8 +11055,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -11090,8 +11090,8 @@
           <t>A620M S2H</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11191,8 +11191,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11226,8 +11226,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -11261,8 +11261,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11296,8 +11296,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -11331,8 +11331,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -11366,8 +11366,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -11401,8 +11401,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -11436,8 +11436,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -11471,8 +11471,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -11506,8 +11506,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -11541,8 +11541,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -11576,8 +11576,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -11611,8 +11611,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -11646,8 +11646,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -11681,8 +11681,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -11716,8 +11716,8 @@
           <t>H610I</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11817,8 +11817,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11852,8 +11852,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -11887,8 +11887,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11922,8 +11922,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -11938,7 +11938,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35.8</v>
+        <v>36.3</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -11957,8 +11957,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -11992,8 +11992,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -12027,8 +12027,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -12062,8 +12062,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.8</v>
+        <v>40.25</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -12097,8 +12097,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -12132,8 +12132,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -12167,8 +12167,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -12202,8 +12202,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -12237,8 +12237,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -12272,8 +12272,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -12307,8 +12307,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -12342,8 +12342,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12443,8 +12443,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -12478,8 +12478,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -12513,8 +12513,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12548,8 +12548,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -12583,8 +12583,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -12618,8 +12618,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -12653,8 +12653,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -12688,8 +12688,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -12723,8 +12723,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -12758,8 +12758,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -12793,8 +12793,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -12828,8 +12828,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -12863,8 +12863,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -12898,8 +12898,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -12933,8 +12933,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -12968,8 +12968,8 @@
           <t>B650M D3HP</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13069,8 +13069,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -13104,8 +13104,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -13139,8 +13139,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13174,8 +13174,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -13209,8 +13209,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -13244,8 +13244,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -13279,8 +13279,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -13314,8 +13314,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -13349,8 +13349,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -13384,8 +13384,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -13419,8 +13419,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -13454,8 +13454,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -13489,8 +13489,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -13524,8 +13524,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -13559,8 +13559,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -13594,8 +13594,8 @@
           <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13695,8 +13695,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -13730,8 +13730,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -13765,8 +13765,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13800,8 +13800,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -13835,8 +13835,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -13870,8 +13870,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -13905,8 +13905,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -13940,8 +13940,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -13975,8 +13975,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -14010,8 +14010,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -14045,8 +14045,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -14080,8 +14080,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -14115,8 +14115,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -14150,8 +14150,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -14185,8 +14185,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -14220,8 +14220,8 @@
           <t>Z790 AORUS PRO X</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14321,8 +14321,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -14356,8 +14356,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -14391,8 +14391,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -14426,8 +14426,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -14461,8 +14461,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -14496,8 +14496,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -14531,8 +14531,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -14566,8 +14566,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -14601,8 +14601,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -14636,8 +14636,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -14671,8 +14671,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -14706,8 +14706,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -14741,8 +14741,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -14776,8 +14776,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -14811,8 +14811,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -14846,8 +14846,8 @@
           <t>H610I DDR4</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14947,8 +14947,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -14963,7 +14963,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70.2</v>
+        <v>84.45</v>
       </c>
       <c r="D3" t="n">
         <v>77</v>
@@ -14982,8 +14982,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -14998,7 +14998,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.5</v>
+        <v>76.5</v>
       </c>
       <c r="D4" t="n">
         <v>76</v>
@@ -15017,8 +15017,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -15052,8 +15052,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -15087,8 +15087,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -15103,7 +15103,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76.80000000000001</v>
+        <v>75.80000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>73</v>
@@ -15122,8 +15122,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -15138,7 +15138,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70.7</v>
+        <v>68.7</v>
       </c>
       <c r="D8" t="n">
         <v>75</v>
@@ -15157,8 +15157,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -15173,7 +15173,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>87.5</v>
+        <v>86</v>
       </c>
       <c r="D9" t="n">
         <v>77</v>
@@ -15192,8 +15192,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -15227,8 +15227,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -15262,8 +15262,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -15278,7 +15278,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>84.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D12" t="n">
         <v>78</v>
@@ -15297,8 +15297,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -15313,7 +15313,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>85.3</v>
+        <v>83.3</v>
       </c>
       <c r="D13" t="n">
         <v>78</v>
@@ -15332,8 +15332,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -15367,8 +15367,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -15402,8 +15402,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -15437,8 +15437,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -15472,8 +15472,8 @@
           <t>X670 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15573,8 +15573,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -15608,8 +15608,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -15643,8 +15643,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -15678,8 +15678,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -15713,8 +15713,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -15748,8 +15748,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -15783,8 +15783,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -15799,7 +15799,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>40</v>
@@ -15818,8 +15818,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -15853,8 +15853,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -15888,8 +15888,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -15923,8 +15923,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -15958,8 +15958,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -15993,8 +15993,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -16028,8 +16028,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -16063,8 +16063,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -16079,7 +16079,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.09999999999999</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>39</v>
@@ -16098,8 +16098,8 @@
           <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16199,8 +16199,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -16234,8 +16234,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -16269,8 +16269,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -16304,8 +16304,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -16339,8 +16339,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -16374,8 +16374,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -16409,8 +16409,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -16444,8 +16444,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -16479,8 +16479,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -16514,8 +16514,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -16549,8 +16549,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -16584,8 +16584,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -16619,8 +16619,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -16654,8 +16654,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -16689,8 +16689,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -16724,8 +16724,8 @@
           <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16825,8 +16825,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -16860,8 +16860,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -16895,8 +16895,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -16911,7 +16911,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>250.6</v>
+        <v>250.1</v>
       </c>
       <c r="D5" t="n">
         <v>297</v>
@@ -16930,8 +16930,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -16965,8 +16965,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -17000,8 +17000,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -17016,7 +17016,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>232.3</v>
+        <v>232.8</v>
       </c>
       <c r="D8" t="n">
         <v>281</v>
@@ -17035,8 +17035,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -17051,7 +17051,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>275.4</v>
+        <v>274.9</v>
       </c>
       <c r="D9" t="n">
         <v>288</v>
@@ -17070,8 +17070,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -17105,8 +17105,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -17140,8 +17140,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -17175,8 +17175,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -17210,8 +17210,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -17245,8 +17245,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -17280,8 +17280,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -17315,8 +17315,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -17350,8 +17350,8 @@
           <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17451,8 +17451,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -17486,8 +17486,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -17521,8 +17521,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -17556,8 +17556,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -17591,8 +17591,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -17626,8 +17626,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -17661,8 +17661,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -17696,8 +17696,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -17731,8 +17731,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -17766,8 +17766,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -17801,8 +17801,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -17836,8 +17836,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -17871,8 +17871,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -17906,8 +17906,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -17941,8 +17941,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -17976,8 +17976,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18077,8 +18077,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -18112,8 +18112,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -18147,8 +18147,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -18182,8 +18182,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -18217,8 +18217,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -18252,8 +18252,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -18287,8 +18287,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -18322,8 +18322,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -18357,8 +18357,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -18392,8 +18392,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -18427,8 +18427,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -18462,8 +18462,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -18497,8 +18497,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -18532,8 +18532,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -18567,8 +18567,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -18602,8 +18602,8 @@
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18703,8 +18703,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -18738,8 +18738,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -18773,8 +18773,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -18808,8 +18808,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -18843,8 +18843,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -18878,8 +18878,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -18913,8 +18913,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -18948,8 +18948,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -18983,8 +18983,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -19018,8 +19018,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -19053,8 +19053,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -19088,8 +19088,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -19123,8 +19123,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -19158,8 +19158,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -19193,8 +19193,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -19228,8 +19228,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19329,8 +19329,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -19364,8 +19364,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -19399,8 +19399,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -19434,8 +19434,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -19469,8 +19469,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -19504,8 +19504,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -19539,8 +19539,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -19574,8 +19574,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -19609,8 +19609,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -19625,7 +19625,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="D11" t="n">
         <v>29</v>
@@ -19644,8 +19644,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -19679,8 +19679,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -19714,8 +19714,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -19749,8 +19749,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -19784,8 +19784,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -19819,8 +19819,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -19854,8 +19854,8 @@
           <t>B650 GAMING X AX V2</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19955,8 +19955,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -19990,8 +19990,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -20025,8 +20025,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -20060,8 +20060,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -20095,8 +20095,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -20130,8 +20130,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -20165,8 +20165,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -20181,7 +20181,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42.6</v>
+        <v>42.1</v>
       </c>
       <c r="D9" t="n">
         <v>60</v>
@@ -20200,8 +20200,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -20235,8 +20235,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -20270,8 +20270,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -20305,8 +20305,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -20340,8 +20340,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -20375,8 +20375,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -20410,8 +20410,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -20445,8 +20445,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -20480,8 +20480,8 @@
           <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20581,8 +20581,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -20616,8 +20616,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -20651,8 +20651,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -20686,8 +20686,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -20721,8 +20721,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -20756,8 +20756,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -20791,8 +20791,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -20826,8 +20826,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -20861,8 +20861,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -20896,8 +20896,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -20931,8 +20931,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -20966,8 +20966,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -21001,8 +21001,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -21036,8 +21036,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -21071,8 +21071,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -21106,8 +21106,8 @@
           <t>B650M D3HP AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21207,8 +21207,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -21242,8 +21242,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -21277,8 +21277,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -21312,8 +21312,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -21347,8 +21347,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -21382,8 +21382,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -21417,8 +21417,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -21452,8 +21452,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -21487,8 +21487,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -21522,8 +21522,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -21557,8 +21557,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -21592,8 +21592,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -21627,8 +21627,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -21662,8 +21662,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -21697,8 +21697,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -21732,8 +21732,8 @@
           <t>GC-WBAX210</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21833,8 +21833,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -21868,8 +21868,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -21903,8 +21903,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -21938,8 +21938,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -21973,8 +21973,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22008,8 +22008,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -22043,8 +22043,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -22078,8 +22078,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -22113,8 +22113,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -22148,8 +22148,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -22183,8 +22183,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -22218,8 +22218,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -22253,8 +22253,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -22288,8 +22288,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -22323,8 +22323,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -22358,8 +22358,8 @@
           <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22459,8 +22459,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22494,8 +22494,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22529,8 +22529,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22564,8 +22564,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22599,8 +22599,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22634,8 +22634,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -22669,8 +22669,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -22704,8 +22704,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -22739,8 +22739,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -22774,8 +22774,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -22809,8 +22809,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -22844,8 +22844,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -22879,8 +22879,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -22914,8 +22914,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -22949,8 +22949,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -22984,8 +22984,8 @@
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23085,8 +23085,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23120,8 +23120,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -23155,8 +23155,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23190,8 +23190,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23225,8 +23225,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23260,8 +23260,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23295,8 +23295,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23330,8 +23330,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23365,8 +23365,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23400,8 +23400,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23435,8 +23435,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23470,8 +23470,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23505,8 +23505,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23540,8 +23540,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23575,8 +23575,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23610,8 +23610,8 @@
           <t>GC-WIFI7</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23711,8 +23711,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23746,8 +23746,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -23781,8 +23781,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23816,8 +23816,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23851,8 +23851,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23886,8 +23886,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23921,8 +23921,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23956,8 +23956,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23991,8 +23991,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -24026,8 +24026,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -24061,8 +24061,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -24096,8 +24096,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -24131,8 +24131,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24166,8 +24166,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -24201,8 +24201,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24217,7 +24217,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D17" t="n">
         <v>28</v>
@@ -24236,8 +24236,8 @@
           <t>TRX50 AERO D</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24337,8 +24337,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -24372,8 +24372,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -24407,8 +24407,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -24442,8 +24442,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -24477,8 +24477,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -24512,8 +24512,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -24547,8 +24547,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -24582,8 +24582,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -24617,8 +24617,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -24652,8 +24652,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -24687,8 +24687,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -24722,8 +24722,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -24757,8 +24757,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24792,8 +24792,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -24827,8 +24827,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24862,8 +24862,8 @@
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24963,8 +24963,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -24998,8 +24998,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -25033,8 +25033,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -25068,8 +25068,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -25103,8 +25103,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -25138,8 +25138,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -25173,8 +25173,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -25208,8 +25208,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -25243,8 +25243,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -25278,8 +25278,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -25313,8 +25313,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -25348,8 +25348,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -25383,8 +25383,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -25418,8 +25418,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -25453,8 +25453,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -25488,8 +25488,8 @@
           <t>Z790 Eagle AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>218.3</v>
       </c>
       <c r="D3" t="n">
-        <v>113.4</v>
+        <v>112.9</v>
       </c>
       <c r="E3" t="n">
         <v>92.90000000000001</v>
@@ -26818,7 +26818,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="E6" t="n">
         <v>9.35</v>
@@ -26836,13 +26836,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>112.8</v>
+        <v>113.3</v>
       </c>
       <c r="D7" t="n">
-        <v>115.4</v>
+        <v>117.4</v>
       </c>
       <c r="E7" t="n">
-        <v>94.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -26965,7 +26965,7 @@
         <v>535.15</v>
       </c>
       <c r="D13" t="n">
-        <v>544.5</v>
+        <v>546</v>
       </c>
       <c r="E13" t="n">
         <v>524.5</v>
@@ -27070,7 +27070,7 @@
         <v>34.2</v>
       </c>
       <c r="D18" t="n">
-        <v>32.9</v>
+        <v>33.9</v>
       </c>
       <c r="E18" t="n">
         <v>31.7</v>
@@ -27088,7 +27088,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>76.5</v>
+        <v>78</v>
       </c>
       <c r="D19" t="n">
         <v>62.95</v>
@@ -27136,7 +27136,7 @@
         <v>14.5</v>
       </c>
       <c r="E21" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="22">
@@ -27172,13 +27172,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>84.3</v>
+        <v>85.3</v>
       </c>
       <c r="D23" t="n">
         <v>85.69999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>135</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="24">
@@ -27193,7 +27193,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -27343,7 +27343,7 @@
         <v>74.3</v>
       </c>
       <c r="D31" t="n">
-        <v>87.5</v>
+        <v>86</v>
       </c>
       <c r="E31" t="n">
         <v>79.84999999999999</v>
@@ -27364,10 +27364,10 @@
         <v>52.49999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
-        <v>40.09999999999999</v>
+        <v>40.59999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -27403,10 +27403,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>250.6</v>
+        <v>250.1</v>
       </c>
       <c r="D34" t="n">
-        <v>275.4</v>
+        <v>274.9</v>
       </c>
       <c r="E34" t="n">
         <v>257.2</v>
@@ -27511,7 +27511,7 @@
         <v>50.05</v>
       </c>
       <c r="D39" t="n">
-        <v>42.6</v>
+        <v>42.1</v>
       </c>
       <c r="E39" t="n">
         <v>51.9</v>
@@ -27619,7 +27619,7 @@
         <v>22.7</v>
       </c>
       <c r="E44" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="45">
@@ -27763,7 +27763,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
@@ -27782,8 +27782,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27817,8 +27817,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27852,8 +27852,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27887,8 +27887,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27922,8 +27922,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27957,8 +27957,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27973,7 +27973,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -27992,8 +27992,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -28027,8 +28027,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28062,8 +28062,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28097,8 +28097,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28132,8 +28132,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28167,8 +28167,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28202,8 +28202,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28237,8 +28237,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28272,8 +28272,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28307,8 +28307,8 @@
           <t>Z790 AERO G</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28408,8 +28408,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28424,7 +28424,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>129.8</v>
+        <v>130.8</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -28443,8 +28443,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -28478,8 +28478,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -28494,7 +28494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112.8</v>
+        <v>113.3</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -28513,8 +28513,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -28529,7 +28529,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>118</v>
+        <v>117.5</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -28548,8 +28548,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -28564,7 +28564,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>110.1</v>
+        <v>109.6</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -28583,8 +28583,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -28618,8 +28618,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28634,7 +28634,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>115.4</v>
+        <v>117.4</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -28653,8 +28653,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28669,7 +28669,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>120.4</v>
+        <v>121.4</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -28688,8 +28688,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28704,7 +28704,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>127.6</v>
+        <v>132.6</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -28723,8 +28723,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28739,7 +28739,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>148.5</v>
+        <v>149</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -28758,8 +28758,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28793,8 +28793,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28828,8 +28828,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28863,8 +28863,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28898,8 +28898,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28914,7 +28914,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>94.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -28933,8 +28933,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -29034,8 +29034,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -29069,8 +29069,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -29104,8 +29104,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -29139,8 +29139,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -29174,8 +29174,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -29209,8 +29209,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -29244,8 +29244,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -29279,8 +29279,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -29314,8 +29314,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29349,8 +29349,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29384,8 +29384,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -29419,8 +29419,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -29454,8 +29454,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29489,8 +29489,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -29524,8 +29524,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29559,8 +29559,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -29660,8 +29660,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -29695,8 +29695,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -29730,8 +29730,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -29765,8 +29765,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -29800,8 +29800,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -29835,8 +29835,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -29870,8 +29870,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -29905,8 +29905,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -29940,8 +29940,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29975,8 +29975,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -30010,8 +30010,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -30045,8 +30045,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -30080,8 +30080,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -30115,8 +30115,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -30150,8 +30150,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -30185,8 +30185,8 @@
           <t>B550I AORUS PRO AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -30286,8 +30286,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -30321,8 +30321,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -30356,8 +30356,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -30391,8 +30391,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -30426,8 +30426,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -30461,8 +30461,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -30496,8 +30496,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -30531,8 +30531,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -30566,8 +30566,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30601,8 +30601,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -30636,8 +30636,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -30671,8 +30671,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -30706,8 +30706,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -30741,8 +30741,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -30776,8 +30776,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -30811,8 +30811,8 @@
           <t>B760M DS3H DDR4</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>141.9</v>
+        <v>140.4</v>
       </c>
       <c r="D2" t="n">
         <v>160</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>101.3</v>
+        <v>99.3</v>
       </c>
       <c r="D3" t="n">
         <v>97</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>89.5</v>
       </c>
       <c r="D4" t="n">
         <v>105</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85.3</v>
+        <v>83.3</v>
       </c>
       <c r="D5" t="n">
         <v>86</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100.6</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>87</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>130.6</v>
+        <v>129.1</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152.6</v>
+        <v>151.1</v>
       </c>
       <c r="D12" t="n">
         <v>147</v>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>165.2</v>
+        <v>163.7</v>
       </c>
       <c r="D13" t="n">
         <v>144</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>168.7</v>
+        <v>167.2</v>
       </c>
       <c r="D14" t="n">
         <v>144</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>161.5</v>
+        <v>160</v>
       </c>
       <c r="D15" t="n">
         <v>140</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>149</v>
+        <v>147.5</v>
       </c>
       <c r="D16" t="n">
         <v>135</v>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>135.5</v>
+        <v>134</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85.3</v>
+        <v>83.3</v>
       </c>
       <c r="D2" t="n">
         <v>85.69999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>135.5</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>140.4</v>
+        <v>140.9</v>
       </c>
       <c r="D2" t="n">
         <v>160</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>99.3</v>
+        <v>100.3</v>
       </c>
       <c r="D3" t="n">
         <v>97</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
         <v>105</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83.3</v>
+        <v>84.3</v>
       </c>
       <c r="D5" t="n">
         <v>86</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>87</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>129.1</v>
+        <v>130.1</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>151.1</v>
+        <v>152.1</v>
       </c>
       <c r="D12" t="n">
         <v>147</v>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>163.7</v>
+        <v>164.7</v>
       </c>
       <c r="D13" t="n">
         <v>144</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>167.2</v>
+        <v>167.7</v>
       </c>
       <c r="D14" t="n">
         <v>144</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>160</v>
+        <v>160.5</v>
       </c>
       <c r="D15" t="n">
         <v>140</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>147.5</v>
+        <v>148</v>
       </c>
       <c r="D16" t="n">
         <v>135</v>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134</v>
+        <v>134.5</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83.3</v>
+        <v>84.3</v>
       </c>
       <c r="D2" t="n">
         <v>85.69999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>134</v>
+        <v>134.5</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="D2" t="n">
         <v>160</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100.3</v>
+        <v>101.3</v>
       </c>
       <c r="D3" t="n">
         <v>97</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
         <v>105</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>84.3</v>
+        <v>86.3</v>
       </c>
       <c r="D5" t="n">
         <v>86</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99.59999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="D6" t="n">
         <v>87</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>130.1</v>
+        <v>131.6</v>
       </c>
       <c r="D11" t="n">
         <v>127</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152.1</v>
+        <v>153.1</v>
       </c>
       <c r="D12" t="n">
         <v>147</v>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>164.7</v>
+        <v>166.2</v>
       </c>
       <c r="D13" t="n">
         <v>144</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>167.7</v>
+        <v>169.2</v>
       </c>
       <c r="D14" t="n">
         <v>144</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>160.5</v>
+        <v>162.5</v>
       </c>
       <c r="D15" t="n">
         <v>140</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D16" t="n">
         <v>135</v>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134.5</v>
+        <v>136.5</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84.3</v>
+        <v>86.3</v>
       </c>
       <c r="D2" t="n">
         <v>85.69999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>134.5</v>
+        <v>136.5</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -7,8 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BF73P6HY" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0BF7CL99N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0CN76TH9S" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B0DGVC3DDW" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,537 +432,693 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>product title</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>Week_Start_Date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>ASIN</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>asin</t>
+          <t>Amazon Mean Forecast</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS27QC SA</t>
+          <t>W01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2023</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v/>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>44969</v>
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS27F SA</t>
+          <t>W02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2023</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v/>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>44976</v>
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS27FC SA</t>
+          <t>W03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2023</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v/>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>44976</v>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS27F SA</t>
+          <t>W04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2023</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>44976</v>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2023</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v/>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>45151</v>
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2023</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>45158</v>
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2023</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>45165</v>
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2023</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>45172</v>
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2023</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>45179</v>
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27F SA                      </t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2023</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>45186</v>
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27FC SA </t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2023</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>45186</v>
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2023</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>45186</v>
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
+      <c r="H13" t="n">
+        <v>19</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27F SA                      </t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2023</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>45193</v>
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27FC SA                     </t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2023</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>45193</v>
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" t="n">
+        <v>18</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2023</v>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>45193</v>
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12</v>
+      </c>
+      <c r="H16" t="n">
+        <v>19</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27F SA                      </t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2023</v>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v/>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27FC SA                     </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v/>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25</v>
-      </c>
-      <c r="E19" t="n">
-        <v/>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27F SA                      </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v/>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>45207</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27FC SA                     </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v/>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>45207</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D22" t="n">
-        <v>71</v>
-      </c>
-      <c r="E22" t="n">
-        <v/>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>45207</v>
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +1132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,28 +1143,2800 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MyForecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>37</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>44</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24</v>
+      </c>
+      <c r="H10" t="n">
+        <v>39</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26</v>
+      </c>
+      <c r="H11" t="n">
+        <v>45</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="n">
+        <v>44</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16</v>
+      </c>
+      <c r="G13" t="n">
+        <v>26</v>
+      </c>
+      <c r="H13" t="n">
+        <v>44</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" t="n">
+        <v>26</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>43</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" t="n">
+        <v>27</v>
+      </c>
+      <c r="H16" t="n">
+        <v>46</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>44</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MyForecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Product Title</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43</v>
+      </c>
+      <c r="F3" t="n">
+        <v>52</v>
+      </c>
+      <c r="G3" t="n">
+        <v>70</v>
+      </c>
+      <c r="H3" t="n">
+        <v>101</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>72</v>
+      </c>
+      <c r="H4" t="n">
+        <v>103</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>48</v>
+      </c>
+      <c r="E5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>82</v>
+      </c>
+      <c r="H5" t="n">
+        <v>114</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53</v>
+      </c>
+      <c r="F6" t="n">
+        <v>64</v>
+      </c>
+      <c r="G6" t="n">
+        <v>86</v>
+      </c>
+      <c r="H6" t="n">
+        <v>125</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>58</v>
+      </c>
+      <c r="G7" t="n">
+        <v>80</v>
+      </c>
+      <c r="H7" t="n">
+        <v>119</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>94</v>
+      </c>
+      <c r="H8" t="n">
+        <v>141</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>94</v>
+      </c>
+      <c r="H9" t="n">
+        <v>144</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54</v>
+      </c>
+      <c r="F10" t="n">
+        <v>63</v>
+      </c>
+      <c r="G10" t="n">
+        <v>88</v>
+      </c>
+      <c r="H10" t="n">
+        <v>134</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55</v>
+      </c>
+      <c r="F11" t="n">
+        <v>64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>91</v>
+      </c>
+      <c r="H11" t="n">
+        <v>140</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58</v>
+      </c>
+      <c r="F12" t="n">
+        <v>67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>95</v>
+      </c>
+      <c r="H12" t="n">
+        <v>145</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>34</v>
+      </c>
+      <c r="E13" t="n">
+        <v>57</v>
+      </c>
+      <c r="F13" t="n">
+        <v>66</v>
+      </c>
+      <c r="G13" t="n">
+        <v>94</v>
+      </c>
+      <c r="H13" t="n">
+        <v>143</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>34</v>
+      </c>
+      <c r="E14" t="n">
+        <v>56</v>
+      </c>
+      <c r="F14" t="n">
+        <v>66</v>
+      </c>
+      <c r="G14" t="n">
+        <v>93</v>
+      </c>
+      <c r="H14" t="n">
+        <v>141</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>55</v>
+      </c>
+      <c r="F15" t="n">
+        <v>64</v>
+      </c>
+      <c r="G15" t="n">
+        <v>91</v>
+      </c>
+      <c r="H15" t="n">
+        <v>141</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>34</v>
+      </c>
+      <c r="E16" t="n">
+        <v>57</v>
+      </c>
+      <c r="F16" t="n">
+        <v>66</v>
+      </c>
+      <c r="G16" t="n">
+        <v>94</v>
+      </c>
+      <c r="H16" t="n">
+        <v>144</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>34</v>
+      </c>
+      <c r="E17" t="n">
+        <v>56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>64</v>
+      </c>
+      <c r="G17" t="n">
+        <v>92</v>
+      </c>
+      <c r="H17" t="n">
+        <v>143</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>4 Weeks Forecast</t>
+          <t>ASIN</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>8 Weeks Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>16 Weeks Forecast</t>
-        </is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>306</v>
+      </c>
+      <c r="E2" t="n">
+        <v>469</v>
+      </c>
+      <c r="F2" t="n">
+        <v>543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>607</v>
+      </c>
+      <c r="H2" t="n">
+        <v>704</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>315</v>
+      </c>
+      <c r="E3" t="n">
+        <v>501</v>
+      </c>
+      <c r="F3" t="n">
+        <v>599</v>
+      </c>
+      <c r="G3" t="n">
+        <v>697</v>
+      </c>
+      <c r="H3" t="n">
+        <v>851</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>281</v>
+      </c>
+      <c r="E4" t="n">
+        <v>372</v>
+      </c>
+      <c r="F4" t="n">
+        <v>443</v>
+      </c>
+      <c r="G4" t="n">
+        <v>513</v>
+      </c>
+      <c r="H4" t="n">
+        <v>622</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>238</v>
+      </c>
+      <c r="E5" t="n">
+        <v>352</v>
+      </c>
+      <c r="F5" t="n">
+        <v>419</v>
+      </c>
+      <c r="G5" t="n">
+        <v>487</v>
+      </c>
+      <c r="H5" t="n">
+        <v>592</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>272</v>
+      </c>
+      <c r="E6" t="n">
+        <v>339</v>
+      </c>
+      <c r="F6" t="n">
+        <v>407</v>
+      </c>
+      <c r="G6" t="n">
+        <v>478</v>
+      </c>
+      <c r="H6" t="n">
+        <v>588</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>237</v>
+      </c>
+      <c r="E7" t="n">
+        <v>326</v>
+      </c>
+      <c r="F7" t="n">
+        <v>394</v>
+      </c>
+      <c r="G7" t="n">
+        <v>467</v>
+      </c>
+      <c r="H7" t="n">
+        <v>582</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>264</v>
+      </c>
+      <c r="E8" t="n">
+        <v>307</v>
+      </c>
+      <c r="F8" t="n">
+        <v>374</v>
+      </c>
+      <c r="G8" t="n">
+        <v>455</v>
+      </c>
+      <c r="H8" t="n">
+        <v>585</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>240</v>
+      </c>
+      <c r="E9" t="n">
+        <v>318</v>
+      </c>
+      <c r="F9" t="n">
+        <v>389</v>
+      </c>
+      <c r="G9" t="n">
+        <v>480</v>
+      </c>
+      <c r="H9" t="n">
+        <v>627</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>265</v>
+      </c>
+      <c r="E10" t="n">
+        <v>312</v>
+      </c>
+      <c r="F10" t="n">
+        <v>379</v>
+      </c>
+      <c r="G10" t="n">
+        <v>455</v>
+      </c>
+      <c r="H10" t="n">
+        <v>576</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>244</v>
+      </c>
+      <c r="E11" t="n">
+        <v>299</v>
+      </c>
+      <c r="F11" t="n">
+        <v>365</v>
+      </c>
+      <c r="G11" t="n">
+        <v>456</v>
+      </c>
+      <c r="H11" t="n">
+        <v>604</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>263</v>
+      </c>
+      <c r="E12" t="n">
+        <v>301</v>
+      </c>
+      <c r="F12" t="n">
+        <v>367</v>
+      </c>
+      <c r="G12" t="n">
+        <v>465</v>
+      </c>
+      <c r="H12" t="n">
+        <v>625</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>244</v>
+      </c>
+      <c r="E13" t="n">
+        <v>288</v>
+      </c>
+      <c r="F13" t="n">
+        <v>352</v>
+      </c>
+      <c r="G13" t="n">
+        <v>446</v>
+      </c>
+      <c r="H13" t="n">
+        <v>600</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>256</v>
+      </c>
+      <c r="E14" t="n">
+        <v>277</v>
+      </c>
+      <c r="F14" t="n">
+        <v>339</v>
+      </c>
+      <c r="G14" t="n">
+        <v>427</v>
+      </c>
+      <c r="H14" t="n">
+        <v>571</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>234</v>
+      </c>
+      <c r="E15" t="n">
+        <v>265</v>
+      </c>
+      <c r="F15" t="n">
+        <v>324</v>
+      </c>
+      <c r="G15" t="n">
+        <v>413</v>
+      </c>
+      <c r="H15" t="n">
+        <v>561</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>233</v>
+      </c>
+      <c r="E16" t="n">
+        <v>270</v>
+      </c>
+      <c r="F16" t="n">
+        <v>329</v>
+      </c>
+      <c r="G16" t="n">
+        <v>426</v>
+      </c>
+      <c r="H16" t="n">
+        <v>589</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>231</v>
+      </c>
+      <c r="E17" t="n">
+        <v>265</v>
+      </c>
+      <c r="F17" t="n">
+        <v>323</v>
+      </c>
+      <c r="G17" t="n">
+        <v>415</v>
+      </c>
+      <c r="H17" t="n">
+        <v>567</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>product title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>asin</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS27QC SA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v/>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS27F SA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3" t="n">
+        <v/>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS27FC SA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS27F SA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>W33</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>W35</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>W36</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27F SA                      </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27FC SA </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27F SA                      </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>W38</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27FC SA                     </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>W38</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>W38</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27F SA                      </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>W39</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27FC SA                     </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>W39</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>W39</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25</v>
+      </c>
+      <c r="E19" t="n">
+        <v/>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27F SA                      </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>W40</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v/>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27FC SA                     </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>W40</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v/>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>W40</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D22" t="n">
+        <v>71</v>
+      </c>
+      <c r="E22" t="n">
+        <v/>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>45193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>4 Week Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>8 Week Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>16 Week Forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="E2" t="n">
+        <v>56.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100.76</v>
+      </c>
+      <c r="E3" t="n">
+        <v>208.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>93.53999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>224.58</v>
+      </c>
+      <c r="E4" t="n">
+        <v>501.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1140.2888776</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2152.9401048</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4123.5698344</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E2" t="n">
         <v>308</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E3" t="n">
         <v>305</v>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="E4" t="n">
         <v>315</v>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
         <v>292</v>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="E6" t="n">
         <v>309</v>
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="E7" t="n">
         <v>286</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="E8" t="n">
         <v>309</v>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="E9" t="n">
         <v>311</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="E10" t="n">
         <v>305</v>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="E12" t="n">
         <v>312</v>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="E13" t="n">
         <v>296</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="E15" t="n">
         <v>270</v>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>355</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
         <v>273</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>352</v>
+        <v>214</v>
       </c>
       <c r="E17" t="n">
         <v>271</v>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" t="n">
         <v>205</v>
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" t="n">
         <v>118</v>
@@ -9486,7 +9486,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" t="n">
         <v>91</v>
@@ -9566,7 +9566,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" t="n">
         <v>76</v>
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -12761,7 +12761,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -12801,7 +12801,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -12881,7 +12881,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -12961,7 +12961,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -13041,7 +13041,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -13081,7 +13081,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -13161,7 +13161,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -13201,7 +13201,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
         <v>39</v>
@@ -13472,7 +13472,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
@@ -13512,7 +13512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>31</v>
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>32</v>
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>31</v>
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
         <v>32</v>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
         <v>32</v>
@@ -13792,7 +13792,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
         <v>34</v>
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
         <v>35</v>
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v>36</v>
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
         <v>34</v>
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
         <v>32</v>
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
         <v>33</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
@@ -14854,7 +14854,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -14894,7 +14894,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -14934,7 +14934,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -14974,7 +14974,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -15014,7 +15014,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -15645,7 +15645,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -16316,7 +16316,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
@@ -16356,7 +16356,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -16436,7 +16436,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -16476,7 +16476,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -16556,7 +16556,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -16636,7 +16636,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -16676,7 +16676,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -16716,7 +16716,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -16756,7 +16756,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -16836,7 +16836,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -16876,7 +16876,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -17858,7 +17858,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
@@ -17898,7 +17898,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
         <v>11</v>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
@@ -17978,7 +17978,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -18258,7 +18258,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -18409,7 +18409,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -18529,7 +18529,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -18569,7 +18569,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -18609,7 +18609,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -18729,7 +18729,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -19120,7 +19120,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
@@ -19160,7 +19160,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>25</v>
@@ -19200,7 +19200,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -19240,7 +19240,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -19280,7 +19280,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -19320,7 +19320,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v>22</v>
@@ -19400,7 +19400,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>23</v>
@@ -19440,7 +19440,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -19480,7 +19480,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
@@ -19520,7 +19520,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
         <v>22</v>
@@ -19560,7 +19560,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
@@ -19600,7 +19600,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>21</v>
@@ -19640,7 +19640,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
@@ -19680,7 +19680,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
         <v>22</v>
@@ -19720,7 +19720,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
@@ -19831,7 +19831,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -19911,7 +19911,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -19951,7 +19951,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -19991,7 +19991,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -20031,7 +20031,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -20111,7 +20111,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -20151,7 +20151,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -20191,7 +20191,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -20231,7 +20231,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -20311,7 +20311,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -20351,7 +20351,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -20391,7 +20391,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -20431,7 +20431,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -20542,7 +20542,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>21</v>
@@ -20582,7 +20582,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -20622,7 +20622,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -20662,7 +20662,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -20742,7 +20742,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -20822,7 +20822,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -20862,7 +20862,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -20942,7 +20942,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -21022,7 +21022,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -21062,7 +21062,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -21253,7 +21253,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -21293,7 +21293,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -21333,7 +21333,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -21373,7 +21373,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -21413,7 +21413,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -21453,7 +21453,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
@@ -21493,7 +21493,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -21533,7 +21533,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -21613,7 +21613,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>18</v>
@@ -21653,7 +21653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>17</v>
@@ -21693,7 +21693,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
@@ -21733,7 +21733,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -21773,7 +21773,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
@@ -21813,7 +21813,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
         <v>17</v>
@@ -21853,7 +21853,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -22675,7 +22675,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -22715,7 +22715,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -22795,7 +22795,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -22835,7 +22835,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -22955,7 +22955,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -22995,7 +22995,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -23035,7 +23035,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -23075,7 +23075,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -23115,7 +23115,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -23155,7 +23155,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -23195,7 +23195,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -23235,7 +23235,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -23386,7 +23386,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
@@ -23466,7 +23466,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
         <v>34</v>
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
         <v>35</v>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
         <v>32</v>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>44</v>
@@ -23706,7 +23706,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
         <v>35</v>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
         <v>49</v>
@@ -23786,7 +23786,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
@@ -23866,7 +23866,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
         <v>48</v>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
         <v>46</v>
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
         <v>47</v>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v>49</v>
@@ -24097,7 +24097,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
@@ -24137,7 +24137,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
         <v>49</v>
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v>47</v>
@@ -24217,7 +24217,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>55</v>
@@ -24257,7 +24257,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>56</v>
@@ -24297,7 +24297,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
         <v>52</v>
@@ -24337,7 +24337,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
         <v>73</v>
@@ -24377,7 +24377,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
         <v>68</v>
@@ -24417,7 +24417,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
         <v>61</v>
@@ -24457,7 +24457,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v>74</v>
@@ -24497,7 +24497,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
         <v>76</v>
@@ -24537,7 +24537,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
         <v>75</v>
@@ -24577,7 +24577,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>72</v>
@@ -24617,7 +24617,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
         <v>71</v>
@@ -24657,7 +24657,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
         <v>72</v>
@@ -24697,7 +24697,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
         <v>70</v>
@@ -24808,7 +24808,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -24848,7 +24848,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -24888,7 +24888,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -24928,7 +24928,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -24968,7 +24968,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -25008,7 +25008,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -25088,7 +25088,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -25128,7 +25128,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -25168,7 +25168,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -25208,7 +25208,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -25248,7 +25248,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -25288,7 +25288,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -25328,7 +25328,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -25368,7 +25368,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -25408,7 +25408,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -25519,7 +25519,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
@@ -25559,7 +25559,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
         <v>32</v>
@@ -25599,7 +25599,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
         <v>32</v>
@@ -25639,7 +25639,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>38</v>
@@ -25679,7 +25679,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
@@ -25719,7 +25719,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -25759,7 +25759,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
         <v>52</v>
@@ -25799,7 +25799,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
         <v>49</v>
@@ -25839,7 +25839,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>43</v>
@@ -25879,7 +25879,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
         <v>53</v>
@@ -25919,7 +25919,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
         <v>54</v>
@@ -25959,7 +25959,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -25999,7 +25999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
         <v>53</v>
@@ -26039,7 +26039,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
         <v>52</v>
@@ -26079,7 +26079,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
         <v>52</v>
@@ -26119,7 +26119,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
         <v>54</v>
@@ -26230,7 +26230,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -26270,7 +26270,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -26310,7 +26310,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -26350,7 +26350,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -26390,7 +26390,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -26430,7 +26430,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -26470,7 +26470,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -26510,7 +26510,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -26550,7 +26550,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -26590,7 +26590,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -26630,7 +26630,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -26670,7 +26670,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>11</v>
@@ -26710,7 +26710,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -26750,7 +26750,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -26790,7 +26790,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -26830,7 +26830,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -26941,7 +26941,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -26981,7 +26981,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -27061,7 +27061,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -27101,7 +27101,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -27181,7 +27181,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -27301,7 +27301,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -27341,7 +27341,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -27381,7 +27381,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
@@ -27461,7 +27461,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -27541,7 +27541,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -27652,7 +27652,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>27</v>
@@ -27732,7 +27732,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
@@ -27772,7 +27772,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
@@ -27812,7 +27812,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
@@ -27892,7 +27892,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>47</v>
@@ -27932,7 +27932,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>43</v>
@@ -27972,7 +27972,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
         <v>32</v>
@@ -28012,7 +28012,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
@@ -28052,7 +28052,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
         <v>47</v>
@@ -28092,7 +28092,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
         <v>48</v>
@@ -28132,7 +28132,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
         <v>46</v>
@@ -28172,7 +28172,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
         <v>45</v>
@@ -28212,7 +28212,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
         <v>47</v>
@@ -28252,7 +28252,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
@@ -28363,7 +28363,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
         <v>79</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
         <v>78</v>
@@ -28443,7 +28443,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
         <v>73</v>
@@ -28483,7 +28483,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
         <v>80</v>
@@ -28523,7 +28523,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
         <v>83</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
         <v>80</v>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E8" t="n">
         <v>117</v>
@@ -28643,7 +28643,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="E9" t="n">
         <v>107</v>
@@ -28683,7 +28683,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="E10" t="n">
         <v>88</v>
@@ -28723,7 +28723,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E11" t="n">
         <v>120</v>
@@ -28763,7 +28763,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="E12" t="n">
         <v>123</v>
@@ -28803,7 +28803,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
         <v>121</v>
@@ -28843,7 +28843,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E14" t="n">
         <v>117</v>
@@ -28883,7 +28883,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E15" t="n">
         <v>112</v>
@@ -28923,7 +28923,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E16" t="n">
         <v>110</v>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="E17" t="n">
         <v>106</v>
@@ -29074,7 +29074,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -29154,7 +29154,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
@@ -29194,7 +29194,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -29234,7 +29234,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
@@ -29314,7 +29314,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>21</v>
@@ -29354,7 +29354,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -29394,7 +29394,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
@@ -29434,7 +29434,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
@@ -29474,7 +29474,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
@@ -29514,7 +29514,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
@@ -29554,7 +29554,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
         <v>23</v>
@@ -29594,7 +29594,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
         <v>23</v>
@@ -29634,7 +29634,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
         <v>23</v>
@@ -29674,7 +29674,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
@@ -29785,7 +29785,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
         <v>29</v>
@@ -29865,7 +29865,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -29905,7 +29905,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
         <v>34</v>
@@ -29945,7 +29945,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
         <v>32</v>
@@ -30025,7 +30025,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
@@ -30065,7 +30065,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>45</v>
@@ -30105,7 +30105,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
         <v>37</v>
@@ -30145,7 +30145,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
         <v>49</v>
@@ -30185,7 +30185,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -30225,7 +30225,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
         <v>51</v>
@@ -30265,7 +30265,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
         <v>50</v>
@@ -30305,7 +30305,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>49</v>
@@ -30345,7 +30345,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
@@ -30385,7 +30385,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
         <v>51</v>
@@ -32629,7 +32629,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -32669,7 +32669,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -32709,7 +32709,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -32749,7 +32749,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -32789,7 +32789,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E6" t="n">
         <v>577</v>
@@ -32829,7 +32829,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -32869,7 +32869,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -32909,7 +32909,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E9" t="n">
         <v>563</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="E10" t="n">
         <v>542</v>
@@ -32989,7 +32989,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -33029,7 +33029,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E12" t="n">
         <v>544</v>
@@ -33069,7 +33069,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -33109,7 +33109,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E14" t="n">
         <v>525</v>
@@ -34597,13 +34597,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>712.5</v>
+        <v>718.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1358.6</v>
+        <v>1364.6</v>
       </c>
       <c r="E3" t="n">
-        <v>2506.3</v>
+        <v>2526.7</v>
       </c>
     </row>
     <row r="4">
@@ -34645,7 +34645,7 @@
         <v>13.08</v>
       </c>
       <c r="E5" t="n">
-        <v>27.62</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="6">
@@ -34702,13 +34702,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D8" t="n">
-        <v>485.74</v>
+        <v>525.74</v>
       </c>
       <c r="E8" t="n">
-        <v>926.5600000000001</v>
+        <v>1006.56</v>
       </c>
     </row>
     <row r="9">
@@ -34786,13 +34786,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>769.8000000000001</v>
+        <v>770.8000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1254.7</v>
+        <v>1255.7</v>
       </c>
       <c r="E12" t="n">
-        <v>2015.5</v>
+        <v>2019.5</v>
       </c>
     </row>
     <row r="13">
@@ -34828,13 +34828,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.6</v>
+        <v>9.920000000000002</v>
       </c>
       <c r="D14" t="n">
-        <v>29.4</v>
+        <v>19.48</v>
       </c>
       <c r="E14" t="n">
-        <v>57.90000000000001</v>
+        <v>38.78000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -34849,13 +34849,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2385</v>
+        <v>2395</v>
       </c>
       <c r="D15" t="n">
-        <v>4813</v>
+        <v>4843</v>
       </c>
       <c r="E15" t="n">
-        <v>9932.6</v>
+        <v>9983.6</v>
       </c>
     </row>
     <row r="16">
@@ -34870,13 +34870,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D16" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8000000000001</v>
+        <v>501.8000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -34894,10 +34894,10 @@
         <v>3.82</v>
       </c>
       <c r="D17" t="n">
-        <v>7.82</v>
+        <v>8.24</v>
       </c>
       <c r="E17" t="n">
-        <v>15.52</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="18">
@@ -34936,10 +34936,10 @@
         <v>17.74</v>
       </c>
       <c r="D19" t="n">
-        <v>36.36000000000001</v>
+        <v>36.16</v>
       </c>
       <c r="E19" t="n">
-        <v>71.36</v>
+        <v>70.76000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -34954,13 +34954,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D20" t="n">
-        <v>435.2</v>
+        <v>436.2</v>
       </c>
       <c r="E20" t="n">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21">
@@ -34996,13 +34996,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D22" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E22" t="n">
-        <v>1802.6</v>
+        <v>1801.6</v>
       </c>
     </row>
     <row r="23">
@@ -35038,13 +35038,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>396.4</v>
+        <v>441.6000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>781.3200000000002</v>
+        <v>871.72</v>
       </c>
       <c r="E24" t="n">
-        <v>1480.32</v>
+        <v>1661.12</v>
       </c>
     </row>
     <row r="25">
@@ -35149,7 +35149,7 @@
         <v>1209</v>
       </c>
       <c r="E29" t="n">
-        <v>1945.9</v>
+        <v>1949.9</v>
       </c>
     </row>
     <row r="30">
@@ -35164,13 +35164,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>209.3</v>
+        <v>52.26000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>387.2</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>665.2</v>
+        <v>175.64</v>
       </c>
     </row>
     <row r="31">
@@ -35275,7 +35275,7 @@
         <v>28.16</v>
       </c>
       <c r="E35" t="n">
-        <v>56.96000000000001</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="36">
@@ -35332,13 +35332,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="D38" t="n">
-        <v>4.6</v>
+        <v>5.04</v>
       </c>
       <c r="E38" t="n">
-        <v>8.24</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="39">
@@ -35353,13 +35353,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>49.2</v>
+        <v>48.2</v>
       </c>
       <c r="D39" t="n">
-        <v>109.2</v>
+        <v>108.2</v>
       </c>
       <c r="E39" t="n">
-        <v>239.2</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="40">
@@ -35377,10 +35377,10 @@
         <v>2554.5</v>
       </c>
       <c r="D40" t="n">
-        <v>4432.9</v>
+        <v>4431.9</v>
       </c>
       <c r="E40" t="n">
-        <v>7309</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="41">
@@ -35524,10 +35524,10 @@
         <v>443.3</v>
       </c>
       <c r="D47" t="n">
-        <v>801.6</v>
+        <v>803.6</v>
       </c>
       <c r="E47" t="n">
-        <v>1380.5</v>
+        <v>1386.5</v>
       </c>
     </row>
     <row r="48">
@@ -35566,10 +35566,10 @@
         <v>3.44</v>
       </c>
       <c r="D49" t="n">
-        <v>6.58</v>
+        <v>6.7</v>
       </c>
       <c r="E49" t="n">
-        <v>13.58</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="50">
@@ -35584,13 +35584,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>57.76000000000001</v>
+        <v>58.16000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>140.88</v>
+        <v>141.28</v>
       </c>
       <c r="E50" t="n">
-        <v>306.34</v>
+        <v>306.74</v>
       </c>
     </row>
     <row r="51">
@@ -35647,13 +35647,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" t="n">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E53" t="n">
-        <v>808.8</v>
+        <v>775</v>
       </c>
     </row>
     <row r="54">
@@ -35689,13 +35689,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" t="n">
         <v>356</v>
       </c>
       <c r="E55" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56">
@@ -35752,13 +35752,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>11.34</v>
+        <v>13.34</v>
       </c>
       <c r="D58" t="n">
-        <v>23.46</v>
+        <v>27.46</v>
       </c>
       <c r="E58" t="n">
-        <v>48.22000000000001</v>
+        <v>56.22000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -35818,10 +35818,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>132.5</v>
+        <v>131.6</v>
       </c>
       <c r="E61" t="n">
-        <v>224.7</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="62">
@@ -35878,13 +35878,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>224.7</v>
+        <v>256.3</v>
       </c>
       <c r="D64" t="n">
-        <v>454.6000000000001</v>
+        <v>517.8</v>
       </c>
       <c r="E64" t="n">
-        <v>898.5400000000001</v>
+        <v>1024.94</v>
       </c>
     </row>
     <row r="65">
@@ -35899,13 +35899,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>32</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="66">
@@ -35962,13 +35962,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>99.24000000000002</v>
+        <v>148.2</v>
       </c>
       <c r="D68" t="n">
-        <v>196.7</v>
+        <v>287.5</v>
       </c>
       <c r="E68" t="n">
-        <v>383.28</v>
+        <v>524.4000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -35983,13 +35983,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E69" t="n">
-        <v>598.2</v>
+        <v>597.2</v>
       </c>
     </row>
     <row r="70">
@@ -36088,13 +36088,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>215.4</v>
+        <v>325</v>
       </c>
       <c r="D74" t="n">
-        <v>424.28</v>
+        <v>617.4</v>
       </c>
       <c r="E74" t="n">
-        <v>842.72</v>
+        <v>1205.6</v>
       </c>
     </row>
     <row r="75">
@@ -36109,13 +36109,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>183.32</v>
+        <v>236.6</v>
       </c>
       <c r="D75" t="n">
-        <v>372.1</v>
+        <v>500.5000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>751.48</v>
+        <v>1037.4</v>
       </c>
     </row>
     <row r="76">
@@ -36130,13 +36130,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>46.46</v>
+        <v>46.86</v>
       </c>
       <c r="D76" t="n">
-        <v>97.78</v>
+        <v>98.58</v>
       </c>
       <c r="E76" t="n">
-        <v>208.62</v>
+        <v>210.22</v>
       </c>
     </row>
     <row r="77">
@@ -36157,7 +36157,7 @@
         <v>266.1</v>
       </c>
       <c r="E77" t="n">
-        <v>501.1</v>
+        <v>500.1</v>
       </c>
     </row>
     <row r="78">
@@ -36235,13 +36235,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.120000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="D81" t="n">
-        <v>13.52</v>
+        <v>15.92</v>
       </c>
       <c r="E81" t="n">
-        <v>25.72</v>
+        <v>30.52</v>
       </c>
     </row>
     <row r="82">
@@ -36277,13 +36277,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>86.66</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>173.06</v>
+        <v>172.26</v>
       </c>
       <c r="E83" t="n">
-        <v>341.96</v>
+        <v>340.36</v>
       </c>
     </row>
     <row r="84">
@@ -36361,13 +36361,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>54.54000000000001</v>
+        <v>39</v>
       </c>
       <c r="D87" t="n">
-        <v>110.28</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>220.56</v>
+        <v>167.58</v>
       </c>
     </row>
     <row r="88">
@@ -36382,13 +36382,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14.28</v>
+        <v>14.68</v>
       </c>
       <c r="D88" t="n">
-        <v>29.08</v>
+        <v>29.88</v>
       </c>
       <c r="E88" t="n">
-        <v>58.42</v>
+        <v>60.02</v>
       </c>
     </row>
     <row r="89">
@@ -36487,13 +36487,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>42.68000000000001</v>
+        <v>43.08</v>
       </c>
       <c r="D93" t="n">
-        <v>83.34</v>
+        <v>84.14</v>
       </c>
       <c r="E93" t="n">
-        <v>172.6</v>
+        <v>174.2</v>
       </c>
     </row>
     <row r="94">
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>369.66</v>
+        <v>514.3</v>
       </c>
       <c r="D94" t="n">
-        <v>746.2</v>
+        <v>1063</v>
       </c>
       <c r="E94" t="n">
-        <v>1474.44</v>
+        <v>2036.2</v>
       </c>
     </row>
     <row r="95">
@@ -36634,13 +36634,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1210</v>
+        <v>1184</v>
       </c>
       <c r="D100" t="n">
-        <v>2327</v>
+        <v>2275.400000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>4582.700000000001</v>
+        <v>4479.1</v>
       </c>
     </row>
     <row r="101">
@@ -36655,13 +36655,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>908</v>
+        <v>758.2</v>
       </c>
       <c r="D101" t="n">
-        <v>1988</v>
+        <v>1549.8</v>
       </c>
       <c r="E101" t="n">
-        <v>4593.2</v>
+        <v>3222.64</v>
       </c>
     </row>
     <row r="102">
@@ -36739,13 +36739,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>626.8000000000001</v>
+        <v>626.4000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>1242.54</v>
+        <v>1241.94</v>
       </c>
       <c r="E105" t="n">
-        <v>2506.92</v>
+        <v>2505.32</v>
       </c>
     </row>
     <row r="106">
@@ -36844,13 +36844,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15.02</v>
+        <v>15.42</v>
       </c>
       <c r="D110" t="n">
-        <v>31.42</v>
+        <v>32.22</v>
       </c>
       <c r="E110" t="n">
-        <v>63.7</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="111">
@@ -36949,13 +36949,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>28.708</v>
+        <v>22.87</v>
       </c>
       <c r="D115" t="n">
-        <v>57.148</v>
+        <v>48.012</v>
       </c>
       <c r="E115" t="n">
-        <v>115.328</v>
+        <v>98.614</v>
       </c>
     </row>
     <row r="116">
@@ -36970,13 +36970,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>120.38</v>
+        <v>124.78</v>
       </c>
       <c r="D116" t="n">
-        <v>239.08</v>
+        <v>247.88</v>
       </c>
       <c r="E116" t="n">
-        <v>475.7</v>
+        <v>493.3</v>
       </c>
     </row>
     <row r="117">
@@ -37012,13 +37012,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9.48</v>
+        <v>11.48</v>
       </c>
       <c r="D118" t="n">
-        <v>19.98</v>
+        <v>23.98</v>
       </c>
       <c r="E118" t="n">
-        <v>42.60000000000001</v>
+        <v>50.60000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -37033,13 +37033,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>21.42</v>
+        <v>22.22</v>
       </c>
       <c r="D119" t="n">
-        <v>44.24</v>
+        <v>45.62</v>
       </c>
       <c r="E119" t="n">
-        <v>90.96000000000001</v>
+        <v>93.94000000000001</v>
       </c>
     </row>
     <row r="120">
@@ -37054,13 +37054,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>35.12</v>
+        <v>38.32000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>65.54000000000001</v>
+        <v>71.94000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>129.02</v>
+        <v>141.82</v>
       </c>
     </row>
     <row r="121">
@@ -37075,13 +37075,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>39.1</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>73.90000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="E121" t="n">
-        <v>147.96</v>
+        <v>143.36</v>
       </c>
     </row>
     <row r="122">
@@ -37096,13 +37096,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>13.76</v>
+        <v>14.56</v>
       </c>
       <c r="D122" t="n">
-        <v>28.04</v>
+        <v>29.64</v>
       </c>
       <c r="E122" t="n">
-        <v>57.64</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="123">
@@ -37117,13 +37117,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>61.60000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="D123" t="n">
-        <v>127.06</v>
+        <v>103.06</v>
       </c>
       <c r="E123" t="n">
-        <v>260.58</v>
+        <v>212.58</v>
       </c>
     </row>
     <row r="124">
@@ -37138,13 +37138,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>32.96</v>
+        <v>27.36</v>
       </c>
       <c r="D124" t="n">
-        <v>65.92</v>
+        <v>54.72</v>
       </c>
       <c r="E124" t="n">
-        <v>132.62</v>
+        <v>110.22</v>
       </c>
     </row>
     <row r="125">
@@ -37159,13 +37159,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>52.78</v>
+        <v>45.58</v>
       </c>
       <c r="D125" t="n">
-        <v>107.96</v>
+        <v>93.56</v>
       </c>
       <c r="E125" t="n">
-        <v>218.62</v>
+        <v>189.82</v>
       </c>
     </row>
     <row r="126">
@@ -37180,13 +37180,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>47.858</v>
+        <v>43.26000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>94.77800000000001</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>191.218</v>
+        <v>165.092</v>
       </c>
     </row>
     <row r="127">
@@ -37222,13 +37222,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D128" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E128" t="n">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
@@ -37243,13 +37243,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="D129" t="n">
-        <v>607</v>
+        <v>251</v>
       </c>
       <c r="E129" t="n">
-        <v>1300</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130">
@@ -37264,13 +37264,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>331</v>
+        <v>176</v>
       </c>
       <c r="D130" t="n">
-        <v>711</v>
+        <v>400</v>
       </c>
       <c r="E130" t="n">
-        <v>1537</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131">
@@ -37285,13 +37285,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="D131" t="n">
-        <v>503</v>
+        <v>279</v>
       </c>
       <c r="E131" t="n">
-        <v>1104</v>
+        <v>656</v>
       </c>
     </row>
     <row r="132">
@@ -37306,13 +37306,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E132" t="n">
-        <v>238</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133">
@@ -37327,13 +37327,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D133" t="n">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="E133" t="n">
-        <v>363</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134">
@@ -37348,13 +37348,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="D134" t="n">
-        <v>369</v>
+        <v>244</v>
       </c>
       <c r="E134" t="n">
-        <v>820</v>
+        <v>574</v>
       </c>
     </row>
     <row r="135">
@@ -37369,13 +37369,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>435</v>
+        <v>279</v>
       </c>
       <c r="D135" t="n">
-        <v>940</v>
+        <v>627</v>
       </c>
       <c r="E135" t="n">
-        <v>2060</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="136">
@@ -37390,13 +37390,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D136" t="n">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="E136" t="n">
-        <v>471</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137">
@@ -37411,13 +37411,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="D137" t="n">
-        <v>489</v>
+        <v>251</v>
       </c>
       <c r="E137" t="n">
-        <v>1077</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138">
@@ -37592,7 +37592,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>35</v>
@@ -37632,7 +37632,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
@@ -37672,7 +37672,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>36</v>
@@ -37712,7 +37712,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
@@ -37752,7 +37752,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
@@ -37792,7 +37792,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
@@ -37872,7 +37872,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
         <v>34</v>
@@ -37912,7 +37912,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>33</v>
@@ -37952,7 +37952,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>34</v>
@@ -37992,7 +37992,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
         <v>32</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -40556,7 +40556,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
         <v>41</v>
@@ -41036,7 +41036,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -41147,7 +41147,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
         <v>158</v>
@@ -41187,7 +41187,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>172</v>
@@ -41467,7 +41467,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E10" t="n">
         <v>125</v>
@@ -41507,7 +41507,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E11" t="n">
         <v>123</v>
@@ -41667,7 +41667,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E15" t="n">
         <v>111</v>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E16" t="n">
         <v>111</v>
@@ -41747,7 +41747,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E17" t="n">
         <v>106</v>
@@ -42649,7 +42649,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -42689,7 +42689,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -42929,7 +42929,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -42969,7 +42969,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
@@ -43129,7 +43129,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
         <v>86</v>
@@ -43991,7 +43991,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -44031,7 +44031,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E3" t="n">
         <v>179</v>
@@ -44071,7 +44071,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
         <v>137</v>
@@ -44111,7 +44111,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E5" t="n">
         <v>133</v>
@@ -44151,7 +44151,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E6" t="n">
         <v>134</v>
@@ -44191,7 +44191,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E7" t="n">
         <v>132</v>
@@ -44231,7 +44231,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E8" t="n">
         <v>128</v>
@@ -44271,7 +44271,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E9" t="n">
         <v>128</v>
@@ -44311,7 +44311,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E10" t="n">
         <v>127</v>
@@ -44351,7 +44351,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
         <v>121</v>
@@ -44391,7 +44391,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
         <v>115</v>
@@ -44431,7 +44431,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E13" t="n">
         <v>117</v>
@@ -44471,7 +44471,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
         <v>118</v>
@@ -44511,7 +44511,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
         <v>111</v>
@@ -44551,7 +44551,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E16" t="n">
         <v>112</v>
@@ -44591,7 +44591,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E17" t="n">
         <v>111</v>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" t="n">
         <v>81</v>
@@ -48106,7 +48106,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
         <v>81</v>
@@ -48257,7 +48257,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>39</v>
@@ -48297,7 +48297,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>41</v>
@@ -48337,7 +48337,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>41</v>
@@ -48377,7 +48377,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>42</v>
@@ -48417,7 +48417,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>41</v>
@@ -48457,7 +48457,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -48497,7 +48497,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v>41</v>
@@ -48537,7 +48537,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>42</v>
@@ -48577,7 +48577,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>40</v>
@@ -48617,7 +48617,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
@@ -48657,7 +48657,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>41</v>
@@ -48697,7 +48697,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>41</v>
@@ -48737,7 +48737,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>40</v>
@@ -48777,7 +48777,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>39</v>
@@ -48817,7 +48817,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -48857,7 +48857,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -55487,7 +55487,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -56318,7 +56318,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -56358,7 +56358,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E9" t="n">
         <v>420</v>
@@ -56438,7 +56438,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" t="n">
         <v>397</v>
@@ -56478,7 +56478,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E12" t="n">
         <v>395</v>
@@ -56558,7 +56558,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E14" t="n">
         <v>385</v>
@@ -56598,7 +56598,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E15" t="n">
         <v>369</v>
@@ -56638,7 +56638,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E16" t="n">
         <v>368</v>
@@ -56678,7 +56678,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E17" t="n">
         <v>362</v>
@@ -57309,7 +57309,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -57389,7 +57389,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -62006,7 +62006,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
         <v>82</v>
@@ -62086,7 +62086,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
         <v>80</v>
@@ -62126,7 +62126,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
         <v>78</v>
@@ -62206,7 +62206,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>78</v>
@@ -62246,7 +62246,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
         <v>78</v>
@@ -62286,7 +62286,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>73</v>
@@ -62326,7 +62326,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
         <v>72</v>
@@ -63939,7 +63939,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>44</v>
@@ -66743,7 +66743,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
         <v>53</v>
@@ -66823,7 +66823,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>52</v>
@@ -66863,7 +66863,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -66903,7 +66903,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>52</v>
@@ -66943,7 +66943,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
         <v>49</v>
@@ -66983,7 +66983,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
@@ -67023,7 +67023,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
         <v>48</v>
@@ -67063,7 +67063,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
         <v>49</v>
@@ -67103,7 +67103,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="n">
         <v>46</v>
@@ -67183,7 +67183,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>46</v>
@@ -68165,7 +68165,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
         <v>53</v>
@@ -68245,7 +68245,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
@@ -68285,7 +68285,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>42</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>43</v>
@@ -68485,7 +68485,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
         <v>40</v>
@@ -68525,7 +68525,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>41</v>
@@ -68565,7 +68565,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
@@ -68645,7 +68645,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
         <v>41</v>
@@ -68685,7 +68685,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
         <v>40</v>
@@ -68725,7 +68725,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -70538,7 +70538,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -70578,7 +70578,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -70618,7 +70618,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
@@ -70658,7 +70658,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -70698,7 +70698,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -70738,7 +70738,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -70778,7 +70778,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -70818,7 +70818,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -73342,7 +73342,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -73382,7 +73382,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
@@ -73422,7 +73422,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
@@ -73462,7 +73462,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -73502,7 +73502,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -73542,7 +73542,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -73582,7 +73582,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>14</v>
@@ -75275,7 +75275,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
         <v>74</v>
@@ -75315,7 +75315,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
         <v>78</v>
@@ -75355,7 +75355,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v>82</v>
@@ -75395,7 +75395,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
         <v>81</v>
@@ -75435,7 +75435,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
         <v>83</v>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>82</v>
@@ -75515,7 +75515,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
         <v>84</v>
@@ -75555,7 +75555,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
         <v>86</v>
@@ -75595,7 +75595,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>82</v>
@@ -75635,7 +75635,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
         <v>80</v>
@@ -75675,7 +75675,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
         <v>80</v>
@@ -75715,7 +75715,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v>78</v>
@@ -75755,7 +75755,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
         <v>77</v>
@@ -75795,7 +75795,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
         <v>72</v>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
         <v>70</v>
@@ -75875,7 +75875,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>70</v>
@@ -75986,7 +75986,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -76026,7 +76026,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -76066,7 +76066,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -76106,7 +76106,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -76146,7 +76146,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -76186,7 +76186,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -76226,7 +76226,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -76266,7 +76266,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -76306,7 +76306,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -76346,7 +76346,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -76386,7 +76386,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -76426,7 +76426,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -76466,7 +76466,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -76506,7 +76506,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -76546,7 +76546,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -76586,7 +76586,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -78119,7 +78119,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
         <v>29</v>
@@ -78159,7 +78159,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
         <v>29</v>
@@ -78199,7 +78199,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
@@ -78239,7 +78239,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
@@ -78279,7 +78279,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
@@ -78319,7 +78319,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>26</v>
@@ -78359,7 +78359,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n">
         <v>28</v>
@@ -78399,7 +78399,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
@@ -78439,7 +78439,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
@@ -78479,7 +78479,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
         <v>25</v>
@@ -78519,7 +78519,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
         <v>26</v>
@@ -78559,7 +78559,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>25</v>
@@ -78599,7 +78599,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
         <v>25</v>
@@ -78639,7 +78639,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -78679,7 +78679,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -78719,7 +78719,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
@@ -78830,7 +78830,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
@@ -80252,7 +80252,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -80292,7 +80292,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
         <v>77</v>
@@ -80332,7 +80332,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
@@ -80372,7 +80372,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -80412,7 +80412,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>81</v>
@@ -80452,7 +80452,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
@@ -80492,7 +80492,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
         <v>73</v>
@@ -80532,7 +80532,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
         <v>76</v>
@@ -80572,7 +80572,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>76</v>
@@ -80612,7 +80612,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
         <v>71</v>
@@ -80652,7 +80652,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
         <v>70</v>
@@ -80692,7 +80692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -80732,7 +80732,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
         <v>70</v>
@@ -80772,7 +80772,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v>64</v>
@@ -80812,7 +80812,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
         <v>66</v>
@@ -80852,7 +80852,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
         <v>65</v>
@@ -83096,7 +83096,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
         <v>63</v>
@@ -83136,7 +83136,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
         <v>62</v>
@@ -83176,7 +83176,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -83216,7 +83216,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
         <v>61</v>
@@ -83256,7 +83256,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
         <v>63</v>
@@ -83296,7 +83296,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
         <v>61</v>
@@ -83336,7 +83336,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E8" t="n">
         <v>65</v>
@@ -83376,7 +83376,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>65</v>
@@ -83416,7 +83416,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
         <v>62</v>
@@ -83456,7 +83456,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -83496,7 +83496,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E12" t="n">
         <v>64</v>
@@ -83536,7 +83536,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -83576,7 +83576,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -83616,7 +83616,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -83656,7 +83656,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>58</v>
@@ -83696,7 +83696,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>58</v>
@@ -83807,7 +83807,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
         <v>46</v>
@@ -83887,7 +83887,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
         <v>47</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
         <v>49</v>
@@ -83967,7 +83967,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
         <v>49</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -84047,7 +84047,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
         <v>52</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
         <v>54</v>
@@ -84127,7 +84127,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
         <v>51</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
         <v>52</v>
@@ -84207,7 +84207,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
         <v>52</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v>54</v>
@@ -84287,7 +84287,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
         <v>53</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
         <v>51</v>
@@ -84367,7 +84367,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
         <v>50</v>
@@ -84798,7 +84798,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>57</v>
@@ -85829,7 +85829,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
@@ -89024,7 +89024,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -89064,7 +89064,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -89304,7 +89304,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -89344,7 +89344,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -89384,7 +89384,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -93041,7 +93041,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -93050,7 +93050,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -93081,7 +93081,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -93090,7 +93090,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -93121,7 +93121,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -93130,7 +93130,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
@@ -93161,7 +93161,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -93170,7 +93170,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -93201,7 +93201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -93210,7 +93210,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
@@ -93241,7 +93241,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -93250,7 +93250,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
@@ -93281,7 +93281,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -93290,7 +93290,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
@@ -93321,7 +93321,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -93330,7 +93330,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
@@ -93361,7 +93361,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -93370,7 +93370,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
@@ -93401,7 +93401,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -93410,7 +93410,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>18</v>
@@ -93441,7 +93441,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -93450,7 +93450,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v>18</v>
@@ -93481,7 +93481,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -93490,7 +93490,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
@@ -93521,7 +93521,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -93530,7 +93530,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>17</v>
@@ -93561,7 +93561,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -93570,7 +93570,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -93601,7 +93601,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -93610,7 +93610,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
         <v>17</v>
@@ -93641,7 +93641,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -93650,7 +93650,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -93761,7 +93761,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -93841,7 +93841,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -94361,7 +94361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -98738,7 +98738,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E2" t="n">
         <v>163</v>
@@ -98778,7 +98778,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E3" t="n">
         <v>156</v>
@@ -98818,7 +98818,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E4" t="n">
         <v>152</v>
@@ -98858,7 +98858,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="E5" t="n">
         <v>142</v>
@@ -98898,7 +98898,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="E6" t="n">
         <v>145</v>
@@ -98938,7 +98938,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E7" t="n">
         <v>138</v>
@@ -98978,7 +98978,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
         <v>143</v>
@@ -99018,7 +99018,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
         <v>143</v>
@@ -99058,7 +99058,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="E10" t="n">
         <v>135</v>
@@ -99098,7 +99098,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="E11" t="n">
         <v>136</v>
@@ -99138,7 +99138,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="E12" t="n">
         <v>140</v>
@@ -99178,7 +99178,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E13" t="n">
         <v>133</v>
@@ -99218,7 +99218,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E14" t="n">
         <v>130</v>
@@ -99258,7 +99258,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E15" t="n">
         <v>124</v>
@@ -103004,7 +103004,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E2" t="n">
         <v>469</v>
@@ -103044,7 +103044,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E3" t="n">
         <v>501</v>
@@ -103084,7 +103084,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E4" t="n">
         <v>372</v>
@@ -103124,7 +103124,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E5" t="n">
         <v>352</v>
@@ -103164,7 +103164,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E6" t="n">
         <v>339</v>
@@ -103204,7 +103204,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E7" t="n">
         <v>326</v>
@@ -103244,7 +103244,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E8" t="n">
         <v>307</v>
@@ -103284,7 +103284,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E9" t="n">
         <v>318</v>
@@ -103324,7 +103324,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E10" t="n">
         <v>312</v>
@@ -103364,7 +103364,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E11" t="n">
         <v>299</v>
@@ -103404,7 +103404,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E12" t="n">
         <v>301</v>
@@ -103444,7 +103444,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E13" t="n">
         <v>288</v>
@@ -103484,7 +103484,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E14" t="n">
         <v>277</v>
@@ -103524,7 +103524,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E15" t="n">
         <v>265</v>
@@ -103564,7 +103564,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E16" t="n">
         <v>270</v>
@@ -103604,7 +103604,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E17" t="n">
         <v>265</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -8554,7 +8554,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
         <v>118</v>
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E5" t="n">
         <v>107</v>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E10" t="n">
         <v>91</v>
@@ -8834,7 +8834,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E11" t="n">
         <v>86</v>
@@ -31937,7 +31937,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E2" t="n">
         <v>615</v>
@@ -31977,7 +31977,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E3" t="n">
         <v>614</v>
@@ -32017,7 +32017,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E4" t="n">
         <v>588</v>
@@ -32057,7 +32057,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E5" t="n">
         <v>577</v>
@@ -32097,7 +32097,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E6" t="n">
         <v>577</v>
@@ -32137,7 +32137,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E7" t="n">
         <v>564</v>
@@ -32177,7 +32177,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E8" t="n">
         <v>542</v>
@@ -32217,7 +32217,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E9" t="n">
         <v>563</v>
@@ -32257,7 +32257,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E10" t="n">
         <v>542</v>
@@ -32297,7 +32297,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -32337,7 +32337,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E12" t="n">
         <v>544</v>
@@ -32377,7 +32377,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E13" t="n">
         <v>529</v>
@@ -32417,7 +32417,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E14" t="n">
         <v>525</v>
@@ -33200,7 +33200,7 @@
         <v>1357.6</v>
       </c>
       <c r="E3" t="n">
-        <v>2505.3</v>
+        <v>2504.3</v>
       </c>
     </row>
     <row r="4">
@@ -33320,13 +33320,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D9" t="n">
-        <v>985.9000000000001</v>
+        <v>992.9000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>1982</v>
+        <v>1997.9</v>
       </c>
     </row>
     <row r="10">
@@ -33362,13 +33362,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>771.8000000000001</v>
+        <v>780.8000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1256.7</v>
+        <v>1265.7</v>
       </c>
       <c r="E11" t="n">
-        <v>2028.3</v>
+        <v>2045.3</v>
       </c>
     </row>
     <row r="12">
@@ -33425,13 +33425,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2423</v>
+        <v>2408</v>
       </c>
       <c r="D14" t="n">
-        <v>4892</v>
+        <v>4861</v>
       </c>
       <c r="E14" t="n">
-        <v>10058.6</v>
+        <v>10006.6</v>
       </c>
     </row>
     <row r="15">
@@ -33446,13 +33446,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>159</v>
+        <v>166.5</v>
       </c>
       <c r="D15" t="n">
-        <v>341.1</v>
+        <v>349.8</v>
       </c>
       <c r="E15" t="n">
-        <v>668.9000000000001</v>
+        <v>681.1</v>
       </c>
     </row>
     <row r="16">
@@ -33470,10 +33470,10 @@
         <v>4.42</v>
       </c>
       <c r="D16" t="n">
-        <v>9.200000000000001</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>16.9</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="17">
@@ -33572,13 +33572,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D21" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E21" t="n">
-        <v>1798.6</v>
+        <v>1802.6</v>
       </c>
     </row>
     <row r="22">
@@ -33677,13 +33677,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1073.9</v>
+        <v>1065.9</v>
       </c>
       <c r="D26" t="n">
-        <v>2069.6</v>
+        <v>2054.6</v>
       </c>
       <c r="E26" t="n">
-        <v>3944.2</v>
+        <v>3929.2</v>
       </c>
     </row>
     <row r="27">
@@ -33725,7 +33725,7 @@
         <v>1209</v>
       </c>
       <c r="E28" t="n">
-        <v>1949.9</v>
+        <v>1943.9</v>
       </c>
     </row>
     <row r="29">
@@ -33743,10 +33743,10 @@
         <v>52.66</v>
       </c>
       <c r="D29" t="n">
-        <v>98.24000000000001</v>
+        <v>98.64000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>176.04</v>
+        <v>177.04</v>
       </c>
     </row>
     <row r="30">
@@ -33761,13 +33761,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>91.00000000000001</v>
+        <v>57.00000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>159</v>
+        <v>109.4</v>
       </c>
       <c r="E30" t="n">
-        <v>286.9</v>
+        <v>213.78</v>
       </c>
     </row>
     <row r="31">
@@ -33845,13 +33845,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12.88</v>
+        <v>12.78</v>
       </c>
       <c r="D34" t="n">
-        <v>27.76000000000001</v>
+        <v>27.22</v>
       </c>
       <c r="E34" t="n">
-        <v>55.36000000000001</v>
+        <v>53.82000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -33929,13 +33929,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>49.2</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
-        <v>109.2</v>
+        <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>239.2</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39">
@@ -33974,10 +33974,10 @@
         <v>0.5599999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E40" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="41">
@@ -34100,7 +34100,7 @@
         <v>443.3</v>
       </c>
       <c r="D46" t="n">
-        <v>803.6</v>
+        <v>798.6</v>
       </c>
       <c r="E46" t="n">
         <v>1376.5</v>
@@ -34160,13 +34160,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>57.36</v>
+        <v>58.16000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>140.48</v>
+        <v>141.28</v>
       </c>
       <c r="E49" t="n">
-        <v>305.9400000000001</v>
+        <v>306.74</v>
       </c>
     </row>
     <row r="50">
@@ -34223,13 +34223,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D52" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E52" t="n">
-        <v>803.7</v>
+        <v>796.7</v>
       </c>
     </row>
     <row r="53">
@@ -34394,10 +34394,10 @@
         <v>69.8</v>
       </c>
       <c r="D60" t="n">
-        <v>137.9</v>
+        <v>138.9</v>
       </c>
       <c r="E60" t="n">
-        <v>233.9</v>
+        <v>235.9</v>
       </c>
     </row>
     <row r="61">
@@ -34727,13 +34727,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76" t="n">
-        <v>266.1</v>
+        <v>265.1</v>
       </c>
       <c r="E76" t="n">
-        <v>502.1</v>
+        <v>501.1</v>
       </c>
     </row>
     <row r="77">
@@ -36147,7 +36147,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
         <v>35</v>
@@ -36227,7 +36227,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
         <v>36</v>
@@ -36267,7 +36267,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>36</v>
@@ -36427,7 +36427,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
         <v>34</v>
@@ -36467,7 +36467,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
         <v>33</v>
@@ -36507,7 +36507,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
         <v>34</v>
@@ -36627,7 +36627,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
         <v>32</v>
@@ -41164,7 +41164,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -41204,7 +41204,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -41244,7 +41244,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -41284,7 +41284,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -41444,7 +41444,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" t="n">
         <v>98</v>
@@ -41524,7 +41524,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
@@ -41684,7 +41684,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" t="n">
         <v>86</v>
@@ -41724,7 +41724,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
         <v>86</v>
@@ -44759,7 +44759,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E4" t="n">
         <v>197</v>
@@ -44799,7 +44799,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
         <v>194</v>
@@ -44839,7 +44839,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E6" t="n">
         <v>196</v>
@@ -46541,7 +46541,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -46581,7 +46581,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
         <v>88</v>
@@ -46661,7 +46661,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
         <v>81</v>
@@ -47012,7 +47012,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -47523,7 +47523,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E2" t="n">
         <v>158</v>
@@ -47563,7 +47563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E3" t="n">
         <v>172</v>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E15" t="n">
         <v>111</v>
@@ -48123,7 +48123,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" t="n">
         <v>106</v>
@@ -48234,7 +48234,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -48274,7 +48274,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
@@ -48314,7 +48314,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
@@ -48354,7 +48354,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>19</v>
@@ -48394,7 +48394,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -48434,7 +48434,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
@@ -48474,7 +48474,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v>21</v>
@@ -48514,7 +48514,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>21</v>
@@ -48554,7 +48554,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -48594,7 +48594,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -48634,7 +48634,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -48714,7 +48714,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
@@ -48754,7 +48754,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
@@ -48794,7 +48794,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v>18</v>
@@ -51358,7 +51358,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -53962,7 +53962,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -54042,7 +54042,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -60561,7 +60561,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
         <v>82</v>
@@ -60601,7 +60601,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
         <v>82</v>
@@ -60641,7 +60641,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
         <v>80</v>
@@ -60681,7 +60681,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
         <v>78</v>
@@ -60761,7 +60761,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>78</v>
@@ -60841,7 +60841,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
         <v>73</v>
@@ -62494,7 +62494,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>44</v>
@@ -65338,7 +65338,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
         <v>51</v>
@@ -65418,7 +65418,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -65498,7 +65498,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
         <v>49</v>
@@ -65538,7 +65538,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
@@ -65618,7 +65618,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
         <v>49</v>
@@ -65658,7 +65658,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
         <v>46</v>
@@ -65698,7 +65698,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
         <v>46</v>
@@ -65738,7 +65738,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
         <v>46</v>
@@ -71937,7 +71937,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
@@ -72257,7 +72257,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -83904,7 +83904,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -84264,7 +84264,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
         <v>27</v>
@@ -84304,7 +84304,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
         <v>26</v>
@@ -94449,7 +94449,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
         <v>85</v>
@@ -94489,7 +94489,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" t="n">
         <v>90</v>
@@ -94529,7 +94529,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E4" t="n">
         <v>99</v>
@@ -94849,7 +94849,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E12" t="n">
         <v>104</v>
@@ -94889,7 +94889,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E13" t="n">
         <v>103</v>
@@ -94929,7 +94929,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
         <v>101</v>
@@ -95049,7 +95049,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" t="n">
         <v>93</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" t="n">
         <v>274</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E4" t="n">
         <v>279</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E6" t="n">
         <v>278</v>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" t="n">
         <v>283</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E9" t="n">
         <v>286</v>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E10" t="n">
         <v>272</v>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E13" t="n">
         <v>273</v>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E6" t="n">
         <v>240</v>
@@ -10611,7 +10611,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
         <v>86</v>
@@ -10651,7 +10651,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>69</v>
@@ -10691,7 +10691,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v>74</v>
@@ -10731,7 +10731,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
         <v>74</v>
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
         <v>75</v>
@@ -10851,7 +10851,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
         <v>77</v>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" t="n">
         <v>77</v>
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
         <v>41</v>
@@ -11362,7 +11362,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
         <v>43</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
         <v>43</v>
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
         <v>42</v>
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v>44</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>46</v>
@@ -36045,10 +36045,10 @@
         <v>391.3</v>
       </c>
       <c r="D3" t="n">
-        <v>857.4000000000001</v>
+        <v>855.4000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1695.4</v>
+        <v>1676.1</v>
       </c>
     </row>
     <row r="4">
@@ -36090,7 +36090,7 @@
         <v>11.28</v>
       </c>
       <c r="E5" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="6">
@@ -36153,7 +36153,7 @@
         <v>541.1800000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1047.4</v>
+        <v>1046.8</v>
       </c>
     </row>
     <row r="9">
@@ -36315,13 +36315,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>149.9</v>
+        <v>158.8</v>
       </c>
       <c r="D16" t="n">
-        <v>315.7</v>
+        <v>326.5</v>
       </c>
       <c r="E16" t="n">
-        <v>619.2</v>
+        <v>630.7</v>
       </c>
     </row>
     <row r="17">
@@ -36336,13 +36336,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.18</v>
+        <v>3.48</v>
       </c>
       <c r="D17" t="n">
-        <v>7.26</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>14.26</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="18">
@@ -36483,13 +36483,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>313.16</v>
+        <v>314.56</v>
       </c>
       <c r="D24" t="n">
-        <v>622.2</v>
+        <v>625.48</v>
       </c>
       <c r="E24" t="n">
-        <v>1211.8</v>
+        <v>1223.14</v>
       </c>
     </row>
     <row r="25">
@@ -36546,13 +36546,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>809.8</v>
+        <v>811.8</v>
       </c>
       <c r="D27" t="n">
-        <v>1684.9</v>
+        <v>1686.9</v>
       </c>
       <c r="E27" t="n">
-        <v>3361.9</v>
+        <v>3363.9</v>
       </c>
     </row>
     <row r="28">
@@ -36588,13 +36588,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D29" t="n">
-        <v>1086.4</v>
+        <v>1068</v>
       </c>
       <c r="E29" t="n">
-        <v>2045</v>
+        <v>2013.6</v>
       </c>
     </row>
     <row r="30">
@@ -36609,13 +36609,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>66.88</v>
+        <v>66.67999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>127.68</v>
+        <v>127.48</v>
       </c>
       <c r="E30" t="n">
-        <v>256.74</v>
+        <v>256.54</v>
       </c>
     </row>
     <row r="31">
@@ -36630,13 +36630,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>39.3</v>
+        <v>38.98</v>
       </c>
       <c r="D31" t="n">
-        <v>80.98</v>
+        <v>80.66000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>161.66</v>
+        <v>160.74</v>
       </c>
     </row>
     <row r="32">
@@ -36717,10 +36717,10 @@
         <v>12.38</v>
       </c>
       <c r="D35" t="n">
-        <v>26.26000000000001</v>
+        <v>26.22</v>
       </c>
       <c r="E35" t="n">
-        <v>53.26000000000001</v>
+        <v>53.22000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -36822,10 +36822,10 @@
         <v>1899.3</v>
       </c>
       <c r="D40" t="n">
-        <v>3505.3</v>
+        <v>3482.3</v>
       </c>
       <c r="E40" t="n">
-        <v>6456.3</v>
+        <v>6425.3</v>
       </c>
     </row>
     <row r="41">
@@ -37056,7 +37056,7 @@
         <v>1258.4</v>
       </c>
       <c r="E51" t="n">
-        <v>2059.2</v>
+        <v>2062.2</v>
       </c>
     </row>
     <row r="52">
@@ -37098,7 +37098,7 @@
         <v>507</v>
       </c>
       <c r="E53" t="n">
-        <v>858</v>
+        <v>844</v>
       </c>
     </row>
     <row r="54">
@@ -37134,13 +37134,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>203.1</v>
+        <v>204.1</v>
       </c>
       <c r="D55" t="n">
-        <v>402.8</v>
+        <v>403.8</v>
       </c>
       <c r="E55" t="n">
-        <v>800.7</v>
+        <v>801.7</v>
       </c>
     </row>
     <row r="56">
@@ -37161,7 +37161,7 @@
         <v>285.3000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>554.3</v>
+        <v>553.1</v>
       </c>
     </row>
     <row r="57">
@@ -37308,7 +37308,7 @@
         <v>331.5000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>609.5</v>
+        <v>624.8000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -37407,13 +37407,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D68" t="n">
-        <v>287</v>
+        <v>292.1</v>
       </c>
       <c r="E68" t="n">
-        <v>557.7</v>
+        <v>564.9000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -37536,10 +37536,10 @@
         <v>467.5</v>
       </c>
       <c r="D74" t="n">
-        <v>849.4</v>
+        <v>848.4</v>
       </c>
       <c r="E74" t="n">
-        <v>1581.4</v>
+        <v>1584.4</v>
       </c>
     </row>
     <row r="75">
@@ -37602,7 +37602,7 @@
         <v>282</v>
       </c>
       <c r="E77" t="n">
-        <v>541.1</v>
+        <v>537.1</v>
       </c>
     </row>
     <row r="78">
@@ -37620,10 +37620,10 @@
         <v>87.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>169.9</v>
+        <v>167.9</v>
       </c>
       <c r="E78" t="n">
-        <v>331.5</v>
+        <v>321.7</v>
       </c>
     </row>
     <row r="79">
@@ -37785,13 +37785,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>44.68000000000001</v>
+        <v>44.28000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>90.92000000000002</v>
+        <v>90.52000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>180.02</v>
+        <v>179.62</v>
       </c>
     </row>
     <row r="87">
@@ -37809,10 +37809,10 @@
         <v>17.4</v>
       </c>
       <c r="D87" t="n">
-        <v>33.4</v>
+        <v>34.4</v>
       </c>
       <c r="E87" t="n">
-        <v>64.40000000000001</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -37848,13 +37848,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D89" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E89" t="n">
-        <v>771.7</v>
+        <v>769.7</v>
       </c>
     </row>
     <row r="90">
@@ -37869,13 +37869,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D90" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E90" t="n">
-        <v>1290.5</v>
+        <v>1297.5</v>
       </c>
     </row>
     <row r="91">
@@ -37932,13 +37932,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>434.24</v>
+        <v>433.44</v>
       </c>
       <c r="D93" t="n">
-        <v>852.4400000000001</v>
+        <v>851.4400000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>1715.44</v>
+        <v>1714.64</v>
       </c>
     </row>
     <row r="94">
@@ -38040,10 +38040,10 @@
         <v>45.4</v>
       </c>
       <c r="D98" t="n">
-        <v>91.20000000000002</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>185.42</v>
+        <v>185.62</v>
       </c>
     </row>
     <row r="99">
@@ -38079,13 +38079,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="D100" t="n">
-        <v>2044</v>
+        <v>2051</v>
       </c>
       <c r="E100" t="n">
-        <v>4618.7</v>
+        <v>4622.7</v>
       </c>
     </row>
     <row r="101">
@@ -38163,13 +38163,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>678.2</v>
+        <v>678.0000000000001</v>
       </c>
       <c r="D104" t="n">
         <v>1386.54</v>
       </c>
       <c r="E104" t="n">
-        <v>2793.88</v>
+        <v>2794.08</v>
       </c>
     </row>
     <row r="105">
@@ -38331,13 +38331,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D112" t="n">
-        <v>735.3</v>
+        <v>724.3</v>
       </c>
       <c r="E112" t="n">
-        <v>1451.6</v>
+        <v>1440.6</v>
       </c>
     </row>
     <row r="113">
@@ -38352,13 +38352,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D113" t="n">
-        <v>429.6</v>
+        <v>414</v>
       </c>
       <c r="E113" t="n">
-        <v>862.5</v>
+        <v>846.9</v>
       </c>
     </row>
     <row r="114">
@@ -39790,7 +39790,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
@@ -39830,7 +39830,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
         <v>32</v>
@@ -39870,7 +39870,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>33</v>
@@ -40030,7 +40030,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
         <v>32</v>
@@ -40070,7 +40070,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>31</v>
@@ -40270,7 +40270,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
         <v>29</v>
@@ -46189,7 +46189,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v>124</v>
@@ -46429,7 +46429,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
@@ -46469,7 +46469,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
         <v>108</v>
@@ -46509,7 +46509,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
         <v>106</v>
@@ -46549,7 +46549,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
         <v>103</v>
@@ -46589,7 +46589,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -46669,7 +46669,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>98</v>
@@ -46709,7 +46709,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -46749,7 +46749,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>95</v>
@@ -46789,7 +46789,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
         <v>94</v>
@@ -48362,7 +48362,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" t="n">
         <v>166</v>
@@ -48402,7 +48402,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" t="n">
         <v>168</v>
@@ -48442,7 +48442,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E5" t="n">
         <v>170</v>
@@ -49744,7 +49744,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" t="n">
         <v>175</v>
@@ -49784,7 +49784,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
         <v>132</v>
@@ -49824,7 +49824,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" t="n">
         <v>123</v>
@@ -49864,7 +49864,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" t="n">
         <v>118</v>
@@ -49904,7 +49904,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>
@@ -49944,7 +49944,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" t="n">
         <v>114</v>
@@ -49984,7 +49984,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
@@ -50024,7 +50024,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" t="n">
         <v>110</v>
@@ -50064,7 +50064,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E10" t="n">
         <v>108</v>
@@ -50104,7 +50104,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E11" t="n">
         <v>99</v>
@@ -50344,7 +50344,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E17" t="n">
         <v>92</v>
@@ -50735,7 +50735,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
         <v>92</v>
@@ -50855,7 +50855,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" t="n">
         <v>89</v>
@@ -50895,7 +50895,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
         <v>88</v>
@@ -50935,7 +50935,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14" t="n">
         <v>82</v>
@@ -50975,7 +50975,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" t="n">
         <v>80</v>
@@ -51015,7 +51015,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E16" t="n">
         <v>84</v>
@@ -51055,7 +51055,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" t="n">
         <v>75</v>
@@ -51917,7 +51917,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -59147,7 +59147,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E6" t="n">
         <v>357</v>
@@ -59187,7 +59187,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E7" t="n">
         <v>362</v>
@@ -59227,7 +59227,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E8" t="n">
         <v>354</v>
@@ -59267,7 +59267,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E9" t="n">
         <v>368</v>
@@ -59307,7 +59307,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E10" t="n">
         <v>353</v>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E11" t="n">
         <v>346</v>
@@ -59387,7 +59387,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E12" t="n">
         <v>343</v>
@@ -59427,7 +59427,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E13" t="n">
         <v>339</v>
@@ -59467,7 +59467,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E14" t="n">
         <v>333</v>
@@ -59507,7 +59507,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -59547,7 +59547,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E16" t="n">
         <v>321</v>
@@ -59587,7 +59587,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E17" t="n">
         <v>314</v>
@@ -67919,7 +67919,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
         <v>106</v>
@@ -67959,7 +67959,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" t="n">
         <v>105</v>
@@ -68039,7 +68039,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>98</v>
@@ -69341,7 +69341,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>45</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
         <v>44</v>
@@ -69421,7 +69421,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
         <v>43</v>
@@ -69461,7 +69461,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
         <v>40</v>
@@ -69501,7 +69501,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -69541,7 +69541,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
         <v>39</v>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
         <v>45</v>
@@ -70803,7 +70803,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -70843,7 +70843,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>39</v>
@@ -71554,7 +71554,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
         <v>26</v>
@@ -77122,7 +77122,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
         <v>31</v>
@@ -77162,7 +77162,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
         <v>34</v>
@@ -77202,7 +77202,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
         <v>31</v>
@@ -77242,7 +77242,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
         <v>29</v>
@@ -77282,7 +77282,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
         <v>29</v>
@@ -77322,7 +77322,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
         <v>29</v>
@@ -77362,7 +77362,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
@@ -80437,7 +80437,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>29</v>
@@ -80477,7 +80477,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
@@ -80597,7 +80597,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>29</v>
@@ -80717,7 +80717,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
         <v>27</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
@@ -85534,7 +85534,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
         <v>87</v>
@@ -85694,7 +85694,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" t="n">
         <v>85</v>
@@ -85774,7 +85774,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" t="n">
         <v>82</v>
@@ -85894,7 +85894,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>78</v>
@@ -87867,7 +87867,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
@@ -87907,7 +87907,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
         <v>26</v>
@@ -87987,7 +87987,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
         <v>26</v>
@@ -88027,7 +88027,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
@@ -88378,7 +88378,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -88418,7 +88418,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
@@ -88498,7 +88498,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>18</v>
@@ -88538,7 +88538,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
         <v>17</v>
@@ -88578,7 +88578,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -88618,7 +88618,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
         <v>17</v>
@@ -88658,7 +88658,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -88698,7 +88698,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -88738,7 +88738,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -95408,7 +95408,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -96670,7 +96670,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
         <v>35</v>
@@ -96790,7 +96790,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
@@ -96830,7 +96830,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>41</v>
@@ -96870,7 +96870,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
         <v>39</v>
@@ -96910,7 +96910,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
         <v>41</v>
@@ -96950,7 +96950,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v>41</v>
@@ -97070,7 +97070,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
@@ -98092,7 +98092,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
         <v>69</v>
@@ -98132,7 +98132,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
         <v>69</v>
@@ -98172,7 +98172,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
         <v>68</v>
@@ -98212,7 +98212,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
         <v>66</v>
@@ -98252,7 +98252,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
         <v>68</v>
@@ -98292,7 +98292,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
         <v>63</v>
@@ -98372,7 +98372,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" t="n">
         <v>70</v>
@@ -100345,7 +100345,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
         <v>165</v>
@@ -100385,7 +100385,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" t="n">
         <v>166</v>
@@ -100665,7 +100665,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
         <v>148</v>
@@ -104020,7 +104020,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>21</v>
@@ -104260,7 +104260,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
         <v>82</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" t="n">
         <v>87</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" t="n">
         <v>85</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" t="n">
         <v>84</v>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
         <v>80</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" t="n">
         <v>80</v>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" t="n">
         <v>75</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v>74</v>
@@ -1731,13 +1731,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>407.3</v>
+        <v>415.3</v>
       </c>
       <c r="D2" t="n">
-        <v>836.4000000000001</v>
+        <v>846.4000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>1588</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast.xlsx
+++ b/consolidated_forecast.xlsx
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>82</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" t="n">
         <v>87</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
         <v>85</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" t="n">
         <v>84</v>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" t="n">
         <v>80</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
         <v>80</v>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
         <v>75</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
         <v>74</v>
@@ -1731,13 +1731,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>415.3</v>
+        <v>407.3</v>
       </c>
       <c r="D2" t="n">
-        <v>846.4000000000001</v>
+        <v>836.4000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>1612</v>
+        <v>1588</v>
       </c>
     </row>
   </sheetData>
